--- a/tests/Feature/config/house_tenpercent.xlsx
+++ b/tests/Feature/config/house_tenpercent.xlsx
@@ -3260,17 +3260,17 @@
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="1">
-        <v>176189.43715882</v>
+        <v>176189.36987292</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="1">
-        <v>147381.05628412</v>
+        <v>147381.0</v>
       </c>
       <c r="J39" s="1">
-        <v>28808.3808747</v>
+        <v>28808.369872918</v>
       </c>
       <c r="K39" s="1">
-        <v>1445002.1819665</v>
+        <v>1445001.6301271</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="1">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="1">
-        <v>32423.832382506</v>
+        <v>32423.82</v>
       </c>
       <c r="P39" s="6">
         <v>3300000</v>
@@ -3293,10 +3293,10 @@
       <c r="T39" s="1"/>
       <c r="U39" s="6"/>
       <c r="V39" s="1">
-        <v>-248375.60477631</v>
+        <v>-248375.54987292</v>
       </c>
       <c r="W39" s="1">
-        <v>1854997.8180335</v>
+        <v>1854998.3698729</v>
       </c>
       <c r="X39" s="1"/>
       <c r="Y39" s="1">
@@ -3306,16 +3306,16 @@
         <v>0</v>
       </c>
       <c r="AA39" s="1">
-        <v>-1445002.1819665</v>
+        <v>-1445001.6301271</v>
       </c>
       <c r="AB39" s="1">
-        <v>28808.3808747</v>
+        <v>28808.369872918</v>
       </c>
       <c r="AC39" s="1">
-        <v>-182508.84302691</v>
+        <v>-182508.81012708</v>
       </c>
       <c r="AD39">
-        <v>-2.980601766921</v>
+        <v>-2.9806023679026</v>
       </c>
       <c r="AE39"/>
     </row>
@@ -3335,17 +3335,17 @@
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
-        <v>176189.43715882</v>
+        <v>176189.29304138</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="11">
-        <v>144500.21819665</v>
+        <v>144500.1</v>
       </c>
       <c r="J40" s="11">
-        <v>31689.218962171</v>
+        <v>31689.193041383</v>
       </c>
       <c r="K40" s="11">
-        <v>1413312.9630043</v>
+        <v>1413311.8069586</v>
       </c>
       <c r="L40" s="12"/>
       <c r="M40" s="11">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="11">
-        <v>31790.048003263</v>
+        <v>31790.022</v>
       </c>
       <c r="P40" s="11">
         <v>3630000</v>
@@ -3368,10 +3368,10 @@
       <c r="T40" s="11"/>
       <c r="U40" s="11"/>
       <c r="V40" s="11">
-        <v>-259470.38915556</v>
+        <v>-259470.27104138</v>
       </c>
       <c r="W40" s="11">
-        <v>2216687.0369957</v>
+        <v>2216688.1930414</v>
       </c>
       <c r="X40" s="11"/>
       <c r="Y40" s="11">
@@ -3381,16 +3381,16 @@
         <v>0</v>
       </c>
       <c r="AA40" s="11">
-        <v>-1413312.9630043</v>
+        <v>-1413311.8069586</v>
       </c>
       <c r="AB40" s="11">
-        <v>31689.218962171</v>
+        <v>31689.193041383</v>
       </c>
       <c r="AC40" s="11">
-        <v>-187016.95123121</v>
+        <v>-187016.88495862</v>
       </c>
       <c r="AD40" s="10">
-        <v>-2.9461107566515</v>
+        <v>-2.946112122475</v>
       </c>
       <c r="AE40"/>
     </row>
@@ -3410,17 +3410,17 @@
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
-        <v>176189.43715882</v>
+        <v>176189.19244259</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="1">
-        <v>141331.29630043</v>
+        <v>141331.1</v>
       </c>
       <c r="J41" s="1">
-        <v>34858.140858388</v>
+        <v>34858.092442585</v>
       </c>
       <c r="K41" s="1">
-        <v>1378454.8221459</v>
+        <v>1378452.9075574</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="1">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="1">
-        <v>31092.885186095</v>
+        <v>31092.842</v>
       </c>
       <c r="P41" s="6">
         <v>3993000</v>
@@ -3443,10 +3443,10 @@
       <c r="T41" s="1"/>
       <c r="U41" s="6"/>
       <c r="V41" s="1">
-        <v>-271674.05197272</v>
+        <v>-271673.85044259</v>
       </c>
       <c r="W41" s="1">
-        <v>2614545.1778541</v>
+        <v>2614547.0924426</v>
       </c>
       <c r="X41" s="1"/>
       <c r="Y41" s="1">
@@ -3456,16 +3456,16 @@
         <v>0</v>
       </c>
       <c r="AA41" s="1">
-        <v>-1378454.8221459</v>
+        <v>-1378452.9075574</v>
       </c>
       <c r="AB41" s="1">
-        <v>34858.140858388</v>
+        <v>34858.092442585</v>
       </c>
       <c r="AC41" s="1">
-        <v>-191975.87025595</v>
+        <v>-191975.76555741</v>
       </c>
       <c r="AD41">
-        <v>-2.9108852700254</v>
+        <v>-2.9108877255491</v>
       </c>
       <c r="AE41"/>
     </row>
@@ -3485,17 +3485,17 @@
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
-        <v>176189.43715882</v>
+        <v>176189.07644166</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="1">
-        <v>137845.48221459</v>
+        <v>137845.2</v>
       </c>
       <c r="J42" s="1">
-        <v>38343.954944226</v>
+        <v>38343.876441664</v>
       </c>
       <c r="K42" s="1">
-        <v>1340110.8672017</v>
+        <v>1340108.1235583</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="1">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="1">
-        <v>30326.00608721</v>
+        <v>30325.944</v>
       </c>
       <c r="P42" s="6">
         <v>4392300</v>
@@ -3518,10 +3518,10 @@
       <c r="T42" s="1"/>
       <c r="U42" s="6"/>
       <c r="V42" s="1">
-        <v>-285099.18107161</v>
+        <v>-285098.88244166</v>
       </c>
       <c r="W42" s="1">
-        <v>3052189.1327983</v>
+        <v>3052191.8764417</v>
       </c>
       <c r="X42" s="1"/>
       <c r="Y42" s="1">
@@ -3531,16 +3531,16 @@
         <v>0</v>
       </c>
       <c r="AA42" s="1">
-        <v>-1340110.8672017</v>
+        <v>-1340108.1235583</v>
       </c>
       <c r="AB42" s="1">
-        <v>38343.954944226</v>
+        <v>38343.876441664</v>
       </c>
       <c r="AC42" s="1">
-        <v>-197430.68118316</v>
+        <v>-197430.53955834</v>
       </c>
       <c r="AD42">
-        <v>-2.8750661601915</v>
+        <v>-2.8750699839977</v>
       </c>
       <c r="AE42"/>
     </row>
@@ -3560,17 +3560,17 @@
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
-        <v>176189.43715882</v>
+        <v>176189.06019698</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="1">
-        <v>134011.08672017</v>
+        <v>134010.8</v>
       </c>
       <c r="J43" s="1">
-        <v>42178.350438649</v>
+        <v>42178.260196983</v>
       </c>
       <c r="K43" s="1">
-        <v>1297932.516763</v>
+        <v>1297929.739803</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="1">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="1">
-        <v>29482.439078437</v>
+        <v>29482.376</v>
       </c>
       <c r="P43" s="6">
         <v>4831530</v>
@@ -3593,10 +3593,10 @@
       <c r="T43" s="1"/>
       <c r="U43" s="6"/>
       <c r="V43" s="1">
-        <v>-299865.82308038</v>
+        <v>-299865.50919698</v>
       </c>
       <c r="W43" s="1">
-        <v>3533597.483237</v>
+        <v>3533600.260197</v>
       </c>
       <c r="X43" s="1"/>
       <c r="Y43" s="1">
@@ -3606,16 +3606,16 @@
         <v>0</v>
       </c>
       <c r="AA43" s="1">
-        <v>-1297932.516763</v>
+        <v>-1297929.739803</v>
       </c>
       <c r="AB43" s="1">
-        <v>42178.350438649</v>
+        <v>42178.260196983</v>
       </c>
       <c r="AC43" s="1">
-        <v>-203430.97320308</v>
+        <v>-203430.83980302</v>
       </c>
       <c r="AD43">
-        <v>-2.8388045202123</v>
+        <v>-2.8388087323677</v>
       </c>
       <c r="AE43"/>
     </row>
@@ -3635,17 +3635,17 @@
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
-        <v>176189.43715882</v>
+        <v>176188.95977152</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="1">
-        <v>129793.2516763</v>
+        <v>129792.9</v>
       </c>
       <c r="J44" s="1">
-        <v>46396.185482514</v>
+        <v>46396.059771517</v>
       </c>
       <c r="K44" s="1">
-        <v>1251536.3312805</v>
+        <v>1251532.9402285</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="1">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="1">
-        <v>28554.515368787</v>
+        <v>28554.438</v>
       </c>
       <c r="P44" s="6">
         <v>5314683</v>
@@ -3668,10 +3668,10 @@
       <c r="T44" s="1"/>
       <c r="U44" s="6"/>
       <c r="V44" s="1">
-        <v>-316109.62929003</v>
+        <v>-316109.22927152</v>
       </c>
       <c r="W44" s="1">
-        <v>4063146.6687195</v>
+        <v>4063150.0597715</v>
       </c>
       <c r="X44" s="1"/>
       <c r="Y44" s="1">
@@ -3681,16 +3681,16 @@
         <v>0</v>
       </c>
       <c r="AA44" s="1">
-        <v>-1251536.3312805</v>
+        <v>-1251532.9402285</v>
       </c>
       <c r="AB44" s="1">
-        <v>46396.185482514</v>
+        <v>46396.059771517</v>
       </c>
       <c r="AC44" s="1">
-        <v>-210031.294425</v>
+        <v>-210031.14582848</v>
       </c>
       <c r="AD44">
-        <v>-2.8022592456033</v>
+        <v>-2.8022648557819</v>
       </c>
       <c r="AE44"/>
     </row>
@@ -3710,17 +3710,17 @@
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
-        <v>176189.43715882</v>
+        <v>176188.82740754</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="1">
-        <v>125153.63312805</v>
+        <v>125153.2</v>
       </c>
       <c r="J45" s="1">
-        <v>51035.804030765</v>
+        <v>51035.627407539</v>
       </c>
       <c r="K45" s="1">
-        <v>1200500.5272498</v>
+        <v>1200496.3725925</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="1">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="1">
-        <v>27533.799288172</v>
+        <v>27533.704</v>
       </c>
       <c r="P45" s="6">
         <v>5846151</v>
@@ -3743,10 +3743,10 @@
       <c r="T45" s="1"/>
       <c r="U45" s="6"/>
       <c r="V45" s="1">
-        <v>-333978.01537065</v>
+        <v>-333977.50090754</v>
       </c>
       <c r="W45" s="1">
-        <v>4645650.4727502</v>
+        <v>4645654.6274075</v>
       </c>
       <c r="X45" s="1"/>
       <c r="Y45" s="1">
@@ -3756,16 +3756,16 @@
         <v>0</v>
       </c>
       <c r="AA45" s="1">
-        <v>-1200500.5272498</v>
+        <v>-1200496.3725925</v>
       </c>
       <c r="AB45" s="1">
-        <v>51035.804030765</v>
+        <v>51035.627407539</v>
       </c>
       <c r="AC45" s="1">
-        <v>-217291.64776912</v>
+        <v>-217291.48655246</v>
       </c>
       <c r="AD45">
-        <v>-2.7655943086166</v>
+        <v>-2.765601827835</v>
       </c>
       <c r="AE45"/>
     </row>
@@ -3785,17 +3785,17 @@
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
-        <v>176189.43715882</v>
+        <v>176188.77272463</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="1">
-        <v>120050.05272498</v>
+        <v>120049.6</v>
       </c>
       <c r="J46" s="1">
-        <v>56139.384433842</v>
+        <v>56139.172724634</v>
       </c>
       <c r="K46" s="1">
-        <v>1144361.1428159</v>
+        <v>1144356.8272754</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="1">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="1">
-        <v>26411.011599495</v>
+        <v>26410.912</v>
       </c>
       <c r="P46" s="6">
         <v>6430766</v>
@@ -3818,10 +3818,10 @@
       <c r="T46" s="1"/>
       <c r="U46" s="6"/>
       <c r="V46" s="1">
-        <v>-353633.34055932</v>
+        <v>-353632.77572463</v>
       </c>
       <c r="W46" s="1">
-        <v>5286404.8571841</v>
+        <v>5286409.1727246</v>
       </c>
       <c r="X46" s="1"/>
       <c r="Y46" s="1">
@@ -3831,16 +3831,16 @@
         <v>0</v>
       </c>
       <c r="AA46" s="1">
-        <v>-1144361.1428159</v>
+        <v>-1144356.8272754</v>
       </c>
       <c r="AB46" s="1">
-        <v>56139.384433842</v>
+        <v>56139.172724634</v>
       </c>
       <c r="AC46" s="1">
-        <v>-225278.03644764</v>
+        <v>-225277.89503137</v>
       </c>
       <c r="AD46">
-        <v>-2.7289758410931</v>
+        <v>-2.728984419372</v>
       </c>
       <c r="AE46"/>
     </row>
@@ -3860,17 +3860,17 @@
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
-        <v>176189.43715882</v>
+        <v>176188.64535472</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="1">
-        <v>114436.11428159</v>
+        <v>114435.6</v>
       </c>
       <c r="J47" s="1">
-        <v>61753.322877226</v>
+        <v>61753.04535472</v>
       </c>
       <c r="K47" s="1">
-        <v>1082607.8199387</v>
+        <v>1082602.9546453</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="1">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="1">
-        <v>25175.94514195</v>
+        <v>25175.832</v>
       </c>
       <c r="P47" s="6">
         <v>7073843</v>
@@ -3893,10 +3893,10 @@
       <c r="T47" s="1"/>
       <c r="U47" s="6"/>
       <c r="V47" s="1">
-        <v>-375254.09951687</v>
+        <v>-375253.42085472</v>
       </c>
       <c r="W47" s="1">
-        <v>5991235.1800613</v>
+        <v>5991240.0453547</v>
       </c>
       <c r="X47" s="1"/>
       <c r="Y47" s="1">
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="AA47" s="1">
-        <v>-1082607.8199387</v>
+        <v>-1082602.9546453</v>
       </c>
       <c r="AB47" s="1">
-        <v>61753.322877226</v>
+        <v>61753.04535472</v>
       </c>
       <c r="AC47" s="1">
-        <v>-234063.06399402</v>
+        <v>-234062.94037688</v>
       </c>
       <c r="AD47">
-        <v>-2.6925691349705</v>
+        <v>-2.6925798135155</v>
       </c>
       <c r="AE47"/>
     </row>
@@ -3935,17 +3935,17 @@
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
-        <v>176189.43715882</v>
+        <v>176188.4899906</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="1">
-        <v>108260.78199387</v>
+        <v>108260.2</v>
       </c>
       <c r="J48" s="1">
-        <v>67928.655164949</v>
+        <v>67928.289990597</v>
       </c>
       <c r="K48" s="1">
-        <v>1014679.1647738</v>
+        <v>1014673.7100094</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="1">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="1">
-        <v>23817.372038651</v>
+        <v>23817.244</v>
       </c>
       <c r="P48" s="6">
         <v>7781227</v>
@@ -3968,10 +3968,10 @@
       <c r="T48" s="1"/>
       <c r="U48" s="6"/>
       <c r="V48" s="1">
-        <v>-399036.13262017</v>
+        <v>-399035.3134906</v>
       </c>
       <c r="W48" s="1">
-        <v>6766547.8352262</v>
+        <v>6766553.2899906</v>
       </c>
       <c r="X48" s="1"/>
       <c r="Y48" s="1">
@@ -3981,16 +3981,16 @@
         <v>0</v>
       </c>
       <c r="AA48" s="1">
-        <v>-1014679.1647738</v>
+        <v>-1014673.7100094</v>
       </c>
       <c r="AB48" s="1">
-        <v>67928.655164949</v>
+        <v>67928.289990597</v>
       </c>
       <c r="AC48" s="1">
-        <v>-243726.59429503</v>
+        <v>-243726.50551416</v>
       </c>
       <c r="AD48">
-        <v>-2.6565356748817</v>
+        <v>-2.6565489884134</v>
       </c>
       <c r="AE48"/>
     </row>
@@ -4010,17 +4010,17 @@
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
-        <v>176189.43715882</v>
+        <v>176188.36670418</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="1">
-        <v>101467.91647738</v>
+        <v>101467.3</v>
       </c>
       <c r="J49" s="1">
-        <v>74721.520681444</v>
+        <v>74721.066704181</v>
       </c>
       <c r="K49" s="1">
-        <v>939957.64409231</v>
+        <v>939951.93329582</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="1">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="1">
-        <v>22322.941625023</v>
+        <v>22322.806</v>
       </c>
       <c r="P49" s="6">
         <v>8559350</v>
@@ -4043,10 +4043,10 @@
       <c r="T49" s="1"/>
       <c r="U49" s="6"/>
       <c r="V49" s="1">
-        <v>-425197.8705338</v>
+        <v>-425196.93570418</v>
       </c>
       <c r="W49" s="1">
-        <v>7619392.3559077</v>
+        <v>7619398.0667042</v>
       </c>
       <c r="X49" s="1"/>
       <c r="Y49" s="1">
@@ -4056,16 +4056,16 @@
         <v>0</v>
       </c>
       <c r="AA49" s="1">
-        <v>-939957.64409231</v>
+        <v>-939951.93329582</v>
       </c>
       <c r="AB49" s="1">
-        <v>74721.520681444</v>
+        <v>74721.066704181</v>
       </c>
       <c r="AC49" s="1">
-        <v>-254356.47762615</v>
+        <v>-254356.45075106</v>
       </c>
       <c r="AD49">
-        <v>-2.6210303151858</v>
+        <v>-2.6210459626484</v>
       </c>
       <c r="AE49"/>
     </row>
@@ -4085,17 +4085,17 @@
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
-        <v>176189.43715882</v>
+        <v>176188.19176346</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="1">
-        <v>93995.764409231</v>
+        <v>93995.1</v>
       </c>
       <c r="J50" s="1">
-        <v>82193.672749588</v>
+        <v>82193.091763463</v>
       </c>
       <c r="K50" s="1">
-        <v>857763.97134272</v>
+        <v>857757.90823654</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="1">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="1">
-        <v>20679.068170031</v>
+        <v>20678.922</v>
       </c>
       <c r="P50" s="6">
         <v>9415285</v>
@@ -4118,10 +4118,10 @@
       <c r="T50" s="1"/>
       <c r="U50" s="6"/>
       <c r="V50" s="1">
-        <v>-453974.58148879</v>
+        <v>-453973.48226346</v>
       </c>
       <c r="W50" s="1">
-        <v>8557521.0286573</v>
+        <v>8557527.0917635</v>
       </c>
       <c r="X50" s="1"/>
       <c r="Y50" s="1">
@@ -4131,16 +4131,16 @@
         <v>0</v>
       </c>
       <c r="AA50" s="1">
-        <v>-857763.97134272</v>
+        <v>-857757.90823654</v>
       </c>
       <c r="AB50" s="1">
-        <v>82193.672749588</v>
+        <v>82193.091763463</v>
       </c>
       <c r="AC50" s="1">
-        <v>-266049.34929037</v>
+        <v>-266049.4120373</v>
       </c>
       <c r="AD50">
-        <v>-2.5861987044581</v>
+        <v>-2.5862175950889</v>
       </c>
       <c r="AE50"/>
     </row>
@@ -4160,17 +4160,17 @@
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
-        <v>176189.43715882</v>
+        <v>176188.00520668</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="1">
-        <v>85776.397134272</v>
+        <v>85775.7</v>
       </c>
       <c r="J51" s="1">
-        <v>90413.040024547</v>
+        <v>90412.305206684</v>
       </c>
       <c r="K51" s="1">
-        <v>767350.93131817</v>
+        <v>767344.69479332</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="1">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="1">
-        <v>18870.80736954</v>
+        <v>18870.654</v>
       </c>
       <c r="P51" s="6">
         <v>10356814</v>
@@ -4193,10 +4193,10 @@
       <c r="T51" s="1"/>
       <c r="U51" s="6"/>
       <c r="V51" s="1">
-        <v>-485628.66478928</v>
+        <v>-485627.38620668</v>
       </c>
       <c r="W51" s="1">
-        <v>9589463.0686818</v>
+        <v>9589469.3052067</v>
       </c>
       <c r="X51" s="1"/>
       <c r="Y51" s="1">
@@ -4206,16 +4206,16 @@
         <v>0</v>
       </c>
       <c r="AA51" s="1">
-        <v>-767350.93131817</v>
+        <v>-767344.69479332</v>
       </c>
       <c r="AB51" s="1">
-        <v>90413.040024547</v>
+        <v>90412.305206684</v>
       </c>
       <c r="AC51" s="1">
-        <v>-278911.50812103</v>
+        <v>-278911.69917416</v>
       </c>
       <c r="AD51">
-        <v>-2.5521750448193</v>
+        <v>-2.5521975356346</v>
       </c>
       <c r="AE51"/>
     </row>
@@ -4235,17 +4235,17 @@
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
-        <v>176189.43715882</v>
+        <v>176187.84567701</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="1">
-        <v>76735.093131817</v>
+        <v>76734.4</v>
       </c>
       <c r="J52" s="1">
-        <v>99454.344027001</v>
+        <v>99453.445677011</v>
       </c>
       <c r="K52" s="1">
-        <v>667896.58729117</v>
+        <v>667890.55432299</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="1">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="1">
-        <v>16881.720489</v>
+        <v>16881.568</v>
       </c>
       <c r="P52" s="6">
         <v>11392495</v>
@@ -4268,10 +4268,10 @@
       <c r="T52" s="1"/>
       <c r="U52" s="6"/>
       <c r="V52" s="1">
-        <v>-520448.95416982</v>
+        <v>-520447.51517701</v>
       </c>
       <c r="W52" s="1">
-        <v>10724598.412709</v>
+        <v>10724604.445677</v>
       </c>
       <c r="X52" s="1"/>
       <c r="Y52" s="1">
@@ -4281,16 +4281,16 @@
         <v>0</v>
       </c>
       <c r="AA52" s="1">
-        <v>-667896.58729117</v>
+        <v>-667890.55432299</v>
       </c>
       <c r="AB52" s="1">
-        <v>99454.344027001</v>
+        <v>99453.445677011</v>
       </c>
       <c r="AC52" s="1">
-        <v>-293059.88283474</v>
+        <v>-293060.24054191</v>
       </c>
       <c r="AD52">
-        <v>-2.5190802530064</v>
+        <v>-2.5191060823318</v>
       </c>
       <c r="AE52"/>
     </row>
@@ -4310,17 +4310,17 @@
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
-        <v>176189.43715882</v>
+        <v>176187.699448</v>
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="13">
-        <v>66789.658729117</v>
+        <v>66789.0</v>
       </c>
       <c r="J53" s="13">
-        <v>109399.7784297</v>
+        <v>109398.699448</v>
       </c>
       <c r="K53" s="13">
-        <v>558496.80886147</v>
+        <v>558491.300552</v>
       </c>
       <c r="L53" s="14"/>
       <c r="M53" s="13">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="N53" s="14"/>
       <c r="O53" s="13">
-        <v>14693.724920406</v>
+        <v>14693.58</v>
       </c>
       <c r="P53" s="13">
         <v>12531745</v>
@@ -4343,10 +4343,10 @@
       <c r="T53" s="13"/>
       <c r="U53" s="13"/>
       <c r="V53" s="13">
-        <v>-558751.07473841</v>
+        <v>-558749.481948</v>
       </c>
       <c r="W53" s="13">
-        <v>11973248.191139</v>
+        <v>11973253.699448</v>
       </c>
       <c r="X53" s="13"/>
       <c r="Y53" s="13">
@@ -4356,16 +4356,16 @@
         <v>0</v>
       </c>
       <c r="AA53" s="13">
-        <v>-558496.80886147</v>
+        <v>-558491.300552</v>
       </c>
       <c r="AB53" s="13">
-        <v>109399.7784297</v>
+        <v>109398.699448</v>
       </c>
       <c r="AC53" s="13">
-        <v>-308623.09501982</v>
+        <v>-308623.66019281</v>
       </c>
       <c r="AD53" s="3">
-        <v>-2.4870205666536</v>
+        <v>-2.487049650193</v>
       </c>
       <c r="AE53"/>
     </row>
@@ -4385,17 +4385,17 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
-        <v>176189.43715882</v>
+        <v>176187.60463262</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="1">
-        <v>55849.680886147</v>
+        <v>55849.1</v>
       </c>
       <c r="J54" s="1">
-        <v>120339.75627267</v>
+        <v>120338.50463262</v>
       </c>
       <c r="K54" s="1">
-        <v>438157.0525888</v>
+        <v>438152.49536738</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="1">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="1">
-        <v>12286.929794952</v>
+        <v>12286.802</v>
       </c>
       <c r="P54" s="6">
         <v>13784920</v>
@@ -4418,10 +4418,10 @@
       <c r="T54" s="1"/>
       <c r="U54" s="6"/>
       <c r="V54" s="1">
-        <v>-600883.80736387</v>
+        <v>-600882.10263262</v>
       </c>
       <c r="W54" s="1">
-        <v>13346762.947411</v>
+        <v>13346767.504633</v>
       </c>
       <c r="X54" s="1"/>
       <c r="Y54" s="1">
@@ -4431,16 +4431,16 @@
         <v>0</v>
       </c>
       <c r="AA54" s="1">
-        <v>-438157.0525888</v>
+        <v>-438152.49536738</v>
       </c>
       <c r="AB54" s="1">
-        <v>120339.75627267</v>
+        <v>120338.50463262</v>
       </c>
       <c r="AC54" s="1">
-        <v>-325742.62842341</v>
+        <v>-325743.42697227</v>
       </c>
       <c r="AD54">
-        <v>-2.4560866148561</v>
+        <v>-2.4561181816875</v>
       </c>
       <c r="AE54"/>
     </row>
@@ -4460,17 +4460,17 @@
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
-        <v>176189.43715882</v>
+        <v>176187.40543807</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="1">
-        <v>43815.70525888</v>
+        <v>43815.2</v>
       </c>
       <c r="J55" s="1">
-        <v>132373.73189994</v>
+        <v>132372.20543807</v>
       </c>
       <c r="K55" s="1">
-        <v>305783.32068886</v>
+        <v>305779.79456193</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="1">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="1">
-        <v>9639.4551569536</v>
+        <v>9639.344</v>
       </c>
       <c r="P55" s="6">
         <v>15163412</v>
@@ -4493,10 +4493,10 @@
       <c r="T55" s="1"/>
       <c r="U55" s="6"/>
       <c r="V55" s="1">
-        <v>-647229.51200187</v>
+        <v>-647227.59143807</v>
       </c>
       <c r="W55" s="1">
-        <v>14857628.679311</v>
+        <v>14857632.205438</v>
       </c>
       <c r="X55" s="1"/>
       <c r="Y55" s="1">
@@ -4506,16 +4506,16 @@
         <v>0</v>
       </c>
       <c r="AA55" s="1">
-        <v>-305783.32068886</v>
+        <v>-305779.79456193</v>
       </c>
       <c r="AB55" s="1">
-        <v>132373.73189994</v>
+        <v>132372.20543807</v>
       </c>
       <c r="AC55" s="1">
-        <v>-344574.11516737</v>
+        <v>-344575.24752731</v>
       </c>
       <c r="AD55">
-        <v>-2.426352948683</v>
+        <v>-2.4263889021054</v>
       </c>
       <c r="AE55"/>
     </row>
@@ -4535,17 +4535,17 @@
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
-        <v>176189.43715882</v>
+        <v>176186.94761905</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="1">
-        <v>30578.332068886</v>
+        <v>30577.9</v>
       </c>
       <c r="J56" s="1">
-        <v>145611.10508993</v>
+        <v>145609.04761905</v>
       </c>
       <c r="K56" s="1">
-        <v>160172.21559893</v>
+        <v>160169.95238095</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="1">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="1">
-        <v>6727.2330551549</v>
+        <v>6727.138</v>
       </c>
       <c r="P56" s="6">
         <v>16679753</v>
@@ -4568,10 +4568,10 @@
       <c r="T56" s="1"/>
       <c r="U56" s="6"/>
       <c r="V56" s="1">
-        <v>-698209.58660366</v>
+        <v>-698207.19211905</v>
       </c>
       <c r="W56" s="1">
-        <v>16519580.784401</v>
+        <v>16519583.047619</v>
       </c>
       <c r="X56" s="1"/>
       <c r="Y56" s="1">
@@ -4581,16 +4581,16 @@
         <v>0</v>
       </c>
       <c r="AA56" s="1">
-        <v>-160172.21559893</v>
+        <v>-160169.95238095</v>
       </c>
       <c r="AB56" s="1">
-        <v>145611.10508993</v>
+        <v>145609.04761905</v>
       </c>
       <c r="AC56" s="1">
-        <v>-365288.75058572</v>
+        <v>-365290.47104287</v>
       </c>
       <c r="AD56">
-        <v>-2.3978780065056</v>
+        <v>-2.3979231825875</v>
       </c>
       <c r="AE56"/>
     </row>
@@ -4610,14 +4610,14 @@
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
-        <v>176189.43715882</v>
+        <v>176185.9</v>
       </c>
       <c r="H57" s="14"/>
       <c r="I57" s="13">
-        <v>16017.221559893</v>
+        <v>16016.9</v>
       </c>
       <c r="J57" s="13">
-        <v>160172.21559893</v>
+        <v>160169.0</v>
       </c>
       <c r="K57" s="13">
         <v>2.9103830456734E-11</v>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="N57" s="14"/>
       <c r="O57" s="13">
-        <v>3523.7887431764</v>
+        <v>3523.718</v>
       </c>
       <c r="P57" s="13">
         <v>18347728</v>
@@ -4643,7 +4643,7 @@
       <c r="T57" s="13"/>
       <c r="U57" s="13"/>
       <c r="V57" s="13">
-        <v>-754287.96841564</v>
+        <v>-754284.502</v>
       </c>
       <c r="W57" s="13">
         <v>18347728.0</v>
@@ -4659,13 +4659,13 @@
         <v>-2.9103830456734E-11</v>
       </c>
       <c r="AB57" s="13">
-        <v>160172.21559893</v>
+        <v>160169.0</v>
       </c>
       <c r="AC57" s="13">
-        <v>-388074.8495459</v>
+        <v>-388077.81432811</v>
       </c>
       <c r="AD57" s="3">
-        <v>-2.3707044720217</v>
+        <v>-2.3707701788427</v>
       </c>
       <c r="AE57"/>
     </row>
@@ -8406,19 +8406,19 @@
         <v>0.1</v>
       </c>
       <c r="G39" s="1">
-        <v>176189.43715882</v>
+        <v>176189.36987292</v>
       </c>
       <c r="H39" s="2">
         <v>0.1</v>
       </c>
       <c r="I39" s="1">
-        <v>147381.05628412</v>
+        <v>147381.0</v>
       </c>
       <c r="J39" s="1">
-        <v>28808.3808747</v>
+        <v>28808.369872918</v>
       </c>
       <c r="K39" s="1">
-        <v>1445002.1819665</v>
+        <v>1445001.6301271</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="1">
@@ -8426,7 +8426,7 @@
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="1">
-        <v>32423.832382506</v>
+        <v>32423.82</v>
       </c>
       <c r="P39" s="6">
         <v>3300000</v>
@@ -8445,13 +8445,13 @@
         <v>8250.0</v>
       </c>
       <c r="V39" s="1">
-        <v>-248375.60477631</v>
+        <v>-248375.54987292</v>
       </c>
       <c r="W39" s="1">
-        <v>1854997.8180335</v>
+        <v>1854998.3698729</v>
       </c>
       <c r="X39" s="1">
-        <v>0.43787944908075</v>
+        <v>0.43787928185669</v>
       </c>
       <c r="Y39" s="1">
         <v>0</v>
@@ -8461,10 +8461,10 @@
       </c>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1">
-        <v>28808.3808747</v>
+        <v>28808.369872918</v>
       </c>
       <c r="AC39" s="1">
-        <v>-182508.84302691</v>
+        <v>-182508.81012708</v>
       </c>
       <c r="AE39" t="s">
         <v>45</v>
@@ -8488,19 +8488,19 @@
         <v>0.1</v>
       </c>
       <c r="G40" s="11">
-        <v>176189.43715882</v>
+        <v>176189.29304138</v>
       </c>
       <c r="H40" s="12">
         <v>0.1</v>
       </c>
       <c r="I40" s="11">
-        <v>144500.21819665</v>
+        <v>144500.1</v>
       </c>
       <c r="J40" s="11">
-        <v>31689.218962171</v>
+        <v>31689.193041383</v>
       </c>
       <c r="K40" s="11">
-        <v>1413312.9630043</v>
+        <v>1413311.8069586</v>
       </c>
       <c r="L40" s="12"/>
       <c r="M40" s="11">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="11">
-        <v>31790.048003263</v>
+        <v>31790.022</v>
       </c>
       <c r="P40" s="11">
         <v>3630000</v>
@@ -8527,13 +8527,13 @@
         <v>9075.0</v>
       </c>
       <c r="V40" s="11">
-        <v>-259470.38915556</v>
+        <v>-259470.27104138</v>
       </c>
       <c r="W40" s="11">
-        <v>2216687.0369957</v>
+        <v>2216688.1930414</v>
       </c>
       <c r="X40" s="11">
-        <v>0.38934241405077</v>
+        <v>0.38934209558089</v>
       </c>
       <c r="Y40" s="11">
         <v>0</v>
@@ -8543,10 +8543,10 @@
       </c>
       <c r="AA40" s="11"/>
       <c r="AB40" s="11">
-        <v>31689.218962171</v>
+        <v>31689.193041383</v>
       </c>
       <c r="AC40" s="11">
-        <v>-187016.95123121</v>
+        <v>-187016.88495862</v>
       </c>
       <c r="AD40" s="10"/>
       <c r="AE40" t="s">
@@ -8571,19 +8571,19 @@
         <v>0.1</v>
       </c>
       <c r="G41" s="1">
-        <v>176189.43715882</v>
+        <v>176189.19244259</v>
       </c>
       <c r="H41" s="2">
         <v>0.1</v>
       </c>
       <c r="I41" s="1">
-        <v>141331.29630043</v>
+        <v>141331.1</v>
       </c>
       <c r="J41" s="1">
-        <v>34858.140858388</v>
+        <v>34858.092442585</v>
       </c>
       <c r="K41" s="1">
-        <v>1378454.8221459</v>
+        <v>1378452.9075574</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="1">
@@ -8591,7 +8591,7 @@
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="1">
-        <v>31092.885186095</v>
+        <v>31092.842</v>
       </c>
       <c r="P41" s="6">
         <v>3993000</v>
@@ -8610,13 +8610,13 @@
         <v>9982.5</v>
       </c>
       <c r="V41" s="1">
-        <v>-271674.05197272</v>
+        <v>-271673.85044259</v>
       </c>
       <c r="W41" s="1">
-        <v>2614545.1778541</v>
+        <v>2614547.0924426</v>
       </c>
       <c r="X41" s="1">
-        <v>0.34521783675079</v>
+        <v>0.34521735726457</v>
       </c>
       <c r="Y41" s="1">
         <v>0</v>
@@ -8626,10 +8626,10 @@
       </c>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1">
-        <v>34858.140858388</v>
+        <v>34858.092442585</v>
       </c>
       <c r="AC41" s="1">
-        <v>-191975.87025595</v>
+        <v>-191975.76555741</v>
       </c>
       <c r="AE41" t="s">
         <v>47</v>
@@ -8653,19 +8653,19 @@
         <v>0.1</v>
       </c>
       <c r="G42" s="1">
-        <v>176189.43715882</v>
+        <v>176189.07644166</v>
       </c>
       <c r="H42" s="2">
         <v>0.1</v>
       </c>
       <c r="I42" s="1">
-        <v>137845.48221459</v>
+        <v>137845.2</v>
       </c>
       <c r="J42" s="1">
-        <v>38343.954944226</v>
+        <v>38343.876441664</v>
       </c>
       <c r="K42" s="1">
-        <v>1340110.8672017</v>
+        <v>1340108.1235583</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="1">
@@ -8673,7 +8673,7 @@
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="1">
-        <v>30326.00608721</v>
+        <v>30325.944</v>
       </c>
       <c r="P42" s="6">
         <v>4392300</v>
@@ -8692,13 +8692,13 @@
         <v>10980.75</v>
       </c>
       <c r="V42" s="1">
-        <v>-285099.18107161</v>
+        <v>-285098.88244166</v>
       </c>
       <c r="W42" s="1">
-        <v>3052189.1327983</v>
+        <v>3052191.8764417</v>
       </c>
       <c r="X42" s="1">
-        <v>0.3051045846599</v>
+        <v>0.30510396001146</v>
       </c>
       <c r="Y42" s="1">
         <v>0</v>
@@ -8708,10 +8708,10 @@
       </c>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1">
-        <v>38343.954944226</v>
+        <v>38343.876441664</v>
       </c>
       <c r="AC42" s="1">
-        <v>-197430.68118316</v>
+        <v>-197430.53955834</v>
       </c>
       <c r="AE42" t="s">
         <v>48</v>
@@ -8735,19 +8735,19 @@
         <v>0.1</v>
       </c>
       <c r="G43" s="1">
-        <v>176189.43715882</v>
+        <v>176189.06019698</v>
       </c>
       <c r="H43" s="2">
         <v>0.1</v>
       </c>
       <c r="I43" s="1">
-        <v>134011.08672017</v>
+        <v>134010.8</v>
       </c>
       <c r="J43" s="1">
-        <v>42178.350438649</v>
+        <v>42178.260196983</v>
       </c>
       <c r="K43" s="1">
-        <v>1297932.516763</v>
+        <v>1297929.739803</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="1">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="1">
-        <v>29482.439078437</v>
+        <v>29482.376</v>
       </c>
       <c r="P43" s="6">
         <v>4831530</v>
@@ -8774,13 +8774,13 @@
         <v>12078.825</v>
       </c>
       <c r="V43" s="1">
-        <v>-299865.82308038</v>
+        <v>-299865.50919698</v>
       </c>
       <c r="W43" s="1">
-        <v>3533597.483237</v>
+        <v>3533600.260197</v>
       </c>
       <c r="X43" s="1">
-        <v>0.26863799185</v>
+        <v>0.2686374170921</v>
       </c>
       <c r="Y43" s="1">
         <v>0</v>
@@ -8790,10 +8790,10 @@
       </c>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1">
-        <v>42178.350438649</v>
+        <v>42178.260196983</v>
       </c>
       <c r="AC43" s="1">
-        <v>-203430.97320308</v>
+        <v>-203430.83980302</v>
       </c>
       <c r="AE43" t="s">
         <v>49</v>
@@ -8817,19 +8817,19 @@
         <v>0.1</v>
       </c>
       <c r="G44" s="1">
-        <v>176189.43715882</v>
+        <v>176188.95977152</v>
       </c>
       <c r="H44" s="2">
         <v>0.1</v>
       </c>
       <c r="I44" s="1">
-        <v>129793.2516763</v>
+        <v>129792.9</v>
       </c>
       <c r="J44" s="1">
-        <v>46396.185482514</v>
+        <v>46396.059771517</v>
       </c>
       <c r="K44" s="1">
-        <v>1251536.3312805</v>
+        <v>1251532.9402285</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="1">
@@ -8837,7 +8837,7 @@
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="1">
-        <v>28554.515368787</v>
+        <v>28554.438</v>
       </c>
       <c r="P44" s="6">
         <v>5314683</v>
@@ -8856,13 +8856,13 @@
         <v>13286.7075</v>
       </c>
       <c r="V44" s="1">
-        <v>-316109.62929003</v>
+        <v>-316109.22927152</v>
       </c>
       <c r="W44" s="1">
-        <v>4063146.6687195</v>
+        <v>4063150.0597715</v>
       </c>
       <c r="X44" s="1">
-        <v>0.235486543841</v>
+        <v>0.23548590578751</v>
       </c>
       <c r="Y44" s="1">
         <v>0</v>
@@ -8872,10 +8872,10 @@
       </c>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1">
-        <v>46396.185482514</v>
+        <v>46396.059771517</v>
       </c>
       <c r="AC44" s="1">
-        <v>-210031.294425</v>
+        <v>-210031.14582848</v>
       </c>
       <c r="AE44" t="s">
         <v>50</v>
@@ -8899,19 +8899,19 @@
         <v>0.1</v>
       </c>
       <c r="G45" s="1">
-        <v>176189.43715882</v>
+        <v>176188.82740754</v>
       </c>
       <c r="H45" s="2">
         <v>0.1</v>
       </c>
       <c r="I45" s="1">
-        <v>125153.63312805</v>
+        <v>125153.2</v>
       </c>
       <c r="J45" s="1">
-        <v>51035.804030765</v>
+        <v>51035.627407539</v>
       </c>
       <c r="K45" s="1">
-        <v>1200500.5272498</v>
+        <v>1200496.3725925</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="1">
@@ -8919,7 +8919,7 @@
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="1">
-        <v>27533.799288172</v>
+        <v>27533.704</v>
       </c>
       <c r="P45" s="6">
         <v>5846151</v>
@@ -8938,13 +8938,13 @@
         <v>14615.3775</v>
       </c>
       <c r="V45" s="1">
-        <v>-333978.01537065</v>
+        <v>-333977.50090754</v>
       </c>
       <c r="W45" s="1">
-        <v>4645650.4727502</v>
+        <v>4645654.6274075</v>
       </c>
       <c r="X45" s="1">
-        <v>0.20534887437046</v>
+        <v>0.20534816370505</v>
       </c>
       <c r="Y45" s="1">
         <v>0</v>
@@ -8954,10 +8954,10 @@
       </c>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1">
-        <v>51035.804030765</v>
+        <v>51035.627407539</v>
       </c>
       <c r="AC45" s="1">
-        <v>-217291.64776912</v>
+        <v>-217291.48655246</v>
       </c>
       <c r="AE45" t="s">
         <v>51</v>
@@ -8981,19 +8981,19 @@
         <v>0.1</v>
       </c>
       <c r="G46" s="1">
-        <v>176189.43715882</v>
+        <v>176188.77272463</v>
       </c>
       <c r="H46" s="2">
         <v>0.1</v>
       </c>
       <c r="I46" s="1">
-        <v>120050.05272498</v>
+        <v>120049.6</v>
       </c>
       <c r="J46" s="1">
-        <v>56139.384433842</v>
+        <v>56139.172724634</v>
       </c>
       <c r="K46" s="1">
-        <v>1144361.1428159</v>
+        <v>1144356.8272754</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="1">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="1">
-        <v>26411.011599495</v>
+        <v>26410.912</v>
       </c>
       <c r="P46" s="6">
         <v>6430766</v>
@@ -9020,13 +9020,13 @@
         <v>16076.915</v>
       </c>
       <c r="V46" s="1">
-        <v>-353633.34055932</v>
+        <v>-353632.77572463</v>
       </c>
       <c r="W46" s="1">
-        <v>5286404.8571841</v>
+        <v>5286409.1727246</v>
       </c>
       <c r="X46" s="1">
-        <v>0.17795098481517</v>
+        <v>0.17795031373795</v>
       </c>
       <c r="Y46" s="1">
         <v>0</v>
@@ -9036,10 +9036,10 @@
       </c>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1">
-        <v>56139.384433842</v>
+        <v>56139.172724634</v>
       </c>
       <c r="AC46" s="1">
-        <v>-225278.03644764</v>
+        <v>-225277.89503137</v>
       </c>
       <c r="AE46" t="s">
         <v>52</v>
@@ -9063,19 +9063,19 @@
         <v>0.1</v>
       </c>
       <c r="G47" s="1">
-        <v>176189.43715882</v>
+        <v>176188.64535472</v>
       </c>
       <c r="H47" s="2">
         <v>0.1</v>
       </c>
       <c r="I47" s="1">
-        <v>114436.11428159</v>
+        <v>114435.6</v>
       </c>
       <c r="J47" s="1">
-        <v>61753.322877226</v>
+        <v>61753.04535472</v>
       </c>
       <c r="K47" s="1">
-        <v>1082607.8199387</v>
+        <v>1082602.9546453</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="1">
@@ -9083,7 +9083,7 @@
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="1">
-        <v>25175.94514195</v>
+        <v>25175.832</v>
       </c>
       <c r="P47" s="6">
         <v>7073843</v>
@@ -9102,13 +9102,13 @@
         <v>17684.6075</v>
       </c>
       <c r="V47" s="1">
-        <v>-375254.09951687</v>
+        <v>-375253.42085472</v>
       </c>
       <c r="W47" s="1">
-        <v>5991235.1800613</v>
+        <v>5991240.0453547</v>
       </c>
       <c r="X47" s="1">
-        <v>0.15304380093518</v>
+        <v>0.15304311314872</v>
       </c>
       <c r="Y47" s="1">
         <v>0</v>
@@ -9118,10 +9118,10 @@
       </c>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1">
-        <v>61753.322877226</v>
+        <v>61753.04535472</v>
       </c>
       <c r="AC47" s="1">
-        <v>-234063.06399402</v>
+        <v>-234062.94037688</v>
       </c>
       <c r="AE47" t="s">
         <v>53</v>
@@ -9145,19 +9145,19 @@
         <v>0.1</v>
       </c>
       <c r="G48" s="1">
-        <v>176189.43715882</v>
+        <v>176188.4899906</v>
       </c>
       <c r="H48" s="2">
         <v>0.1</v>
       </c>
       <c r="I48" s="1">
-        <v>108260.78199387</v>
+        <v>108260.2</v>
       </c>
       <c r="J48" s="1">
-        <v>67928.655164949</v>
+        <v>67928.289990597</v>
       </c>
       <c r="K48" s="1">
-        <v>1014679.1647738</v>
+        <v>1014673.7100094</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="1">
@@ -9165,7 +9165,7 @@
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="1">
-        <v>23817.372038651</v>
+        <v>23817.244</v>
       </c>
       <c r="P48" s="6">
         <v>7781227</v>
@@ -9184,13 +9184,13 @@
         <v>19453.0675</v>
       </c>
       <c r="V48" s="1">
-        <v>-399036.13262017</v>
+        <v>-399035.3134906</v>
       </c>
       <c r="W48" s="1">
-        <v>6766547.8352262</v>
+        <v>6766553.2899906</v>
       </c>
       <c r="X48" s="1">
-        <v>0.13040092067405</v>
+        <v>0.13040021965808</v>
       </c>
       <c r="Y48" s="1">
         <v>0</v>
@@ -9200,10 +9200,10 @@
       </c>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1">
-        <v>67928.655164949</v>
+        <v>67928.289990597</v>
       </c>
       <c r="AC48" s="1">
-        <v>-243726.59429503</v>
+        <v>-243726.50551416</v>
       </c>
       <c r="AE48" t="s">
         <v>54</v>
@@ -9227,19 +9227,19 @@
         <v>0.1</v>
       </c>
       <c r="G49" s="1">
-        <v>176189.43715882</v>
+        <v>176188.36670418</v>
       </c>
       <c r="H49" s="2">
         <v>0.1</v>
       </c>
       <c r="I49" s="1">
-        <v>101467.91647738</v>
+        <v>101467.3</v>
       </c>
       <c r="J49" s="1">
-        <v>74721.520681444</v>
+        <v>74721.066704181</v>
       </c>
       <c r="K49" s="1">
-        <v>939957.64409231</v>
+        <v>939951.93329582</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="1">
@@ -9247,7 +9247,7 @@
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="1">
-        <v>22322.941625023</v>
+        <v>22322.806</v>
       </c>
       <c r="P49" s="6">
         <v>8559350</v>
@@ -9266,13 +9266,13 @@
         <v>21398.375</v>
       </c>
       <c r="V49" s="1">
-        <v>-425197.8705338</v>
+        <v>-425196.93570418</v>
       </c>
       <c r="W49" s="1">
-        <v>7619392.3559077</v>
+        <v>7619398.0667042</v>
       </c>
       <c r="X49" s="1">
-        <v>0.10981647485993</v>
+        <v>0.10981580766014</v>
       </c>
       <c r="Y49" s="1">
         <v>0</v>
@@ -9282,10 +9282,10 @@
       </c>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1">
-        <v>74721.520681444</v>
+        <v>74721.066704181</v>
       </c>
       <c r="AC49" s="1">
-        <v>-254356.47762615</v>
+        <v>-254356.45075106</v>
       </c>
       <c r="AE49" t="s">
         <v>55</v>
@@ -9309,19 +9309,19 @@
         <v>0.1</v>
       </c>
       <c r="G50" s="1">
-        <v>176189.43715882</v>
+        <v>176188.19176346</v>
       </c>
       <c r="H50" s="2">
         <v>0.1</v>
       </c>
       <c r="I50" s="1">
-        <v>93995.764409231</v>
+        <v>93995.1</v>
       </c>
       <c r="J50" s="1">
-        <v>82193.672749588</v>
+        <v>82193.091763463</v>
       </c>
       <c r="K50" s="1">
-        <v>857763.97134272</v>
+        <v>857757.90823654</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="1">
@@ -9329,7 +9329,7 @@
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="1">
-        <v>20679.068170031</v>
+        <v>20678.922</v>
       </c>
       <c r="P50" s="6">
         <v>9415285</v>
@@ -9348,13 +9348,13 @@
         <v>23538.2125</v>
       </c>
       <c r="V50" s="1">
-        <v>-453974.58148879</v>
+        <v>-453973.48226346</v>
       </c>
       <c r="W50" s="1">
-        <v>8557521.0286573</v>
+        <v>8557527.0917635</v>
       </c>
       <c r="X50" s="1">
-        <v>0.09110334645661</v>
+        <v>0.09110270249244</v>
       </c>
       <c r="Y50" s="1">
         <v>0</v>
@@ -9364,10 +9364,10 @@
       </c>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1">
-        <v>82193.672749588</v>
+        <v>82193.091763463</v>
       </c>
       <c r="AC50" s="1">
-        <v>-266049.34929037</v>
+        <v>-266049.4120373</v>
       </c>
       <c r="AE50" t="s">
         <v>56</v>
@@ -9391,19 +9391,19 @@
         <v>0.1</v>
       </c>
       <c r="G51" s="1">
-        <v>176189.43715882</v>
+        <v>176188.00520668</v>
       </c>
       <c r="H51" s="2">
         <v>0.1</v>
       </c>
       <c r="I51" s="1">
-        <v>85776.397134272</v>
+        <v>85775.7</v>
       </c>
       <c r="J51" s="1">
-        <v>90413.040024547</v>
+        <v>90412.305206684</v>
       </c>
       <c r="K51" s="1">
-        <v>767350.93131817</v>
+        <v>767344.69479332</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="1">
@@ -9411,7 +9411,7 @@
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="1">
-        <v>18870.80736954</v>
+        <v>18870.654</v>
       </c>
       <c r="P51" s="6">
         <v>10356814</v>
@@ -9430,13 +9430,13 @@
         <v>25892.035</v>
       </c>
       <c r="V51" s="1">
-        <v>-485628.66478928</v>
+        <v>-485627.38620668</v>
       </c>
       <c r="W51" s="1">
-        <v>9589463.0686818</v>
+        <v>9589469.3052067</v>
       </c>
       <c r="X51" s="1">
-        <v>0.074091407967563</v>
+        <v>0.074090805801216</v>
       </c>
       <c r="Y51" s="1">
         <v>0</v>
@@ -9446,10 +9446,10 @@
       </c>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1">
-        <v>90413.040024547</v>
+        <v>90412.305206684</v>
       </c>
       <c r="AC51" s="1">
-        <v>-278911.50812103</v>
+        <v>-278911.69917416</v>
       </c>
       <c r="AE51" t="s">
         <v>57</v>
@@ -9473,19 +9473,19 @@
         <v>0.1</v>
       </c>
       <c r="G52" s="1">
-        <v>176189.43715882</v>
+        <v>176187.84567701</v>
       </c>
       <c r="H52" s="2">
         <v>0.1</v>
       </c>
       <c r="I52" s="1">
-        <v>76735.093131817</v>
+        <v>76734.4</v>
       </c>
       <c r="J52" s="1">
-        <v>99454.344027001</v>
+        <v>99453.445677011</v>
       </c>
       <c r="K52" s="1">
-        <v>667896.58729117</v>
+        <v>667890.55432299</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="1">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="1">
-        <v>16881.720489</v>
+        <v>16881.568</v>
       </c>
       <c r="P52" s="6">
         <v>11392495</v>
@@ -9512,13 +9512,13 @@
         <v>28481.2375</v>
       </c>
       <c r="V52" s="1">
-        <v>-520448.95416982</v>
+        <v>-520447.51517701</v>
       </c>
       <c r="W52" s="1">
-        <v>10724598.412709</v>
+        <v>10724604.445677</v>
       </c>
       <c r="X52" s="1">
-        <v>0.058626015397959</v>
+        <v>0.058625485841599</v>
       </c>
       <c r="Y52" s="1">
         <v>0</v>
@@ -9528,10 +9528,10 @@
       </c>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1">
-        <v>99454.344027001</v>
+        <v>99453.445677011</v>
       </c>
       <c r="AC52" s="1">
-        <v>-293059.88283474</v>
+        <v>-293060.24054191</v>
       </c>
       <c r="AE52" t="s">
         <v>58</v>
@@ -9555,19 +9555,19 @@
         <v>0.1</v>
       </c>
       <c r="G53" s="13">
-        <v>176189.43715882</v>
+        <v>176187.699448</v>
       </c>
       <c r="H53" s="14">
         <v>0.1</v>
       </c>
       <c r="I53" s="13">
-        <v>66789.658729117</v>
+        <v>66789.0</v>
       </c>
       <c r="J53" s="13">
-        <v>109399.7784297</v>
+        <v>109398.699448</v>
       </c>
       <c r="K53" s="13">
-        <v>558496.80886147</v>
+        <v>558491.300552</v>
       </c>
       <c r="L53" s="14"/>
       <c r="M53" s="13">
@@ -9575,7 +9575,7 @@
       </c>
       <c r="N53" s="14"/>
       <c r="O53" s="13">
-        <v>14693.724920406</v>
+        <v>14693.58</v>
       </c>
       <c r="P53" s="13">
         <v>12531745</v>
@@ -9594,13 +9594,13 @@
         <v>31329.3625</v>
       </c>
       <c r="V53" s="13">
-        <v>-558751.07473841</v>
+        <v>-558749.481948</v>
       </c>
       <c r="W53" s="13">
-        <v>11973248.191139</v>
+        <v>11973253.699448</v>
       </c>
       <c r="X53" s="13">
-        <v>0.044566563464344</v>
+        <v>0.044566123915863</v>
       </c>
       <c r="Y53" s="13">
         <v>0</v>
@@ -9610,10 +9610,10 @@
       </c>
       <c r="AA53" s="13"/>
       <c r="AB53" s="13">
-        <v>109399.7784297</v>
+        <v>109398.699448</v>
       </c>
       <c r="AC53" s="13">
-        <v>-308623.09501982</v>
+        <v>-308623.66019281</v>
       </c>
       <c r="AD53" s="3"/>
       <c r="AE53" t="s">
@@ -9638,19 +9638,19 @@
         <v>0.1</v>
       </c>
       <c r="G54" s="1">
-        <v>176189.43715882</v>
+        <v>176187.60463262</v>
       </c>
       <c r="H54" s="2">
         <v>0.1</v>
       </c>
       <c r="I54" s="1">
-        <v>55849.680886147</v>
+        <v>55849.1</v>
       </c>
       <c r="J54" s="1">
-        <v>120339.75627267</v>
+        <v>120338.50463262</v>
       </c>
       <c r="K54" s="1">
-        <v>438157.0525888</v>
+        <v>438152.49536738</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="1">
@@ -9658,7 +9658,7 @@
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="1">
-        <v>12286.929794952</v>
+        <v>12286.802</v>
       </c>
       <c r="P54" s="6">
         <v>13784920</v>
@@ -9677,13 +9677,13 @@
         <v>34462.3</v>
       </c>
       <c r="V54" s="1">
-        <v>-600883.80736387</v>
+        <v>-600882.10263262</v>
       </c>
       <c r="W54" s="1">
-        <v>13346762.947411</v>
+        <v>13346767.504633</v>
       </c>
       <c r="X54" s="1">
-        <v>0.031785244498249</v>
+        <v>0.031784913903554</v>
       </c>
       <c r="Y54" s="1">
         <v>0</v>
@@ -9693,10 +9693,10 @@
       </c>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1">
-        <v>120339.75627267</v>
+        <v>120338.50463262</v>
       </c>
       <c r="AC54" s="1">
-        <v>-325742.62842341</v>
+        <v>-325743.42697227</v>
       </c>
       <c r="AE54" t="s">
         <v>60</v>
@@ -9720,19 +9720,19 @@
         <v>0.1</v>
       </c>
       <c r="G55" s="1">
-        <v>176189.43715882</v>
+        <v>176187.40543807</v>
       </c>
       <c r="H55" s="2">
         <v>0.1</v>
       </c>
       <c r="I55" s="1">
-        <v>43815.70525888</v>
+        <v>43815.2</v>
       </c>
       <c r="J55" s="1">
-        <v>132373.73189994</v>
+        <v>132372.20543807</v>
       </c>
       <c r="K55" s="1">
-        <v>305783.32068886</v>
+        <v>305779.79456193</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="1">
@@ -9740,7 +9740,7 @@
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="1">
-        <v>9639.4551569536</v>
+        <v>9639.344</v>
       </c>
       <c r="P55" s="6">
         <v>15163412</v>
@@ -9759,13 +9759,13 @@
         <v>37908.53</v>
       </c>
       <c r="V55" s="1">
-        <v>-647229.51200187</v>
+        <v>-647227.59143807</v>
       </c>
       <c r="W55" s="1">
-        <v>14857628.679311</v>
+        <v>14857632.205438</v>
       </c>
       <c r="X55" s="1">
-        <v>0.020165865089523</v>
+        <v>0.020165632547736</v>
       </c>
       <c r="Y55" s="1">
         <v>0</v>
@@ -9775,10 +9775,10 @@
       </c>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1">
-        <v>132373.73189994</v>
+        <v>132372.20543807</v>
       </c>
       <c r="AC55" s="1">
-        <v>-344574.11516737</v>
+        <v>-344575.24752731</v>
       </c>
       <c r="AE55" t="s">
         <v>61</v>
@@ -9802,19 +9802,19 @@
         <v>0.1</v>
       </c>
       <c r="G56" s="1">
-        <v>176189.43715882</v>
+        <v>176186.94761905</v>
       </c>
       <c r="H56" s="2">
         <v>0.1</v>
       </c>
       <c r="I56" s="1">
-        <v>30578.332068886</v>
+        <v>30577.9</v>
       </c>
       <c r="J56" s="1">
-        <v>145611.10508993</v>
+        <v>145609.04761905</v>
       </c>
       <c r="K56" s="1">
-        <v>160172.21559893</v>
+        <v>160169.95238095</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="1">
@@ -9822,7 +9822,7 @@
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="1">
-        <v>6727.2330551549</v>
+        <v>6727.138</v>
       </c>
       <c r="P56" s="6">
         <v>16679753</v>
@@ -9841,13 +9841,13 @@
         <v>41699.3825</v>
       </c>
       <c r="V56" s="1">
-        <v>-698209.58660366</v>
+        <v>-698207.19211905</v>
       </c>
       <c r="W56" s="1">
-        <v>16519580.784401</v>
+        <v>16519583.047619</v>
       </c>
       <c r="X56" s="1">
-        <v>0.0096027930149161</v>
+        <v>0.0096026573283761</v>
       </c>
       <c r="Y56" s="1">
         <v>0</v>
@@ -9857,10 +9857,10 @@
       </c>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1">
-        <v>145611.10508993</v>
+        <v>145609.04761905</v>
       </c>
       <c r="AC56" s="1">
-        <v>-365288.75058572</v>
+        <v>-365290.47104287</v>
       </c>
       <c r="AE56" t="s">
         <v>62</v>
@@ -9884,16 +9884,16 @@
         <v>0.1</v>
       </c>
       <c r="G57" s="13">
-        <v>176189.43715882</v>
+        <v>176185.9</v>
       </c>
       <c r="H57" s="14">
         <v>0.1</v>
       </c>
       <c r="I57" s="13">
-        <v>16017.221559893</v>
+        <v>16016.9</v>
       </c>
       <c r="J57" s="13">
-        <v>160172.21559893</v>
+        <v>160169.0</v>
       </c>
       <c r="K57" s="13">
         <v>2.9103830456734E-11</v>
@@ -9904,7 +9904,7 @@
       </c>
       <c r="N57" s="14"/>
       <c r="O57" s="13">
-        <v>3523.7887431764</v>
+        <v>3523.718</v>
       </c>
       <c r="P57" s="13">
         <v>18347728</v>
@@ -9923,7 +9923,7 @@
         <v>45869.32</v>
       </c>
       <c r="V57" s="13">
-        <v>-754287.96841564</v>
+        <v>-754284.502</v>
       </c>
       <c r="W57" s="13">
         <v>18347728.0</v>
@@ -9939,10 +9939,10 @@
       </c>
       <c r="AA57" s="13"/>
       <c r="AB57" s="13">
-        <v>160172.21559893</v>
+        <v>160169.0</v>
       </c>
       <c r="AC57" s="13">
-        <v>-388074.8495459</v>
+        <v>-388077.81432811</v>
       </c>
       <c r="AD57" s="3"/>
       <c r="AE57" t="s">

--- a/tests/Feature/config/house_tenpercent.xlsx
+++ b/tests/Feature/config/house_tenpercent.xlsx
@@ -899,7 +899,7 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P6" s="6">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="1">
         <v>0.0</v>
@@ -971,7 +971,7 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P7" s="6">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="1">
         <v>0.0</v>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P8" s="6">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="1">
         <v>0.0</v>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P9" s="6">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="1">
         <v>0.0</v>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P10" s="6">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="1">
         <v>0.0</v>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P11" s="6">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="1">
         <v>0.0</v>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P12" s="6">
         <v>0</v>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="1">
         <v>0.0</v>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P13" s="6">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="1">
         <v>0.0</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P14" s="6">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="1">
         <v>0.0</v>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P15" s="6">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="1">
         <v>0.0</v>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P16" s="6">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="1">
         <v>0.0</v>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P17" s="6">
         <v>0</v>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="1">
         <v>0.0</v>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P18" s="6">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="1">
         <v>0.0</v>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P19" s="6">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="1">
         <v>0.0</v>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P20" s="6">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="AB20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="1">
         <v>0.0</v>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P21" s="6">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="1">
         <v>0.0</v>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P22" s="6">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="1">
         <v>0.0</v>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P23" s="6">
         <v>0</v>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="1">
         <v>0.0</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P24" s="6">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="AB24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="1">
         <v>0.0</v>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P25" s="6">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="AB25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="1">
         <v>0.0</v>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P26" s="6">
         <v>0</v>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="1">
         <v>0.0</v>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P27" s="6">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="1">
         <v>0.0</v>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P28" s="6">
         <v>0</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="AB28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="1">
         <v>0.0</v>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P29" s="6">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="1">
         <v>0.0</v>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P30" s="6">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="1">
         <v>0.0</v>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P31" s="6">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="1">
         <v>0.0</v>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P32" s="6">
         <v>0</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="AB32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="1">
         <v>0.0</v>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P33" s="6">
         <v>0</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="1">
         <v>0.0</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P34" s="6">
         <v>0</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="AB34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="1">
         <v>0.0</v>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P35" s="6">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="AB35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="1">
         <v>0.0</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P36" s="6">
         <v>0</v>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="1">
         <v>0.0</v>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P37" s="6">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="1">
         <v>0.0</v>
@@ -3203,14 +3203,14 @@
       </c>
       <c r="N38" s="9"/>
       <c r="O38" s="8">
-        <v>33000.0</v>
+        <v>0.0</v>
       </c>
       <c r="P38" s="8">
         <v>3000000</v>
       </c>
       <c r="Q38" s="9"/>
       <c r="R38" s="8">
-        <v>3000000</v>
+        <v>1526189.4371588</v>
       </c>
       <c r="S38" s="8">
         <v>750000.0</v>
@@ -3218,10 +3218,10 @@
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
       <c r="V38" s="8">
-        <v>-238289.43715882</v>
+        <v>-263789.43715882</v>
       </c>
       <c r="W38" s="8">
-        <v>1526189.4371588</v>
+        <v>-1473810.5628412</v>
       </c>
       <c r="X38" s="8"/>
       <c r="Y38" s="8">
@@ -3234,13 +3234,13 @@
         <v>-1473810.5628412</v>
       </c>
       <c r="AB38" s="8">
-        <v>26189.437158819</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="8">
-        <v>-178410.56284118</v>
+        <v>-211411.0</v>
       </c>
       <c r="AD38" s="7">
-        <v>-3.0142297579628</v>
+        <v>-8.0723766119125</v>
       </c>
       <c r="AE38"/>
     </row>
@@ -3278,14 +3278,14 @@
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="1">
-        <v>32423.82</v>
+        <v>0.0</v>
       </c>
       <c r="P39" s="6">
         <v>3300000</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="1">
-        <v>3000000</v>
+        <v>1854998.3698729</v>
       </c>
       <c r="S39" s="1">
         <v>825000.0</v>
@@ -3293,10 +3293,10 @@
       <c r="T39" s="1"/>
       <c r="U39" s="6"/>
       <c r="V39" s="1">
-        <v>-248375.54987292</v>
+        <v>-272549.36987292</v>
       </c>
       <c r="W39" s="1">
-        <v>1854998.3698729</v>
+        <v>-1445001.6301271</v>
       </c>
       <c r="X39" s="1"/>
       <c r="Y39" s="1">
@@ -3309,13 +3309,13 @@
         <v>-1445001.6301271</v>
       </c>
       <c r="AB39" s="1">
-        <v>28808.369872918</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="1">
-        <v>-182508.81012708</v>
+        <v>-214933.0</v>
       </c>
       <c r="AD39">
-        <v>-2.9806023679026</v>
+        <v>-7.4607831317124</v>
       </c>
       <c r="AE39"/>
     </row>
@@ -3353,14 +3353,14 @@
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="11">
-        <v>31790.022</v>
+        <v>0.0</v>
       </c>
       <c r="P40" s="11">
         <v>3630000</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>3000000</v>
+        <v>2216688.1930414</v>
       </c>
       <c r="S40" s="11">
         <v>907500.0</v>
@@ -3368,10 +3368,10 @@
       <c r="T40" s="11"/>
       <c r="U40" s="11"/>
       <c r="V40" s="11">
-        <v>-259470.27104138</v>
+        <v>-282185.29304138</v>
       </c>
       <c r="W40" s="11">
-        <v>2216688.1930414</v>
+        <v>-1413311.8069586</v>
       </c>
       <c r="X40" s="11"/>
       <c r="Y40" s="11">
@@ -3384,13 +3384,13 @@
         <v>-1413311.8069586</v>
       </c>
       <c r="AB40" s="11">
-        <v>31689.193041383</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="11">
-        <v>-187016.88495862</v>
+        <v>-218807.0</v>
       </c>
       <c r="AD40" s="10">
-        <v>-2.946112122475</v>
+        <v>-6.9047829559516</v>
       </c>
       <c r="AE40"/>
     </row>
@@ -3428,14 +3428,14 @@
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="1">
-        <v>31092.842</v>
+        <v>0.0</v>
       </c>
       <c r="P41" s="6">
         <v>3993000</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>3000000</v>
+        <v>2614547.0924426</v>
       </c>
       <c r="S41" s="1">
         <v>998250.0</v>
@@ -3443,10 +3443,10 @@
       <c r="T41" s="1"/>
       <c r="U41" s="6"/>
       <c r="V41" s="1">
-        <v>-271673.85044259</v>
+        <v>-292784.79244259</v>
       </c>
       <c r="W41" s="1">
-        <v>2614547.0924426</v>
+        <v>-1378452.9075574</v>
       </c>
       <c r="X41" s="1"/>
       <c r="Y41" s="1">
@@ -3459,13 +3459,13 @@
         <v>-1378452.9075574</v>
       </c>
       <c r="AB41" s="1">
-        <v>34858.092442585</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="1">
-        <v>-191975.76555741</v>
+        <v>-223069.0</v>
       </c>
       <c r="AD41">
-        <v>-2.9108877255491</v>
+        <v>-6.3993461595013</v>
       </c>
       <c r="AE41"/>
     </row>
@@ -3503,14 +3503,14 @@
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="1">
-        <v>30325.944</v>
+        <v>0.0</v>
       </c>
       <c r="P42" s="6">
         <v>4392300</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>3000000</v>
+        <v>3052191.8764417</v>
       </c>
       <c r="S42" s="1">
         <v>1098075.0</v>
@@ -3518,10 +3518,10 @@
       <c r="T42" s="1"/>
       <c r="U42" s="6"/>
       <c r="V42" s="1">
-        <v>-285098.88244166</v>
+        <v>-304444.23644166</v>
       </c>
       <c r="W42" s="1">
-        <v>3052191.8764417</v>
+        <v>-1340108.1235583</v>
       </c>
       <c r="X42" s="1"/>
       <c r="Y42" s="1">
@@ -3534,13 +3534,13 @@
         <v>-1340108.1235583</v>
       </c>
       <c r="AB42" s="1">
-        <v>38343.876441664</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="1">
-        <v>-197430.53955834</v>
+        <v>-227756.0</v>
       </c>
       <c r="AD42">
-        <v>-2.8750699839977</v>
+        <v>-5.9398271936983</v>
       </c>
       <c r="AE42"/>
     </row>
@@ -3578,14 +3578,14 @@
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="1">
-        <v>29482.376</v>
+        <v>0.0</v>
       </c>
       <c r="P43" s="6">
         <v>4831530</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>3000000</v>
+        <v>3533600.260197</v>
       </c>
       <c r="S43" s="1">
         <v>1207882.5</v>
@@ -3593,10 +3593,10 @@
       <c r="T43" s="1"/>
       <c r="U43" s="6"/>
       <c r="V43" s="1">
-        <v>-299865.50919698</v>
+        <v>-317269.73619698</v>
       </c>
       <c r="W43" s="1">
-        <v>3533600.260197</v>
+        <v>-1297929.739803</v>
       </c>
       <c r="X43" s="1"/>
       <c r="Y43" s="1">
@@ -3609,13 +3609,13 @@
         <v>-1297929.739803</v>
       </c>
       <c r="AB43" s="1">
-        <v>42178.260196983</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="1">
-        <v>-203430.83980302</v>
+        <v>-232913.0</v>
       </c>
       <c r="AD43">
-        <v>-2.8388087323677</v>
+        <v>-5.5221101797998</v>
       </c>
       <c r="AE43"/>
     </row>
@@ -3653,14 +3653,14 @@
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="1">
-        <v>28554.438</v>
+        <v>0.0</v>
       </c>
       <c r="P44" s="6">
         <v>5314683</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>3000000</v>
+        <v>4063150.0597715</v>
       </c>
       <c r="S44" s="1">
         <v>1328670.75</v>
@@ -3668,10 +3668,10 @@
       <c r="T44" s="1"/>
       <c r="U44" s="6"/>
       <c r="V44" s="1">
-        <v>-316109.22927152</v>
+        <v>-331377.70337152</v>
       </c>
       <c r="W44" s="1">
-        <v>4063150.0597715</v>
+        <v>-1251532.9402285</v>
       </c>
       <c r="X44" s="1"/>
       <c r="Y44" s="1">
@@ -3684,13 +3684,13 @@
         <v>-1251532.9402285</v>
       </c>
       <c r="AB44" s="1">
-        <v>46396.059771517</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="1">
-        <v>-210031.14582848</v>
+        <v>-238586.0</v>
       </c>
       <c r="AD44">
-        <v>-2.8022648557819</v>
+        <v>-5.142376339175</v>
       </c>
       <c r="AE44"/>
     </row>
@@ -3728,14 +3728,14 @@
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="1">
-        <v>27533.704</v>
+        <v>0.0</v>
       </c>
       <c r="P45" s="6">
         <v>5846151</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>3000000</v>
+        <v>4645654.6274075</v>
       </c>
       <c r="S45" s="1">
         <v>1461537.75</v>
@@ -3743,10 +3743,10 @@
       <c r="T45" s="1"/>
       <c r="U45" s="6"/>
       <c r="V45" s="1">
-        <v>-333977.50090754</v>
+        <v>-346896.44536754</v>
       </c>
       <c r="W45" s="1">
-        <v>4645654.6274075</v>
+        <v>-1200496.3725925</v>
       </c>
       <c r="X45" s="1"/>
       <c r="Y45" s="1">
@@ -3759,13 +3759,13 @@
         <v>-1200496.3725925</v>
       </c>
       <c r="AB45" s="1">
-        <v>51035.627407539</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="1">
-        <v>-217291.48655246</v>
+        <v>-244825.0</v>
       </c>
       <c r="AD45">
-        <v>-2.765601827835</v>
+        <v>-4.7971390269189</v>
       </c>
       <c r="AE45"/>
     </row>
@@ -3803,14 +3803,14 @@
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="1">
-        <v>26410.912</v>
+        <v>0.0</v>
       </c>
       <c r="P46" s="6">
         <v>6430766</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>3000000</v>
+        <v>5286409.1727246</v>
       </c>
       <c r="S46" s="1">
         <v>1607691.5</v>
@@ -3818,10 +3818,10 @@
       <c r="T46" s="1"/>
       <c r="U46" s="6"/>
       <c r="V46" s="1">
-        <v>-353632.77572463</v>
+        <v>-363967.15248063</v>
       </c>
       <c r="W46" s="1">
-        <v>5286409.1727246</v>
+        <v>-1144356.8272754</v>
       </c>
       <c r="X46" s="1"/>
       <c r="Y46" s="1">
@@ -3834,13 +3834,13 @@
         <v>-1144356.8272754</v>
       </c>
       <c r="AB46" s="1">
-        <v>56139.172724634</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="1">
-        <v>-225277.89503137</v>
+        <v>-251689.0</v>
       </c>
       <c r="AD46">
-        <v>-2.728984419372</v>
+        <v>-4.4833043984198</v>
       </c>
       <c r="AE46"/>
     </row>
@@ -3878,14 +3878,14 @@
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="1">
-        <v>25175.832</v>
+        <v>0.0</v>
       </c>
       <c r="P47" s="6">
         <v>7073843</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>3000000</v>
+        <v>5991240.0453547</v>
       </c>
       <c r="S47" s="1">
         <v>1768460.75</v>
@@ -3893,10 +3893,10 @@
       <c r="T47" s="1"/>
       <c r="U47" s="6"/>
       <c r="V47" s="1">
-        <v>-375253.42085472</v>
+        <v>-382744.86308632</v>
       </c>
       <c r="W47" s="1">
-        <v>5991240.0453547</v>
+        <v>-1082602.9546453</v>
       </c>
       <c r="X47" s="1"/>
       <c r="Y47" s="1">
@@ -3909,13 +3909,13 @@
         <v>-1082602.9546453</v>
       </c>
       <c r="AB47" s="1">
-        <v>61753.04535472</v>
+        <v>0</v>
       </c>
       <c r="AC47" s="1">
-        <v>-234062.94037688</v>
+        <v>-259239.0</v>
       </c>
       <c r="AD47">
-        <v>-2.6925798135155</v>
+        <v>-4.1979953945735</v>
       </c>
       <c r="AE47"/>
     </row>
@@ -3953,14 +3953,14 @@
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="1">
-        <v>23817.244</v>
+        <v>0.0</v>
       </c>
       <c r="P48" s="6">
         <v>7781227</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>3000000</v>
+        <v>6766553.2899906</v>
       </c>
       <c r="S48" s="1">
         <v>1945306.75</v>
@@ -3968,10 +3968,10 @@
       <c r="T48" s="1"/>
       <c r="U48" s="6"/>
       <c r="V48" s="1">
-        <v>-399035.3134906</v>
+        <v>-403400.32949536</v>
       </c>
       <c r="W48" s="1">
-        <v>6766553.2899906</v>
+        <v>-1014673.7100094</v>
       </c>
       <c r="X48" s="1"/>
       <c r="Y48" s="1">
@@ -3984,13 +3984,13 @@
         <v>-1014673.7100094</v>
       </c>
       <c r="AB48" s="1">
-        <v>67928.289990597</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="1">
-        <v>-243726.50551416</v>
+        <v>-267544.0</v>
       </c>
       <c r="AD48">
-        <v>-2.6565489884134</v>
+        <v>-3.9386240995767</v>
       </c>
       <c r="AE48"/>
     </row>
@@ -4028,14 +4028,14 @@
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="1">
-        <v>22322.806</v>
+        <v>0.0</v>
       </c>
       <c r="P49" s="6">
         <v>8559350</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>3000000</v>
+        <v>7619398.0667042</v>
       </c>
       <c r="S49" s="1">
         <v>2139837.5</v>
@@ -4043,10 +4043,10 @@
       <c r="T49" s="1"/>
       <c r="U49" s="6"/>
       <c r="V49" s="1">
-        <v>-425196.93570418</v>
+        <v>-426121.39015942</v>
       </c>
       <c r="W49" s="1">
-        <v>7619398.0667042</v>
+        <v>-939951.93329582</v>
       </c>
       <c r="X49" s="1"/>
       <c r="Y49" s="1">
@@ -4059,13 +4059,13 @@
         <v>-939951.93329582</v>
       </c>
       <c r="AB49" s="1">
-        <v>74721.066704181</v>
+        <v>0</v>
       </c>
       <c r="AC49" s="1">
-        <v>-254356.45075106</v>
+        <v>-276679.0</v>
       </c>
       <c r="AD49">
-        <v>-2.6210459626484</v>
+        <v>-3.7028245473979</v>
       </c>
       <c r="AE49"/>
     </row>
@@ -4103,14 +4103,14 @@
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="1">
-        <v>20678.922</v>
+        <v>0.0</v>
       </c>
       <c r="P50" s="6">
         <v>9415285</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>3000000</v>
+        <v>8557527.0917635</v>
       </c>
       <c r="S50" s="1">
         <v>2353821.25</v>
@@ -4118,10 +4118,10 @@
       <c r="T50" s="1"/>
       <c r="U50" s="6"/>
       <c r="V50" s="1">
-        <v>-453973.48226346</v>
+        <v>-451114.51756422</v>
       </c>
       <c r="W50" s="1">
-        <v>8557527.0917635</v>
+        <v>-857757.90823654</v>
       </c>
       <c r="X50" s="1"/>
       <c r="Y50" s="1">
@@ -4134,13 +4134,13 @@
         <v>-857757.90823654</v>
       </c>
       <c r="AB50" s="1">
-        <v>82193.091763463</v>
+        <v>0</v>
       </c>
       <c r="AC50" s="1">
-        <v>-266049.4120373</v>
+        <v>-286728.0</v>
       </c>
       <c r="AD50">
-        <v>-2.5862175950889</v>
+        <v>-3.4884683596664</v>
       </c>
       <c r="AE50"/>
     </row>
@@ -4178,14 +4178,14 @@
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="1">
-        <v>18870.654</v>
+        <v>0.0</v>
       </c>
       <c r="P51" s="6">
         <v>10356814</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>3000000</v>
+        <v>9589469.3052067</v>
       </c>
       <c r="S51" s="1">
         <v>2589203.5</v>
@@ -4193,10 +4193,10 @@
       <c r="T51" s="1"/>
       <c r="U51" s="6"/>
       <c r="V51" s="1">
-        <v>-485627.38620668</v>
+        <v>-478606.96358752</v>
       </c>
       <c r="W51" s="1">
-        <v>9589469.3052067</v>
+        <v>-767344.69479332</v>
       </c>
       <c r="X51" s="1"/>
       <c r="Y51" s="1">
@@ -4209,13 +4209,13 @@
         <v>-767344.69479332</v>
       </c>
       <c r="AB51" s="1">
-        <v>90412.305206684</v>
+        <v>0</v>
       </c>
       <c r="AC51" s="1">
-        <v>-278911.69917416</v>
+        <v>-297782.0</v>
       </c>
       <c r="AD51">
-        <v>-2.5521975356346</v>
+        <v>-3.2936003491921</v>
       </c>
       <c r="AE51"/>
     </row>
@@ -4253,14 +4253,14 @@
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="1">
-        <v>16881.568</v>
+        <v>0.0</v>
       </c>
       <c r="P52" s="6">
         <v>11392495</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>3000000</v>
+        <v>10724604.445677</v>
       </c>
       <c r="S52" s="1">
         <v>2848123.75</v>
@@ -4268,10 +4268,10 @@
       <c r="T52" s="1"/>
       <c r="U52" s="6"/>
       <c r="V52" s="1">
-        <v>-520447.51517701</v>
+        <v>-508848.69989593</v>
       </c>
       <c r="W52" s="1">
-        <v>10724604.445677</v>
+        <v>-667890.55432299</v>
       </c>
       <c r="X52" s="1"/>
       <c r="Y52" s="1">
@@ -4284,13 +4284,13 @@
         <v>-667890.55432299</v>
       </c>
       <c r="AB52" s="1">
-        <v>99453.445677011</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="1">
-        <v>-293060.24054191</v>
+        <v>-309942.0</v>
       </c>
       <c r="AD52">
-        <v>-2.5191060823318</v>
+        <v>-3.1164531091922</v>
       </c>
       <c r="AE52"/>
     </row>
@@ -4328,14 +4328,14 @@
       </c>
       <c r="N53" s="14"/>
       <c r="O53" s="13">
-        <v>14693.58</v>
+        <v>0.0</v>
       </c>
       <c r="P53" s="13">
         <v>12531745</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>3000000</v>
+        <v>11973253.699448</v>
       </c>
       <c r="S53" s="13">
         <v>3132936.25</v>
@@ -4343,10 +4343,10 @@
       <c r="T53" s="13"/>
       <c r="U53" s="13"/>
       <c r="V53" s="13">
-        <v>-558749.481948</v>
+        <v>-542114.63908881</v>
       </c>
       <c r="W53" s="13">
-        <v>11973253.699448</v>
+        <v>-558491.300552</v>
       </c>
       <c r="X53" s="13"/>
       <c r="Y53" s="13">
@@ -4359,13 +4359,13 @@
         <v>-558491.300552</v>
       </c>
       <c r="AB53" s="13">
-        <v>109398.699448</v>
+        <v>0</v>
       </c>
       <c r="AC53" s="13">
-        <v>-308623.66019281</v>
+        <v>-323317.0</v>
       </c>
       <c r="AD53" s="3">
-        <v>-2.487049650193</v>
+        <v>-2.9554007646469</v>
       </c>
       <c r="AE53"/>
     </row>
@@ -4403,14 +4403,14 @@
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="1">
-        <v>12286.802</v>
+        <v>0.0</v>
       </c>
       <c r="P54" s="6">
         <v>13784920</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>3000000</v>
+        <v>13346767.504633</v>
       </c>
       <c r="S54" s="1">
         <v>3446230.0</v>
@@ -4418,10 +4418,10 @@
       <c r="T54" s="1"/>
       <c r="U54" s="6"/>
       <c r="V54" s="1">
-        <v>-600882.10263262</v>
+        <v>-578707.23823751</v>
       </c>
       <c r="W54" s="1">
-        <v>13346767.504633</v>
+        <v>-438152.49536738</v>
       </c>
       <c r="X54" s="1"/>
       <c r="Y54" s="1">
@@ -4434,13 +4434,13 @@
         <v>-438152.49536738</v>
       </c>
       <c r="AB54" s="1">
-        <v>120338.50463262</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="1">
-        <v>-325743.42697227</v>
+        <v>-338030.0</v>
       </c>
       <c r="AD54">
-        <v>-2.4561181816875</v>
+        <v>-2.8089928575393</v>
       </c>
       <c r="AE54"/>
     </row>
@@ -4478,14 +4478,14 @@
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="1">
-        <v>9639.344</v>
+        <v>0.0</v>
       </c>
       <c r="P55" s="6">
         <v>15163412</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>3000000</v>
+        <v>14857632.205438</v>
       </c>
       <c r="S55" s="1">
         <v>3790853.0</v>
@@ -4493,10 +4493,10 @@
       <c r="T55" s="1"/>
       <c r="U55" s="6"/>
       <c r="V55" s="1">
-        <v>-647227.59143807</v>
+        <v>-618959.00240345</v>
       </c>
       <c r="W55" s="1">
-        <v>14857632.205438</v>
+        <v>-305779.79456193</v>
       </c>
       <c r="X55" s="1"/>
       <c r="Y55" s="1">
@@ -4509,13 +4509,13 @@
         <v>-305779.79456193</v>
       </c>
       <c r="AB55" s="1">
-        <v>132372.20543807</v>
+        <v>0</v>
       </c>
       <c r="AC55" s="1">
-        <v>-344575.24752731</v>
+        <v>-354215.0</v>
       </c>
       <c r="AD55">
-        <v>-2.4263889021054</v>
+        <v>-2.6759016277456</v>
       </c>
       <c r="AE55"/>
     </row>
@@ -4553,14 +4553,14 @@
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="1">
-        <v>6727.138</v>
+        <v>0.0</v>
       </c>
       <c r="P56" s="6">
         <v>16679753</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>3000000</v>
+        <v>16519583.047619</v>
       </c>
       <c r="S56" s="1">
         <v>4169938.25</v>
@@ -4568,10 +4568,10 @@
       <c r="T56" s="1"/>
       <c r="U56" s="6"/>
       <c r="V56" s="1">
-        <v>-698207.19211905</v>
+        <v>-663235.70428097</v>
       </c>
       <c r="W56" s="1">
-        <v>16519583.047619</v>
+        <v>-160169.95238095</v>
       </c>
       <c r="X56" s="1"/>
       <c r="Y56" s="1">
@@ -4584,13 +4584,13 @@
         <v>-160169.95238095</v>
       </c>
       <c r="AB56" s="1">
-        <v>145609.04761905</v>
+        <v>0</v>
       </c>
       <c r="AC56" s="1">
-        <v>-365290.47104287</v>
+        <v>-372018.0</v>
       </c>
       <c r="AD56">
-        <v>-2.3979231825875</v>
+        <v>-2.5549099186013</v>
       </c>
       <c r="AE56"/>
     </row>
@@ -4628,14 +4628,14 @@
       </c>
       <c r="N57" s="14"/>
       <c r="O57" s="13">
-        <v>3523.718</v>
+        <v>0.0</v>
       </c>
       <c r="P57" s="13">
         <v>18347728</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>3000000</v>
+        <v>18347728.0</v>
       </c>
       <c r="S57" s="13">
         <v>4586932.0</v>
@@ -4643,10 +4643,10 @@
       <c r="T57" s="13"/>
       <c r="U57" s="13"/>
       <c r="V57" s="13">
-        <v>-754284.502</v>
+        <v>-711939.53232811</v>
       </c>
       <c r="W57" s="13">
-        <v>18347728.0</v>
+        <v>-2.9103830456734E-11</v>
       </c>
       <c r="X57" s="13"/>
       <c r="Y57" s="13">
@@ -4659,13 +4659,13 @@
         <v>-2.9103830456734E-11</v>
       </c>
       <c r="AB57" s="13">
-        <v>160169.0</v>
+        <v>0</v>
       </c>
       <c r="AC57" s="13">
-        <v>-388077.81432811</v>
+        <v>-391602.0</v>
       </c>
       <c r="AD57" s="3">
-        <v>-2.3707701788427</v>
+        <v>-2.4449300426425</v>
       </c>
       <c r="AE57"/>
     </row>
@@ -4703,14 +4703,14 @@
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P58" s="6">
         <v>20182501</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>3000000</v>
+        <v>20182501</v>
       </c>
       <c r="S58" s="1">
         <v>5045625.25</v>
@@ -4718,10 +4718,10 @@
       <c r="T58" s="1"/>
       <c r="U58" s="6"/>
       <c r="V58" s="1">
-        <v>-639784.2525</v>
+        <v>-589328.99556092</v>
       </c>
       <c r="W58" s="1">
-        <v>20182501</v>
+        <v>0</v>
       </c>
       <c r="X58" s="1"/>
       <c r="Y58" s="1">
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="AB58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="1">
         <v>-589329.0</v>
@@ -4775,14 +4775,14 @@
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P59" s="6">
         <v>22200751</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>3000000</v>
+        <v>22200751</v>
       </c>
       <c r="S59" s="1">
         <v>5550187.75</v>
@@ -4790,10 +4790,10 @@
       <c r="T59" s="1"/>
       <c r="U59" s="6"/>
       <c r="V59" s="1">
-        <v>-703762.8775</v>
+        <v>-648261.89511701</v>
       </c>
       <c r="W59" s="1">
-        <v>22200751</v>
+        <v>0</v>
       </c>
       <c r="X59" s="1"/>
       <c r="Y59" s="1">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="AB59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC59" s="1">
         <v>-648262.0</v>
@@ -4847,14 +4847,14 @@
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P60" s="6">
         <v>24420826</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>3000000</v>
+        <v>24420826</v>
       </c>
       <c r="S60" s="1">
         <v>6105206.5</v>
@@ -4862,10 +4862,10 @@
       <c r="T60" s="1"/>
       <c r="U60" s="6"/>
       <c r="V60" s="1">
-        <v>-774140.065</v>
+        <v>-713088.08462871</v>
       </c>
       <c r="W60" s="1">
-        <v>24420826</v>
+        <v>0</v>
       </c>
       <c r="X60" s="1"/>
       <c r="Y60" s="1">
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="AB60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC60" s="1">
         <v>-713088.0</v>
@@ -4919,14 +4919,14 @@
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P61" s="6">
         <v>26862909</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>3000000</v>
+        <v>26862909</v>
       </c>
       <c r="S61" s="1">
         <v>6715727.25</v>
@@ -4934,10 +4934,10 @@
       <c r="T61" s="1"/>
       <c r="U61" s="6"/>
       <c r="V61" s="1">
-        <v>-851553.2725</v>
+        <v>-784396.89309158</v>
       </c>
       <c r="W61" s="1">
-        <v>26862909</v>
+        <v>0</v>
       </c>
       <c r="X61" s="1"/>
       <c r="Y61" s="1">
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="AB61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC61" s="1">
         <v>-784397.0</v>
@@ -4991,14 +4991,14 @@
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P62" s="6">
         <v>29549200</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>3000000</v>
+        <v>29549200</v>
       </c>
       <c r="S62" s="1">
         <v>7387300.0</v>
@@ -5006,10 +5006,10 @@
       <c r="T62" s="1"/>
       <c r="U62" s="6"/>
       <c r="V62" s="1">
-        <v>-936709.0</v>
+        <v>-862836.58240074</v>
       </c>
       <c r="W62" s="1">
-        <v>29549200</v>
+        <v>0</v>
       </c>
       <c r="X62" s="1"/>
       <c r="Y62" s="1">
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="AB62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC62" s="1">
         <v>-862837.0</v>
@@ -5063,14 +5063,14 @@
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P63" s="6">
         <v>32504120</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>3000000</v>
+        <v>32504120</v>
       </c>
       <c r="S63" s="1">
         <v>8126030.0</v>
@@ -5078,10 +5078,10 @@
       <c r="T63" s="1"/>
       <c r="U63" s="6"/>
       <c r="V63" s="1">
-        <v>-1030380.3</v>
+        <v>-949120.24064081</v>
       </c>
       <c r="W63" s="1">
-        <v>32504120</v>
+        <v>0</v>
       </c>
       <c r="X63" s="1"/>
       <c r="Y63" s="1">
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="AB63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC63" s="1">
         <v>-949120.0</v>
@@ -5135,14 +5135,14 @@
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P64" s="6">
         <v>35754532</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>3000000</v>
+        <v>35754532</v>
       </c>
       <c r="S64" s="1">
         <v>8938633.0</v>
@@ -5150,10 +5150,10 @@
       <c r="T64" s="1"/>
       <c r="U64" s="6"/>
       <c r="V64" s="1">
-        <v>-1133418.33</v>
+        <v>-1044032.2647049</v>
       </c>
       <c r="W64" s="1">
-        <v>35754532</v>
+        <v>0</v>
       </c>
       <c r="X64" s="1"/>
       <c r="Y64" s="1">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="AB64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC64" s="1">
         <v>-1044032.0</v>
@@ -5207,14 +5207,14 @@
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P65" s="6">
         <v>39329985</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>3000000</v>
+        <v>39329985</v>
       </c>
       <c r="S65" s="1">
         <v>9832496.25</v>
@@ -5222,10 +5222,10 @@
       <c r="T65" s="1"/>
       <c r="U65" s="6"/>
       <c r="V65" s="1">
-        <v>-1246759.9625</v>
+        <v>-1148435.4911754</v>
       </c>
       <c r="W65" s="1">
-        <v>39329985</v>
+        <v>0</v>
       </c>
       <c r="X65" s="1"/>
       <c r="Y65" s="1">
@@ -5238,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="AB65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC65" s="1">
         <v>-1148435.0</v>
@@ -5279,14 +5279,14 @@
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P66" s="6">
         <v>43262984</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>3000000</v>
+        <v>43262984</v>
       </c>
       <c r="S66" s="1">
         <v>10815746.0</v>
@@ -5294,10 +5294,10 @@
       <c r="T66" s="1"/>
       <c r="U66" s="6"/>
       <c r="V66" s="1">
-        <v>-1371436.46</v>
+        <v>-1263279.0402929</v>
       </c>
       <c r="W66" s="1">
-        <v>43262984</v>
+        <v>0</v>
       </c>
       <c r="X66" s="1"/>
       <c r="Y66" s="1">
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="AB66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC66" s="1">
         <v>-1263279.0</v>
@@ -5351,14 +5351,14 @@
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P67" s="6">
         <v>47589282</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>3000000</v>
+        <v>47589282</v>
       </c>
       <c r="S67" s="1">
         <v>11897320.5</v>
@@ -5366,10 +5366,10 @@
       <c r="T67" s="1"/>
       <c r="U67" s="6"/>
       <c r="V67" s="1">
-        <v>-1508579.205</v>
+        <v>-1389606.9443222</v>
       </c>
       <c r="W67" s="1">
-        <v>47589282</v>
+        <v>0</v>
       </c>
       <c r="X67" s="1"/>
       <c r="Y67" s="1">
@@ -5382,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="AB67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC67" s="1">
         <v>-1389607.0</v>
@@ -5423,14 +5423,14 @@
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P68" s="6">
         <v>52348210</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>3000000</v>
+        <v>52348210</v>
       </c>
       <c r="S68" s="1">
         <v>13087052.5</v>
@@ -5438,10 +5438,10 @@
       <c r="T68" s="1"/>
       <c r="U68" s="6"/>
       <c r="V68" s="1">
-        <v>-1659437.525</v>
+        <v>-1528567.6387544</v>
       </c>
       <c r="W68" s="1">
-        <v>52348210</v>
+        <v>0</v>
       </c>
       <c r="X68" s="1"/>
       <c r="Y68" s="1">
@@ -5454,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="AB68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC68" s="1">
         <v>-1528568.0</v>
@@ -5495,14 +5495,14 @@
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P69" s="6">
         <v>57583031</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>3000000</v>
+        <v>57583031</v>
       </c>
       <c r="S69" s="1">
         <v>14395757.75</v>
@@ -5510,10 +5510,10 @@
       <c r="T69" s="1"/>
       <c r="U69" s="6"/>
       <c r="V69" s="1">
-        <v>-1825381.5775</v>
+        <v>-1681424.4026298</v>
       </c>
       <c r="W69" s="1">
-        <v>57583031</v>
+        <v>0</v>
       </c>
       <c r="X69" s="1"/>
       <c r="Y69" s="1">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="AB69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC69" s="1">
         <v>-1681424.0</v>
@@ -5567,14 +5567,14 @@
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P70" s="6">
         <v>63341334</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>3000000</v>
+        <v>63341334</v>
       </c>
       <c r="S70" s="1">
         <v>15835333.5</v>
@@ -5582,10 +5582,10 @@
       <c r="T70" s="1"/>
       <c r="U70" s="6"/>
       <c r="V70" s="1">
-        <v>-2007919.335</v>
+        <v>-1849566.8428928</v>
       </c>
       <c r="W70" s="1">
-        <v>63341334</v>
+        <v>0</v>
       </c>
       <c r="X70" s="1"/>
       <c r="Y70" s="1">
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="AB70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC70" s="1">
         <v>-1849567.0</v>
@@ -5639,14 +5639,14 @@
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P71" s="6">
         <v>69675467</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>3000000</v>
+        <v>69675467</v>
       </c>
       <c r="S71" s="1">
         <v>17418866.75</v>
@@ -5654,10 +5654,10 @@
       <c r="T71" s="1"/>
       <c r="U71" s="6"/>
       <c r="V71" s="1">
-        <v>-2208711.6675</v>
+        <v>-2034523.5271821</v>
       </c>
       <c r="W71" s="1">
-        <v>69675467</v>
+        <v>0</v>
       </c>
       <c r="X71" s="1"/>
       <c r="Y71" s="1">
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="AB71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC71" s="1">
         <v>-2034524.0</v>
@@ -5711,14 +5711,14 @@
       </c>
       <c r="N72" s="16"/>
       <c r="O72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P72" s="5">
         <v>76643014</v>
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="5">
-        <v>3000000</v>
+        <v>76643014</v>
       </c>
       <c r="S72" s="5">
         <v>19160753.5</v>
@@ -5726,10 +5726,10 @@
       <c r="T72" s="5"/>
       <c r="U72" s="5"/>
       <c r="V72" s="5">
-        <v>-2429582.535</v>
+        <v>-2237975.8799003</v>
       </c>
       <c r="W72" s="5">
-        <v>76643014</v>
+        <v>0</v>
       </c>
       <c r="X72" s="5"/>
       <c r="Y72" s="5">
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="AB72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC72" s="5">
         <v>-2237976.0</v>
@@ -6219,7 +6219,7 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P6" s="6">
         <v>0</v>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="1">
         <v>0.0</v>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P7" s="6">
         <v>0</v>
@@ -6316,7 +6316,7 @@
       </c>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="1">
         <v>0.0</v>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P8" s="6">
         <v>0</v>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="1">
         <v>0.0</v>
@@ -6417,7 +6417,7 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P9" s="6">
         <v>0</v>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="1">
         <v>0.0</v>
@@ -6483,7 +6483,7 @@
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P10" s="6">
         <v>0</v>
@@ -6514,7 +6514,7 @@
       </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="1">
         <v>0.0</v>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P11" s="6">
         <v>0</v>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="1">
         <v>0.0</v>
@@ -6615,7 +6615,7 @@
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P12" s="6">
         <v>0</v>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="1">
         <v>0.0</v>
@@ -6681,7 +6681,7 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P13" s="6">
         <v>0</v>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="1">
         <v>0.0</v>
@@ -6747,7 +6747,7 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P14" s="6">
         <v>0</v>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="1">
         <v>0.0</v>
@@ -6813,7 +6813,7 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P15" s="6">
         <v>0</v>
@@ -6844,7 +6844,7 @@
       </c>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="1">
         <v>0.0</v>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P16" s="6">
         <v>0</v>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="1">
         <v>0.0</v>
@@ -6945,7 +6945,7 @@
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P17" s="6">
         <v>0</v>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="1">
         <v>0.0</v>
@@ -7011,7 +7011,7 @@
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P18" s="6">
         <v>0</v>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="1">
         <v>0.0</v>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P19" s="6">
         <v>0</v>
@@ -7108,7 +7108,7 @@
       </c>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="1">
         <v>0.0</v>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P20" s="6">
         <v>0</v>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="1">
         <v>0.0</v>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P21" s="6">
         <v>0</v>
@@ -7240,7 +7240,7 @@
       </c>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="1">
         <v>0.0</v>
@@ -7275,7 +7275,7 @@
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P22" s="6">
         <v>0</v>
@@ -7306,7 +7306,7 @@
       </c>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="1">
         <v>0.0</v>
@@ -7341,7 +7341,7 @@
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P23" s="6">
         <v>0</v>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="1">
         <v>0.0</v>
@@ -7407,7 +7407,7 @@
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P24" s="6">
         <v>0</v>
@@ -7438,7 +7438,7 @@
       </c>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="1">
         <v>0.0</v>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P25" s="6">
         <v>0</v>
@@ -7504,7 +7504,7 @@
       </c>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="1">
         <v>0.0</v>
@@ -7539,7 +7539,7 @@
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P26" s="6">
         <v>0</v>
@@ -7570,7 +7570,7 @@
       </c>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="1">
         <v>0.0</v>
@@ -7605,7 +7605,7 @@
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P27" s="6">
         <v>0</v>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="1">
         <v>0.0</v>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P28" s="6">
         <v>0</v>
@@ -7702,7 +7702,7 @@
       </c>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="1">
         <v>0.0</v>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P29" s="6">
         <v>0</v>
@@ -7768,7 +7768,7 @@
       </c>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="1">
         <v>0.0</v>
@@ -7803,7 +7803,7 @@
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P30" s="6">
         <v>0</v>
@@ -7834,7 +7834,7 @@
       </c>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="1">
         <v>0.0</v>
@@ -7869,7 +7869,7 @@
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P31" s="6">
         <v>0</v>
@@ -7900,7 +7900,7 @@
       </c>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="1">
         <v>0.0</v>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P32" s="6">
         <v>0</v>
@@ -7966,7 +7966,7 @@
       </c>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="1">
         <v>0.0</v>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P33" s="6">
         <v>0</v>
@@ -8032,7 +8032,7 @@
       </c>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="1">
         <v>0.0</v>
@@ -8067,7 +8067,7 @@
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P34" s="6">
         <v>0</v>
@@ -8098,7 +8098,7 @@
       </c>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="1">
         <v>0.0</v>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P35" s="6">
         <v>0</v>
@@ -8164,7 +8164,7 @@
       </c>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="1">
         <v>0.0</v>
@@ -8199,7 +8199,7 @@
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P36" s="6">
         <v>0</v>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="1">
         <v>0.0</v>
@@ -8265,7 +8265,7 @@
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P37" s="6">
         <v>0</v>
@@ -8296,7 +8296,7 @@
       </c>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="1">
         <v>0.0</v>
@@ -8343,7 +8343,7 @@
       </c>
       <c r="N38" s="9"/>
       <c r="O38" s="8">
-        <v>33000.0</v>
+        <v>0.0</v>
       </c>
       <c r="P38" s="8">
         <v>3000000</v>
@@ -8352,7 +8352,7 @@
         <v>0.1</v>
       </c>
       <c r="R38" s="8">
-        <v>3000000</v>
+        <v>1526189.4371588</v>
       </c>
       <c r="S38" s="8">
         <v>750000.0</v>
@@ -8362,10 +8362,10 @@
         <v>7500.0</v>
       </c>
       <c r="V38" s="8">
-        <v>-238289.43715882</v>
+        <v>-263789.43715882</v>
       </c>
       <c r="W38" s="8">
-        <v>1526189.4371588</v>
+        <v>-1473810.5628412</v>
       </c>
       <c r="X38" s="8">
         <v>0.49127018761373</v>
@@ -8378,10 +8378,10 @@
       </c>
       <c r="AA38" s="8"/>
       <c r="AB38" s="8">
-        <v>26189.437158819</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="8">
-        <v>-178410.56284118</v>
+        <v>-211411.0</v>
       </c>
       <c r="AD38" s="7"/>
       <c r="AE38" t="s">
@@ -8426,7 +8426,7 @@
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="1">
-        <v>32423.82</v>
+        <v>0.0</v>
       </c>
       <c r="P39" s="6">
         <v>3300000</v>
@@ -8435,7 +8435,7 @@
         <v>0.1</v>
       </c>
       <c r="R39" s="1">
-        <v>3000000</v>
+        <v>1854998.3698729</v>
       </c>
       <c r="S39" s="1">
         <v>825000.0</v>
@@ -8445,10 +8445,10 @@
         <v>8250.0</v>
       </c>
       <c r="V39" s="1">
-        <v>-248375.54987292</v>
+        <v>-272549.36987292</v>
       </c>
       <c r="W39" s="1">
-        <v>1854998.3698729</v>
+        <v>-1445001.6301271</v>
       </c>
       <c r="X39" s="1">
         <v>0.43787928185669</v>
@@ -8461,10 +8461,10 @@
       </c>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1">
-        <v>28808.369872918</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="1">
-        <v>-182508.81012708</v>
+        <v>-214933.0</v>
       </c>
       <c r="AE39" t="s">
         <v>45</v>
@@ -8508,7 +8508,7 @@
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="11">
-        <v>31790.022</v>
+        <v>0.0</v>
       </c>
       <c r="P40" s="11">
         <v>3630000</v>
@@ -8517,7 +8517,7 @@
         <v>0.1</v>
       </c>
       <c r="R40" s="11">
-        <v>3000000</v>
+        <v>2216688.1930414</v>
       </c>
       <c r="S40" s="11">
         <v>907500.0</v>
@@ -8527,10 +8527,10 @@
         <v>9075.0</v>
       </c>
       <c r="V40" s="11">
-        <v>-259470.27104138</v>
+        <v>-282185.29304138</v>
       </c>
       <c r="W40" s="11">
-        <v>2216688.1930414</v>
+        <v>-1413311.8069586</v>
       </c>
       <c r="X40" s="11">
         <v>0.38934209558089</v>
@@ -8543,10 +8543,10 @@
       </c>
       <c r="AA40" s="11"/>
       <c r="AB40" s="11">
-        <v>31689.193041383</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="11">
-        <v>-187016.88495862</v>
+        <v>-218807.0</v>
       </c>
       <c r="AD40" s="10"/>
       <c r="AE40" t="s">
@@ -8591,7 +8591,7 @@
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="1">
-        <v>31092.842</v>
+        <v>0.0</v>
       </c>
       <c r="P41" s="6">
         <v>3993000</v>
@@ -8600,7 +8600,7 @@
         <v>0.1</v>
       </c>
       <c r="R41" s="1">
-        <v>3000000</v>
+        <v>2614547.0924426</v>
       </c>
       <c r="S41" s="1">
         <v>998250.0</v>
@@ -8610,10 +8610,10 @@
         <v>9982.5</v>
       </c>
       <c r="V41" s="1">
-        <v>-271673.85044259</v>
+        <v>-292784.79244259</v>
       </c>
       <c r="W41" s="1">
-        <v>2614547.0924426</v>
+        <v>-1378452.9075574</v>
       </c>
       <c r="X41" s="1">
         <v>0.34521735726457</v>
@@ -8626,10 +8626,10 @@
       </c>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1">
-        <v>34858.092442585</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="1">
-        <v>-191975.76555741</v>
+        <v>-223069.0</v>
       </c>
       <c r="AE41" t="s">
         <v>47</v>
@@ -8673,7 +8673,7 @@
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="1">
-        <v>30325.944</v>
+        <v>0.0</v>
       </c>
       <c r="P42" s="6">
         <v>4392300</v>
@@ -8682,7 +8682,7 @@
         <v>0.1</v>
       </c>
       <c r="R42" s="1">
-        <v>3000000</v>
+        <v>3052191.8764417</v>
       </c>
       <c r="S42" s="1">
         <v>1098075.0</v>
@@ -8692,10 +8692,10 @@
         <v>10980.75</v>
       </c>
       <c r="V42" s="1">
-        <v>-285098.88244166</v>
+        <v>-304444.23644166</v>
       </c>
       <c r="W42" s="1">
-        <v>3052191.8764417</v>
+        <v>-1340108.1235583</v>
       </c>
       <c r="X42" s="1">
         <v>0.30510396001146</v>
@@ -8708,10 +8708,10 @@
       </c>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1">
-        <v>38343.876441664</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="1">
-        <v>-197430.53955834</v>
+        <v>-227756.0</v>
       </c>
       <c r="AE42" t="s">
         <v>48</v>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="1">
-        <v>29482.376</v>
+        <v>0.0</v>
       </c>
       <c r="P43" s="6">
         <v>4831530</v>
@@ -8764,7 +8764,7 @@
         <v>0.1</v>
       </c>
       <c r="R43" s="1">
-        <v>3000000</v>
+        <v>3533600.260197</v>
       </c>
       <c r="S43" s="1">
         <v>1207882.5</v>
@@ -8774,10 +8774,10 @@
         <v>12078.825</v>
       </c>
       <c r="V43" s="1">
-        <v>-299865.50919698</v>
+        <v>-317269.73619698</v>
       </c>
       <c r="W43" s="1">
-        <v>3533600.260197</v>
+        <v>-1297929.739803</v>
       </c>
       <c r="X43" s="1">
         <v>0.2686374170921</v>
@@ -8790,10 +8790,10 @@
       </c>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1">
-        <v>42178.260196983</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="1">
-        <v>-203430.83980302</v>
+        <v>-232913.0</v>
       </c>
       <c r="AE43" t="s">
         <v>49</v>
@@ -8837,7 +8837,7 @@
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="1">
-        <v>28554.438</v>
+        <v>0.0</v>
       </c>
       <c r="P44" s="6">
         <v>5314683</v>
@@ -8846,7 +8846,7 @@
         <v>0.1</v>
       </c>
       <c r="R44" s="1">
-        <v>3000000</v>
+        <v>4063150.0597715</v>
       </c>
       <c r="S44" s="1">
         <v>1328670.75</v>
@@ -8856,10 +8856,10 @@
         <v>13286.7075</v>
       </c>
       <c r="V44" s="1">
-        <v>-316109.22927152</v>
+        <v>-331377.70337152</v>
       </c>
       <c r="W44" s="1">
-        <v>4063150.0597715</v>
+        <v>-1251532.9402285</v>
       </c>
       <c r="X44" s="1">
         <v>0.23548590578751</v>
@@ -8872,10 +8872,10 @@
       </c>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1">
-        <v>46396.059771517</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="1">
-        <v>-210031.14582848</v>
+        <v>-238586.0</v>
       </c>
       <c r="AE44" t="s">
         <v>50</v>
@@ -8919,7 +8919,7 @@
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="1">
-        <v>27533.704</v>
+        <v>0.0</v>
       </c>
       <c r="P45" s="6">
         <v>5846151</v>
@@ -8928,7 +8928,7 @@
         <v>0.1</v>
       </c>
       <c r="R45" s="1">
-        <v>3000000</v>
+        <v>4645654.6274075</v>
       </c>
       <c r="S45" s="1">
         <v>1461537.75</v>
@@ -8938,10 +8938,10 @@
         <v>14615.3775</v>
       </c>
       <c r="V45" s="1">
-        <v>-333977.50090754</v>
+        <v>-346896.44536754</v>
       </c>
       <c r="W45" s="1">
-        <v>4645654.6274075</v>
+        <v>-1200496.3725925</v>
       </c>
       <c r="X45" s="1">
         <v>0.20534816370505</v>
@@ -8954,10 +8954,10 @@
       </c>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1">
-        <v>51035.627407539</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="1">
-        <v>-217291.48655246</v>
+        <v>-244825.0</v>
       </c>
       <c r="AE45" t="s">
         <v>51</v>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="1">
-        <v>26410.912</v>
+        <v>0.0</v>
       </c>
       <c r="P46" s="6">
         <v>6430766</v>
@@ -9010,7 +9010,7 @@
         <v>0.1</v>
       </c>
       <c r="R46" s="1">
-        <v>3000000</v>
+        <v>5286409.1727246</v>
       </c>
       <c r="S46" s="1">
         <v>1607691.5</v>
@@ -9020,10 +9020,10 @@
         <v>16076.915</v>
       </c>
       <c r="V46" s="1">
-        <v>-353632.77572463</v>
+        <v>-363967.15248063</v>
       </c>
       <c r="W46" s="1">
-        <v>5286409.1727246</v>
+        <v>-1144356.8272754</v>
       </c>
       <c r="X46" s="1">
         <v>0.17795031373795</v>
@@ -9036,10 +9036,10 @@
       </c>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1">
-        <v>56139.172724634</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="1">
-        <v>-225277.89503137</v>
+        <v>-251689.0</v>
       </c>
       <c r="AE46" t="s">
         <v>52</v>
@@ -9083,7 +9083,7 @@
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="1">
-        <v>25175.832</v>
+        <v>0.0</v>
       </c>
       <c r="P47" s="6">
         <v>7073843</v>
@@ -9092,7 +9092,7 @@
         <v>0.1</v>
       </c>
       <c r="R47" s="1">
-        <v>3000000</v>
+        <v>5991240.0453547</v>
       </c>
       <c r="S47" s="1">
         <v>1768460.75</v>
@@ -9102,10 +9102,10 @@
         <v>17684.6075</v>
       </c>
       <c r="V47" s="1">
-        <v>-375253.42085472</v>
+        <v>-382744.86308632</v>
       </c>
       <c r="W47" s="1">
-        <v>5991240.0453547</v>
+        <v>-1082602.9546453</v>
       </c>
       <c r="X47" s="1">
         <v>0.15304311314872</v>
@@ -9118,10 +9118,10 @@
       </c>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1">
-        <v>61753.04535472</v>
+        <v>0</v>
       </c>
       <c r="AC47" s="1">
-        <v>-234062.94037688</v>
+        <v>-259239.0</v>
       </c>
       <c r="AE47" t="s">
         <v>53</v>
@@ -9165,7 +9165,7 @@
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="1">
-        <v>23817.244</v>
+        <v>0.0</v>
       </c>
       <c r="P48" s="6">
         <v>7781227</v>
@@ -9174,7 +9174,7 @@
         <v>0.1</v>
       </c>
       <c r="R48" s="1">
-        <v>3000000</v>
+        <v>6766553.2899906</v>
       </c>
       <c r="S48" s="1">
         <v>1945306.75</v>
@@ -9184,10 +9184,10 @@
         <v>19453.0675</v>
       </c>
       <c r="V48" s="1">
-        <v>-399035.3134906</v>
+        <v>-403400.32949536</v>
       </c>
       <c r="W48" s="1">
-        <v>6766553.2899906</v>
+        <v>-1014673.7100094</v>
       </c>
       <c r="X48" s="1">
         <v>0.13040021965808</v>
@@ -9200,10 +9200,10 @@
       </c>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1">
-        <v>67928.289990597</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="1">
-        <v>-243726.50551416</v>
+        <v>-267544.0</v>
       </c>
       <c r="AE48" t="s">
         <v>54</v>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="1">
-        <v>22322.806</v>
+        <v>0.0</v>
       </c>
       <c r="P49" s="6">
         <v>8559350</v>
@@ -9256,7 +9256,7 @@
         <v>0.1</v>
       </c>
       <c r="R49" s="1">
-        <v>3000000</v>
+        <v>7619398.0667042</v>
       </c>
       <c r="S49" s="1">
         <v>2139837.5</v>
@@ -9266,10 +9266,10 @@
         <v>21398.375</v>
       </c>
       <c r="V49" s="1">
-        <v>-425196.93570418</v>
+        <v>-426121.39015942</v>
       </c>
       <c r="W49" s="1">
-        <v>7619398.0667042</v>
+        <v>-939951.93329582</v>
       </c>
       <c r="X49" s="1">
         <v>0.10981580766014</v>
@@ -9282,10 +9282,10 @@
       </c>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1">
-        <v>74721.066704181</v>
+        <v>0</v>
       </c>
       <c r="AC49" s="1">
-        <v>-254356.45075106</v>
+        <v>-276679.0</v>
       </c>
       <c r="AE49" t="s">
         <v>55</v>
@@ -9329,7 +9329,7 @@
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="1">
-        <v>20678.922</v>
+        <v>0.0</v>
       </c>
       <c r="P50" s="6">
         <v>9415285</v>
@@ -9338,7 +9338,7 @@
         <v>0.1</v>
       </c>
       <c r="R50" s="1">
-        <v>3000000</v>
+        <v>8557527.0917635</v>
       </c>
       <c r="S50" s="1">
         <v>2353821.25</v>
@@ -9348,10 +9348,10 @@
         <v>23538.2125</v>
       </c>
       <c r="V50" s="1">
-        <v>-453973.48226346</v>
+        <v>-451114.51756422</v>
       </c>
       <c r="W50" s="1">
-        <v>8557527.0917635</v>
+        <v>-857757.90823654</v>
       </c>
       <c r="X50" s="1">
         <v>0.09110270249244</v>
@@ -9364,10 +9364,10 @@
       </c>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1">
-        <v>82193.091763463</v>
+        <v>0</v>
       </c>
       <c r="AC50" s="1">
-        <v>-266049.4120373</v>
+        <v>-286728.0</v>
       </c>
       <c r="AE50" t="s">
         <v>56</v>
@@ -9411,7 +9411,7 @@
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="1">
-        <v>18870.654</v>
+        <v>0.0</v>
       </c>
       <c r="P51" s="6">
         <v>10356814</v>
@@ -9420,7 +9420,7 @@
         <v>0.1</v>
       </c>
       <c r="R51" s="1">
-        <v>3000000</v>
+        <v>9589469.3052067</v>
       </c>
       <c r="S51" s="1">
         <v>2589203.5</v>
@@ -9430,10 +9430,10 @@
         <v>25892.035</v>
       </c>
       <c r="V51" s="1">
-        <v>-485627.38620668</v>
+        <v>-478606.96358752</v>
       </c>
       <c r="W51" s="1">
-        <v>9589469.3052067</v>
+        <v>-767344.69479332</v>
       </c>
       <c r="X51" s="1">
         <v>0.074090805801216</v>
@@ -9446,10 +9446,10 @@
       </c>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1">
-        <v>90412.305206684</v>
+        <v>0</v>
       </c>
       <c r="AC51" s="1">
-        <v>-278911.69917416</v>
+        <v>-297782.0</v>
       </c>
       <c r="AE51" t="s">
         <v>57</v>
@@ -9493,7 +9493,7 @@
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="1">
-        <v>16881.568</v>
+        <v>0.0</v>
       </c>
       <c r="P52" s="6">
         <v>11392495</v>
@@ -9502,7 +9502,7 @@
         <v>0.1</v>
       </c>
       <c r="R52" s="1">
-        <v>3000000</v>
+        <v>10724604.445677</v>
       </c>
       <c r="S52" s="1">
         <v>2848123.75</v>
@@ -9512,10 +9512,10 @@
         <v>28481.2375</v>
       </c>
       <c r="V52" s="1">
-        <v>-520447.51517701</v>
+        <v>-508848.69989593</v>
       </c>
       <c r="W52" s="1">
-        <v>10724604.445677</v>
+        <v>-667890.55432299</v>
       </c>
       <c r="X52" s="1">
         <v>0.058625485841599</v>
@@ -9528,10 +9528,10 @@
       </c>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1">
-        <v>99453.445677011</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="1">
-        <v>-293060.24054191</v>
+        <v>-309942.0</v>
       </c>
       <c r="AE52" t="s">
         <v>58</v>
@@ -9575,7 +9575,7 @@
       </c>
       <c r="N53" s="14"/>
       <c r="O53" s="13">
-        <v>14693.58</v>
+        <v>0.0</v>
       </c>
       <c r="P53" s="13">
         <v>12531745</v>
@@ -9584,7 +9584,7 @@
         <v>0.1</v>
       </c>
       <c r="R53" s="13">
-        <v>3000000</v>
+        <v>11973253.699448</v>
       </c>
       <c r="S53" s="13">
         <v>3132936.25</v>
@@ -9594,10 +9594,10 @@
         <v>31329.3625</v>
       </c>
       <c r="V53" s="13">
-        <v>-558749.481948</v>
+        <v>-542114.63908881</v>
       </c>
       <c r="W53" s="13">
-        <v>11973253.699448</v>
+        <v>-558491.300552</v>
       </c>
       <c r="X53" s="13">
         <v>0.044566123915863</v>
@@ -9610,10 +9610,10 @@
       </c>
       <c r="AA53" s="13"/>
       <c r="AB53" s="13">
-        <v>109398.699448</v>
+        <v>0</v>
       </c>
       <c r="AC53" s="13">
-        <v>-308623.66019281</v>
+        <v>-323317.0</v>
       </c>
       <c r="AD53" s="3"/>
       <c r="AE53" t="s">
@@ -9658,7 +9658,7 @@
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="1">
-        <v>12286.802</v>
+        <v>0.0</v>
       </c>
       <c r="P54" s="6">
         <v>13784920</v>
@@ -9667,7 +9667,7 @@
         <v>0.1</v>
       </c>
       <c r="R54" s="1">
-        <v>3000000</v>
+        <v>13346767.504633</v>
       </c>
       <c r="S54" s="1">
         <v>3446230.0</v>
@@ -9677,10 +9677,10 @@
         <v>34462.3</v>
       </c>
       <c r="V54" s="1">
-        <v>-600882.10263262</v>
+        <v>-578707.23823751</v>
       </c>
       <c r="W54" s="1">
-        <v>13346767.504633</v>
+        <v>-438152.49536738</v>
       </c>
       <c r="X54" s="1">
         <v>0.031784913903554</v>
@@ -9693,10 +9693,10 @@
       </c>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1">
-        <v>120338.50463262</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="1">
-        <v>-325743.42697227</v>
+        <v>-338030.0</v>
       </c>
       <c r="AE54" t="s">
         <v>60</v>
@@ -9740,7 +9740,7 @@
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="1">
-        <v>9639.344</v>
+        <v>0.0</v>
       </c>
       <c r="P55" s="6">
         <v>15163412</v>
@@ -9749,7 +9749,7 @@
         <v>0.1</v>
       </c>
       <c r="R55" s="1">
-        <v>3000000</v>
+        <v>14857632.205438</v>
       </c>
       <c r="S55" s="1">
         <v>3790853.0</v>
@@ -9759,10 +9759,10 @@
         <v>37908.53</v>
       </c>
       <c r="V55" s="1">
-        <v>-647227.59143807</v>
+        <v>-618959.00240345</v>
       </c>
       <c r="W55" s="1">
-        <v>14857632.205438</v>
+        <v>-305779.79456193</v>
       </c>
       <c r="X55" s="1">
         <v>0.020165632547736</v>
@@ -9775,10 +9775,10 @@
       </c>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1">
-        <v>132372.20543807</v>
+        <v>0</v>
       </c>
       <c r="AC55" s="1">
-        <v>-344575.24752731</v>
+        <v>-354215.0</v>
       </c>
       <c r="AE55" t="s">
         <v>61</v>
@@ -9822,7 +9822,7 @@
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="1">
-        <v>6727.138</v>
+        <v>0.0</v>
       </c>
       <c r="P56" s="6">
         <v>16679753</v>
@@ -9831,7 +9831,7 @@
         <v>0.1</v>
       </c>
       <c r="R56" s="1">
-        <v>3000000</v>
+        <v>16519583.047619</v>
       </c>
       <c r="S56" s="1">
         <v>4169938.25</v>
@@ -9841,10 +9841,10 @@
         <v>41699.3825</v>
       </c>
       <c r="V56" s="1">
-        <v>-698207.19211905</v>
+        <v>-663235.70428097</v>
       </c>
       <c r="W56" s="1">
-        <v>16519583.047619</v>
+        <v>-160169.95238095</v>
       </c>
       <c r="X56" s="1">
         <v>0.0096026573283761</v>
@@ -9857,10 +9857,10 @@
       </c>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1">
-        <v>145609.04761905</v>
+        <v>0</v>
       </c>
       <c r="AC56" s="1">
-        <v>-365290.47104287</v>
+        <v>-372018.0</v>
       </c>
       <c r="AE56" t="s">
         <v>62</v>
@@ -9904,7 +9904,7 @@
       </c>
       <c r="N57" s="14"/>
       <c r="O57" s="13">
-        <v>3523.718</v>
+        <v>0.0</v>
       </c>
       <c r="P57" s="13">
         <v>18347728</v>
@@ -9913,7 +9913,7 @@
         <v>0.1</v>
       </c>
       <c r="R57" s="13">
-        <v>3000000</v>
+        <v>18347728.0</v>
       </c>
       <c r="S57" s="13">
         <v>4586932.0</v>
@@ -9923,10 +9923,10 @@
         <v>45869.32</v>
       </c>
       <c r="V57" s="13">
-        <v>-754284.502</v>
+        <v>-711939.53232811</v>
       </c>
       <c r="W57" s="13">
-        <v>18347728.0</v>
+        <v>-2.9103830456734E-11</v>
       </c>
       <c r="X57" s="13">
         <v>1.5862362062885E-18</v>
@@ -9939,10 +9939,10 @@
       </c>
       <c r="AA57" s="13"/>
       <c r="AB57" s="13">
-        <v>160169.0</v>
+        <v>0</v>
       </c>
       <c r="AC57" s="13">
-        <v>-388077.81432811</v>
+        <v>-391602.0</v>
       </c>
       <c r="AD57" s="3"/>
       <c r="AE57" t="s">
@@ -9977,7 +9977,7 @@
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P58" s="6">
         <v>20182501</v>
@@ -9986,7 +9986,7 @@
         <v>0.1</v>
       </c>
       <c r="R58" s="1">
-        <v>3000000</v>
+        <v>20182501</v>
       </c>
       <c r="S58" s="1">
         <v>5045625.25</v>
@@ -9996,10 +9996,10 @@
         <v>50456.2525</v>
       </c>
       <c r="V58" s="1">
-        <v>-639784.2525</v>
+        <v>-589328.99556092</v>
       </c>
       <c r="W58" s="1">
-        <v>20182501</v>
+        <v>0</v>
       </c>
       <c r="X58" s="1"/>
       <c r="Y58" s="1">
@@ -10010,7 +10010,7 @@
       </c>
       <c r="AA58" s="1"/>
       <c r="AB58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="1">
         <v>-589329.0</v>
@@ -10047,7 +10047,7 @@
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P59" s="6">
         <v>22200751</v>
@@ -10056,7 +10056,7 @@
         <v>0.1</v>
       </c>
       <c r="R59" s="1">
-        <v>3000000</v>
+        <v>22200751</v>
       </c>
       <c r="S59" s="1">
         <v>5550187.75</v>
@@ -10066,10 +10066,10 @@
         <v>55501.8775</v>
       </c>
       <c r="V59" s="1">
-        <v>-703762.8775</v>
+        <v>-648261.89511701</v>
       </c>
       <c r="W59" s="1">
-        <v>22200751</v>
+        <v>0</v>
       </c>
       <c r="X59" s="1"/>
       <c r="Y59" s="1">
@@ -10080,7 +10080,7 @@
       </c>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC59" s="1">
         <v>-648262.0</v>
@@ -10117,7 +10117,7 @@
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P60" s="6">
         <v>24420826</v>
@@ -10126,7 +10126,7 @@
         <v>0.1</v>
       </c>
       <c r="R60" s="1">
-        <v>3000000</v>
+        <v>24420826</v>
       </c>
       <c r="S60" s="1">
         <v>6105206.5</v>
@@ -10136,10 +10136,10 @@
         <v>61052.065</v>
       </c>
       <c r="V60" s="1">
-        <v>-774140.065</v>
+        <v>-713088.08462871</v>
       </c>
       <c r="W60" s="1">
-        <v>24420826</v>
+        <v>0</v>
       </c>
       <c r="X60" s="1"/>
       <c r="Y60" s="1">
@@ -10150,7 +10150,7 @@
       </c>
       <c r="AA60" s="1"/>
       <c r="AB60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC60" s="1">
         <v>-713088.0</v>
@@ -10187,7 +10187,7 @@
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P61" s="6">
         <v>26862909</v>
@@ -10196,7 +10196,7 @@
         <v>0.1</v>
       </c>
       <c r="R61" s="1">
-        <v>3000000</v>
+        <v>26862909</v>
       </c>
       <c r="S61" s="1">
         <v>6715727.25</v>
@@ -10206,10 +10206,10 @@
         <v>67157.2725</v>
       </c>
       <c r="V61" s="1">
-        <v>-851553.2725</v>
+        <v>-784396.89309158</v>
       </c>
       <c r="W61" s="1">
-        <v>26862909</v>
+        <v>0</v>
       </c>
       <c r="X61" s="1"/>
       <c r="Y61" s="1">
@@ -10220,7 +10220,7 @@
       </c>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC61" s="1">
         <v>-784397.0</v>
@@ -10257,7 +10257,7 @@
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P62" s="6">
         <v>29549200</v>
@@ -10266,7 +10266,7 @@
         <v>0.1</v>
       </c>
       <c r="R62" s="1">
-        <v>3000000</v>
+        <v>29549200</v>
       </c>
       <c r="S62" s="1">
         <v>7387300.0</v>
@@ -10276,10 +10276,10 @@
         <v>73873.0</v>
       </c>
       <c r="V62" s="1">
-        <v>-936709.0</v>
+        <v>-862836.58240074</v>
       </c>
       <c r="W62" s="1">
-        <v>29549200</v>
+        <v>0</v>
       </c>
       <c r="X62" s="1"/>
       <c r="Y62" s="1">
@@ -10290,7 +10290,7 @@
       </c>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC62" s="1">
         <v>-862837.0</v>
@@ -10327,7 +10327,7 @@
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P63" s="6">
         <v>32504120</v>
@@ -10336,7 +10336,7 @@
         <v>0.1</v>
       </c>
       <c r="R63" s="1">
-        <v>3000000</v>
+        <v>32504120</v>
       </c>
       <c r="S63" s="1">
         <v>8126030.0</v>
@@ -10346,10 +10346,10 @@
         <v>81260.3</v>
       </c>
       <c r="V63" s="1">
-        <v>-1030380.3</v>
+        <v>-949120.24064081</v>
       </c>
       <c r="W63" s="1">
-        <v>32504120</v>
+        <v>0</v>
       </c>
       <c r="X63" s="1"/>
       <c r="Y63" s="1">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="AA63" s="1"/>
       <c r="AB63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC63" s="1">
         <v>-949120.0</v>
@@ -10397,7 +10397,7 @@
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P64" s="6">
         <v>35754532</v>
@@ -10406,7 +10406,7 @@
         <v>0.1</v>
       </c>
       <c r="R64" s="1">
-        <v>3000000</v>
+        <v>35754532</v>
       </c>
       <c r="S64" s="1">
         <v>8938633.0</v>
@@ -10416,10 +10416,10 @@
         <v>89386.33</v>
       </c>
       <c r="V64" s="1">
-        <v>-1133418.33</v>
+        <v>-1044032.2647049</v>
       </c>
       <c r="W64" s="1">
-        <v>35754532</v>
+        <v>0</v>
       </c>
       <c r="X64" s="1"/>
       <c r="Y64" s="1">
@@ -10430,7 +10430,7 @@
       </c>
       <c r="AA64" s="1"/>
       <c r="AB64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC64" s="1">
         <v>-1044032.0</v>
@@ -10467,7 +10467,7 @@
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P65" s="6">
         <v>39329985</v>
@@ -10476,7 +10476,7 @@
         <v>0.1</v>
       </c>
       <c r="R65" s="1">
-        <v>3000000</v>
+        <v>39329985</v>
       </c>
       <c r="S65" s="1">
         <v>9832496.25</v>
@@ -10486,10 +10486,10 @@
         <v>98324.9625</v>
       </c>
       <c r="V65" s="1">
-        <v>-1246759.9625</v>
+        <v>-1148435.4911754</v>
       </c>
       <c r="W65" s="1">
-        <v>39329985</v>
+        <v>0</v>
       </c>
       <c r="X65" s="1"/>
       <c r="Y65" s="1">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="AA65" s="1"/>
       <c r="AB65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC65" s="1">
         <v>-1148435.0</v>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P66" s="6">
         <v>43262984</v>
@@ -10546,7 +10546,7 @@
         <v>0.1</v>
       </c>
       <c r="R66" s="1">
-        <v>3000000</v>
+        <v>43262984</v>
       </c>
       <c r="S66" s="1">
         <v>10815746.0</v>
@@ -10556,10 +10556,10 @@
         <v>108157.46</v>
       </c>
       <c r="V66" s="1">
-        <v>-1371436.46</v>
+        <v>-1263279.0402929</v>
       </c>
       <c r="W66" s="1">
-        <v>43262984</v>
+        <v>0</v>
       </c>
       <c r="X66" s="1"/>
       <c r="Y66" s="1">
@@ -10570,7 +10570,7 @@
       </c>
       <c r="AA66" s="1"/>
       <c r="AB66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC66" s="1">
         <v>-1263279.0</v>
@@ -10607,7 +10607,7 @@
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P67" s="6">
         <v>47589282</v>
@@ -10616,7 +10616,7 @@
         <v>0.1</v>
       </c>
       <c r="R67" s="1">
-        <v>3000000</v>
+        <v>47589282</v>
       </c>
       <c r="S67" s="1">
         <v>11897320.5</v>
@@ -10626,10 +10626,10 @@
         <v>118973.205</v>
       </c>
       <c r="V67" s="1">
-        <v>-1508579.205</v>
+        <v>-1389606.9443222</v>
       </c>
       <c r="W67" s="1">
-        <v>47589282</v>
+        <v>0</v>
       </c>
       <c r="X67" s="1"/>
       <c r="Y67" s="1">
@@ -10640,7 +10640,7 @@
       </c>
       <c r="AA67" s="1"/>
       <c r="AB67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC67" s="1">
         <v>-1389607.0</v>
@@ -10677,7 +10677,7 @@
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P68" s="6">
         <v>52348210</v>
@@ -10686,7 +10686,7 @@
         <v>0.1</v>
       </c>
       <c r="R68" s="1">
-        <v>3000000</v>
+        <v>52348210</v>
       </c>
       <c r="S68" s="1">
         <v>13087052.5</v>
@@ -10696,10 +10696,10 @@
         <v>130870.525</v>
       </c>
       <c r="V68" s="1">
-        <v>-1659437.525</v>
+        <v>-1528567.6387544</v>
       </c>
       <c r="W68" s="1">
-        <v>52348210</v>
+        <v>0</v>
       </c>
       <c r="X68" s="1"/>
       <c r="Y68" s="1">
@@ -10710,7 +10710,7 @@
       </c>
       <c r="AA68" s="1"/>
       <c r="AB68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC68" s="1">
         <v>-1528568.0</v>
@@ -10747,7 +10747,7 @@
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P69" s="6">
         <v>57583031</v>
@@ -10756,7 +10756,7 @@
         <v>0.1</v>
       </c>
       <c r="R69" s="1">
-        <v>3000000</v>
+        <v>57583031</v>
       </c>
       <c r="S69" s="1">
         <v>14395757.75</v>
@@ -10766,10 +10766,10 @@
         <v>143957.5775</v>
       </c>
       <c r="V69" s="1">
-        <v>-1825381.5775</v>
+        <v>-1681424.4026298</v>
       </c>
       <c r="W69" s="1">
-        <v>57583031</v>
+        <v>0</v>
       </c>
       <c r="X69" s="1"/>
       <c r="Y69" s="1">
@@ -10780,7 +10780,7 @@
       </c>
       <c r="AA69" s="1"/>
       <c r="AB69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC69" s="1">
         <v>-1681424.0</v>
@@ -10817,7 +10817,7 @@
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P70" s="6">
         <v>63341334</v>
@@ -10826,7 +10826,7 @@
         <v>0.1</v>
       </c>
       <c r="R70" s="1">
-        <v>3000000</v>
+        <v>63341334</v>
       </c>
       <c r="S70" s="1">
         <v>15835333.5</v>
@@ -10836,10 +10836,10 @@
         <v>158353.335</v>
       </c>
       <c r="V70" s="1">
-        <v>-2007919.335</v>
+        <v>-1849566.8428928</v>
       </c>
       <c r="W70" s="1">
-        <v>63341334</v>
+        <v>0</v>
       </c>
       <c r="X70" s="1"/>
       <c r="Y70" s="1">
@@ -10850,7 +10850,7 @@
       </c>
       <c r="AA70" s="1"/>
       <c r="AB70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC70" s="1">
         <v>-1849567.0</v>
@@ -10887,7 +10887,7 @@
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P71" s="6">
         <v>69675467</v>
@@ -10896,7 +10896,7 @@
         <v>0.1</v>
       </c>
       <c r="R71" s="1">
-        <v>3000000</v>
+        <v>69675467</v>
       </c>
       <c r="S71" s="1">
         <v>17418866.75</v>
@@ -10906,10 +10906,10 @@
         <v>174188.6675</v>
       </c>
       <c r="V71" s="1">
-        <v>-2208711.6675</v>
+        <v>-2034523.5271821</v>
       </c>
       <c r="W71" s="1">
-        <v>69675467</v>
+        <v>0</v>
       </c>
       <c r="X71" s="1"/>
       <c r="Y71" s="1">
@@ -10920,7 +10920,7 @@
       </c>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC71" s="1">
         <v>-2034524.0</v>
@@ -10957,7 +10957,7 @@
       </c>
       <c r="N72" s="16"/>
       <c r="O72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P72" s="5">
         <v>76643014</v>
@@ -10966,7 +10966,7 @@
         <v>0.1</v>
       </c>
       <c r="R72" s="5">
-        <v>3000000</v>
+        <v>76643014</v>
       </c>
       <c r="S72" s="5">
         <v>19160753.5</v>
@@ -10976,10 +10976,10 @@
         <v>191607.535</v>
       </c>
       <c r="V72" s="5">
-        <v>-2429582.535</v>
+        <v>-2237975.8799003</v>
       </c>
       <c r="W72" s="5">
-        <v>76643014</v>
+        <v>0</v>
       </c>
       <c r="X72" s="5"/>
       <c r="Y72" s="5">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="AA72" s="5"/>
       <c r="AB72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC72" s="5">
         <v>-2237976.0</v>

--- a/tests/Feature/config/house_tenpercent.xlsx
+++ b/tests/Feature/config/house_tenpercent.xlsx
@@ -5912,7 +5912,7 @@
         <v>3000000</v>
       </c>
       <c r="T18" s="1">
-        <v>1702378.0</v>
+        <v>1676189.4371588</v>
       </c>
       <c r="U18" s="6">
         <v>750000.0</v>
@@ -5998,7 +5998,7 @@
         <v>3000000</v>
       </c>
       <c r="T19" s="8">
-        <v>1878567.0</v>
+        <v>1852379.0</v>
       </c>
       <c r="U19" s="8">
         <v>825000.0</v>
@@ -6084,7 +6084,7 @@
         <v>3000000</v>
       </c>
       <c r="T20" s="1">
-        <v>2054756.0</v>
+        <v>2028568.0</v>
       </c>
       <c r="U20" s="6">
         <v>907500.0</v>
@@ -6170,7 +6170,7 @@
         <v>3000000</v>
       </c>
       <c r="T21" s="1">
-        <v>2230945.0</v>
+        <v>2204757.0</v>
       </c>
       <c r="U21" s="6">
         <v>998250.0</v>
@@ -6256,7 +6256,7 @@
         <v>3000000</v>
       </c>
       <c r="T22" s="1">
-        <v>2407134.0</v>
+        <v>2380946.0</v>
       </c>
       <c r="U22" s="6">
         <v>1098075.0</v>
@@ -6342,7 +6342,7 @@
         <v>3000000</v>
       </c>
       <c r="T23" s="1">
-        <v>2583323.0</v>
+        <v>2557135.0</v>
       </c>
       <c r="U23" s="6">
         <v>1207882.5</v>
@@ -6428,7 +6428,7 @@
         <v>3000000</v>
       </c>
       <c r="T24" s="1">
-        <v>2759512.0</v>
+        <v>2733324.0</v>
       </c>
       <c r="U24" s="6">
         <v>1328670.75</v>
@@ -6514,7 +6514,7 @@
         <v>3000000</v>
       </c>
       <c r="T25" s="1">
-        <v>2935701.0</v>
+        <v>2909513.0</v>
       </c>
       <c r="U25" s="6">
         <v>1461537.75</v>
@@ -6600,7 +6600,7 @@
         <v>3000000</v>
       </c>
       <c r="T26" s="1">
-        <v>3111890.0</v>
+        <v>3085702.0</v>
       </c>
       <c r="U26" s="6">
         <v>1607691.5</v>
@@ -6686,7 +6686,7 @@
         <v>3000000</v>
       </c>
       <c r="T27" s="1">
-        <v>3288079.0</v>
+        <v>3261891.0</v>
       </c>
       <c r="U27" s="6">
         <v>1768460.75</v>
@@ -6772,7 +6772,7 @@
         <v>3000000</v>
       </c>
       <c r="T28" s="1">
-        <v>3464268.0</v>
+        <v>3438080.0</v>
       </c>
       <c r="U28" s="6">
         <v>1945306.75</v>
@@ -6858,7 +6858,7 @@
         <v>3000000</v>
       </c>
       <c r="T29" s="1">
-        <v>3640457.0</v>
+        <v>3614269.0</v>
       </c>
       <c r="U29" s="6">
         <v>2139837.5</v>
@@ -6944,7 +6944,7 @@
         <v>3000000</v>
       </c>
       <c r="T30" s="1">
-        <v>3816646.0</v>
+        <v>3790458.0</v>
       </c>
       <c r="U30" s="6">
         <v>2353821.25</v>
@@ -7030,7 +7030,7 @@
         <v>3000000</v>
       </c>
       <c r="T31" s="1">
-        <v>3992835.0</v>
+        <v>3966647.0</v>
       </c>
       <c r="U31" s="6">
         <v>2589203.5</v>
@@ -7116,7 +7116,7 @@
         <v>3000000</v>
       </c>
       <c r="T32" s="1">
-        <v>4169024.0</v>
+        <v>4142836.0</v>
       </c>
       <c r="U32" s="6">
         <v>2848123.75</v>
@@ -7202,7 +7202,7 @@
         <v>3000000</v>
       </c>
       <c r="T33" s="1">
-        <v>4345213.0</v>
+        <v>4319025.0</v>
       </c>
       <c r="U33" s="6">
         <v>3132936.25</v>
@@ -7288,7 +7288,7 @@
         <v>3000000</v>
       </c>
       <c r="T34" s="1">
-        <v>4521402.0</v>
+        <v>4495214.0</v>
       </c>
       <c r="U34" s="6">
         <v>3446230.0</v>
@@ -7374,7 +7374,7 @@
         <v>3000000</v>
       </c>
       <c r="T35" s="1">
-        <v>4697591.0</v>
+        <v>4671403.0</v>
       </c>
       <c r="U35" s="6">
         <v>3790853.0</v>
@@ -7460,7 +7460,7 @@
         <v>3000000</v>
       </c>
       <c r="T36" s="1">
-        <v>4873780.0</v>
+        <v>4847592.0</v>
       </c>
       <c r="U36" s="6">
         <v>4169938.25</v>
@@ -7546,7 +7546,7 @@
         <v>3000000</v>
       </c>
       <c r="T37" s="1">
-        <v>5049969.0</v>
+        <v>5023781.0</v>
       </c>
       <c r="U37" s="6">
         <v>4586932.0</v>
@@ -7622,7 +7622,7 @@
         <v>3000000</v>
       </c>
       <c r="T38" s="1">
-        <v>5049969.0</v>
+        <v>5023781.0</v>
       </c>
       <c r="U38" s="6">
         <v>5045625.25</v>
@@ -7698,7 +7698,7 @@
         <v>3000000</v>
       </c>
       <c r="T39" s="1">
-        <v>5049969.0</v>
+        <v>5023781.0</v>
       </c>
       <c r="U39" s="6">
         <v>5550187.75</v>
@@ -7774,7 +7774,7 @@
         <v>3000000</v>
       </c>
       <c r="T40" s="11">
-        <v>5049969.0</v>
+        <v>5023781.0</v>
       </c>
       <c r="U40" s="11">
         <v>6105206.5</v>
@@ -7850,7 +7850,7 @@
         <v>3000000</v>
       </c>
       <c r="T41" s="1">
-        <v>5049969.0</v>
+        <v>5023781.0</v>
       </c>
       <c r="U41" s="6">
         <v>6715727.25</v>
@@ -7926,7 +7926,7 @@
         <v>3000000</v>
       </c>
       <c r="T42" s="1">
-        <v>5049969.0</v>
+        <v>5023781.0</v>
       </c>
       <c r="U42" s="6">
         <v>7387300.0</v>
@@ -8002,7 +8002,7 @@
         <v>3000000</v>
       </c>
       <c r="T43" s="1">
-        <v>5049969.0</v>
+        <v>5023781.0</v>
       </c>
       <c r="U43" s="6">
         <v>8126030.0</v>
@@ -8078,7 +8078,7 @@
         <v>3000000</v>
       </c>
       <c r="T44" s="1">
-        <v>5049969.0</v>
+        <v>5023781.0</v>
       </c>
       <c r="U44" s="6">
         <v>8938633.0</v>
@@ -8154,7 +8154,7 @@
         <v>3000000</v>
       </c>
       <c r="T45" s="1">
-        <v>5049969.0</v>
+        <v>5023781.0</v>
       </c>
       <c r="U45" s="6">
         <v>9832496.25</v>
@@ -8230,7 +8230,7 @@
         <v>3000000</v>
       </c>
       <c r="T46" s="1">
-        <v>5049969.0</v>
+        <v>5023781.0</v>
       </c>
       <c r="U46" s="6">
         <v>10815746.0</v>
@@ -8306,7 +8306,7 @@
         <v>3000000</v>
       </c>
       <c r="T47" s="1">
-        <v>5049969.0</v>
+        <v>5023781.0</v>
       </c>
       <c r="U47" s="6">
         <v>11897320.5</v>
@@ -8382,7 +8382,7 @@
         <v>3000000</v>
       </c>
       <c r="T48" s="1">
-        <v>5049969.0</v>
+        <v>5023781.0</v>
       </c>
       <c r="U48" s="6">
         <v>13087052.5</v>
@@ -8458,7 +8458,7 @@
         <v>3000000</v>
       </c>
       <c r="T49" s="1">
-        <v>5049969.0</v>
+        <v>5023781.0</v>
       </c>
       <c r="U49" s="6">
         <v>14395757.75</v>
@@ -8534,7 +8534,7 @@
         <v>3000000</v>
       </c>
       <c r="T50" s="1">
-        <v>5049969.0</v>
+        <v>5023781.0</v>
       </c>
       <c r="U50" s="6">
         <v>15835333.5</v>
@@ -8610,7 +8610,7 @@
         <v>3000000</v>
       </c>
       <c r="T51" s="1">
-        <v>5049969.0</v>
+        <v>5023781.0</v>
       </c>
       <c r="U51" s="6">
         <v>17418866.75</v>
@@ -8686,7 +8686,7 @@
         <v>3000000</v>
       </c>
       <c r="T52" s="5">
-        <v>5049969.0</v>
+        <v>5023781.0</v>
       </c>
       <c r="U52" s="5">
         <v>19160753.5</v>

--- a/tests/Feature/config/house_tenpercent.xlsx
+++ b/tests/Feature/config/house_tenpercent.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>private</t>
   </si>
@@ -106,16 +106,13 @@
     <t>Markedsverdi</t>
   </si>
   <si>
-    <t>% Økning</t>
-  </si>
-  <si>
     <t>Markedsverdi fratrukket lån</t>
   </si>
   <si>
     <t>Anskaffelsesverdi</t>
   </si>
   <si>
-    <t>Betalt (inkl renter)</t>
+    <t>Finans kostnader)</t>
   </si>
   <si>
     <t>Skattbar</t>
@@ -136,13 +133,10 @@
     <t>Rest evne</t>
   </si>
   <si>
-    <t>FIRE sparing</t>
+    <t>Sparing</t>
   </si>
   <si>
-    <t>FIRE cashflow</t>
-  </si>
-  <si>
-    <t>FIRE sparerate</t>
+    <t>Sparerate</t>
   </si>
   <si>
     <t>Description</t>
@@ -157,148 +151,112 @@
     <t>Here I live</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 0, decimal: 1Using previous amount: 0 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: </t>
   </si>
   <si>
-    <t xml:space="preserve">0Kommunale/Forsikring/Strøm/Eiendomsskatt 7300 mndoriginal er satt til en variabel: changerates.kpi = 10% = 1.1 Asset rule 0original er satt til en variabel: changerates.house = 10% = 1.1Using current amount: 3000000 * 1 no transferResource &amp;&amp; transferRule
-</t>
+    <t>Kommunale/Forsikring/Strøm/Eiendomsskatt 7300 mnd Asset rule: Using current amount: 3000000 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 3300000 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 3000000 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 3630000 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 3300000 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 3993000 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 3630000 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 4392300 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 3993000 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 4831530 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 4392300 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 5314683 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 4831530 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 5846151 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 5314683 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 6430766 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 5846151 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 7073843 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 6430766 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 7781227 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 7073843 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 8559350 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 7781227 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 9415285 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 8559350 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 10356814 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 9415285 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 11392495 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 10356814 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 12531745 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 11392495 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 13784920 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 12531745 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 15163412 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 13784920 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 16679753 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 15163412 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 18347728 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 16679753 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 20182501 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 18347728 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 22200751 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 20182501 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 24420826 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 22200751 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 26862909 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 24420826 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 29549200 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 26862909 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 32504120 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 29549200 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 35754532 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 32504120 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 39329985 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 35754532 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 43262984 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 39329985 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 47589282 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 43262984 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 52348210 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 47589282 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 57583031 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 52348210 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 63341334 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 57583031 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 69675467 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 63341334 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: 10, decimal: 1.1Using previous amount: 76643014 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 69675467 * 1</t>
   </si>
   <si>
     <t>total</t>
@@ -699,7 +657,7 @@
   <dimension ref="A1:AG80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A52" sqref="A52:AD52"/>
+      <selection activeCell="A52" sqref="A52:AF52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -720,16 +678,20 @@
     <col min="14" max="14" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="28" max="28" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -784,7 +746,7 @@
       <c r="Z4" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -838,22 +800,22 @@
         <v>28</v>
       </c>
       <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>19</v>
@@ -865,28 +827,28 @@
         <v>7</v>
       </c>
       <c r="Z5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" t="s">
         <v>39</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AG5" t="s">
         <v>40</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -897,16 +859,20 @@
         <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="1">
         <v>0</v>
@@ -917,15 +883,23 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q6" s="2"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="R6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
       <c r="U6" s="6">
         <v>0.0</v>
       </c>
@@ -939,16 +913,16 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD6">
+        <v>0.0</v>
       </c>
       <c r="AE6"/>
       <c r="AG6"/>
@@ -961,16 +935,20 @@
         <v>17</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="1">
         <v>0</v>
@@ -981,15 +959,23 @@
       <c r="M7" s="1">
         <v>0</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q7" s="2"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="R7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
       <c r="U7" s="6">
         <v>0.0</v>
       </c>
@@ -1003,16 +989,16 @@
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD7">
+        <v>0.0</v>
       </c>
       <c r="AE7"/>
       <c r="AG7"/>
@@ -1025,16 +1011,20 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="1">
         <v>0</v>
@@ -1045,15 +1035,23 @@
       <c r="M8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" s="2"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="R8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
       <c r="U8" s="6">
         <v>0.0</v>
       </c>
@@ -1067,16 +1065,16 @@
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD8">
+        <v>0.0</v>
       </c>
       <c r="AE8"/>
       <c r="AG8"/>
@@ -1089,16 +1087,20 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="1">
         <v>0</v>
@@ -1109,15 +1111,23 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q9" s="2"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="R9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
       <c r="U9" s="6">
         <v>0.0</v>
       </c>
@@ -1131,16 +1141,16 @@
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD9">
+        <v>0.0</v>
       </c>
       <c r="AE9"/>
       <c r="AG9"/>
@@ -1153,16 +1163,20 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="1">
         <v>0</v>
@@ -1173,15 +1187,23 @@
       <c r="M10" s="1">
         <v>0</v>
       </c>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q10" s="2"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="R10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
       <c r="U10" s="6">
         <v>0.0</v>
       </c>
@@ -1195,16 +1217,16 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD10">
+        <v>0.0</v>
       </c>
       <c r="AE10"/>
       <c r="AG10"/>
@@ -1217,16 +1239,20 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="1">
         <v>0</v>
@@ -1237,15 +1263,23 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q11" s="2"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="R11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
       <c r="U11" s="6">
         <v>0.0</v>
       </c>
@@ -1259,16 +1293,16 @@
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD11">
+        <v>0.0</v>
       </c>
       <c r="AE11"/>
       <c r="AG11"/>
@@ -1281,16 +1315,20 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="1">
         <v>0</v>
@@ -1301,15 +1339,23 @@
       <c r="M12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q12" s="2"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="R12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
       <c r="U12" s="6">
         <v>0.0</v>
       </c>
@@ -1323,16 +1369,16 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD12">
+        <v>0.0</v>
       </c>
       <c r="AE12"/>
       <c r="AG12"/>
@@ -1345,16 +1391,20 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="1">
         <v>0</v>
@@ -1365,15 +1415,23 @@
       <c r="M13" s="1">
         <v>0</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" s="2"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="R13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
       <c r="U13" s="6">
         <v>0.0</v>
       </c>
@@ -1387,16 +1445,16 @@
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD13">
+        <v>0.0</v>
       </c>
       <c r="AE13"/>
       <c r="AG13"/>
@@ -1409,16 +1467,20 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="1">
         <v>0</v>
@@ -1429,15 +1491,23 @@
       <c r="M14" s="1">
         <v>0</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q14" s="2"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
+      <c r="R14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
       <c r="U14" s="6">
         <v>0.0</v>
       </c>
@@ -1451,16 +1521,16 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD14">
+        <v>0.0</v>
       </c>
       <c r="AE14"/>
       <c r="AG14"/>
@@ -1473,16 +1543,20 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="1">
         <v>0</v>
@@ -1493,15 +1567,23 @@
       <c r="M15" s="1">
         <v>0</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q15" s="2"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
+      <c r="R15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
       <c r="U15" s="6">
         <v>0.0</v>
       </c>
@@ -1515,16 +1597,16 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD15">
+        <v>0.0</v>
       </c>
       <c r="AE15"/>
       <c r="AG15"/>
@@ -1537,16 +1619,20 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="1">
         <v>0</v>
@@ -1557,15 +1643,23 @@
       <c r="M16" s="1">
         <v>0</v>
       </c>
-      <c r="N16" s="1"/>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q16" s="2"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
+      <c r="R16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
       <c r="U16" s="6">
         <v>0.0</v>
       </c>
@@ -1579,16 +1673,16 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD16">
+        <v>0.0</v>
       </c>
       <c r="AE16"/>
       <c r="AG16"/>
@@ -1601,16 +1695,20 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="1">
         <v>0</v>
@@ -1621,15 +1719,23 @@
       <c r="M17" s="1">
         <v>0</v>
       </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q17" s="2"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
+      <c r="R17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
       <c r="U17" s="6">
         <v>0.0</v>
       </c>
@@ -1643,16 +1749,16 @@
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD17">
+        <v>0.0</v>
       </c>
       <c r="AE17"/>
       <c r="AG17"/>
@@ -1665,35 +1771,47 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>87600</v>
+        <v>96360.0</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1">
+        <v>176189.0</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="1">
         <v>150000.0</v>
       </c>
       <c r="L18" s="1">
-        <v>26189.437158819</v>
+        <v>26189.0</v>
       </c>
       <c r="M18" s="1">
-        <v>1473810.5628412</v>
-      </c>
-      <c r="N18" s="1"/>
+        <v>1473811.0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" s="6">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="Q18" s="2"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
+      <c r="R18" s="1">
+        <v>1526189.0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1500000.0</v>
+      </c>
       <c r="U18" s="6">
         <v>750000.0</v>
       </c>
@@ -1703,24 +1821,24 @@
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="1">
-        <v>-143189.43715882</v>
+        <v>-272549.0</v>
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD18">
+        <v>0.0</v>
       </c>
       <c r="AE18"/>
       <c r="AF18">
-        <v>-3.0142371437201</v>
+        <v>0.08</v>
       </c>
       <c r="AG18"/>
     </row>
@@ -1732,35 +1850,47 @@
         <v>29</v>
       </c>
       <c r="C19" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="8">
-        <v>96360</v>
+        <v>105996.0</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="8">
+        <v>0.0</v>
+      </c>
       <c r="H19" s="9"/>
-      <c r="I19" s="8"/>
+      <c r="I19" s="8">
+        <v>176189.0</v>
+      </c>
       <c r="J19" s="9"/>
       <c r="K19" s="8">
-        <v>147381.05628412</v>
+        <v>147381.0</v>
       </c>
       <c r="L19" s="8">
-        <v>28808.3808747</v>
+        <v>28808.0</v>
       </c>
       <c r="M19" s="8">
-        <v>1445002.1819665</v>
-      </c>
-      <c r="N19" s="8"/>
+        <v>1445002.0</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0</v>
+      </c>
       <c r="O19" s="9"/>
       <c r="P19" s="8">
-        <v>3300000</v>
+        <v>3300000.0</v>
       </c>
       <c r="Q19" s="9"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
+      <c r="R19" s="8">
+        <v>1854998.0</v>
+      </c>
+      <c r="S19" s="8">
+        <v>3000000.0</v>
+      </c>
+      <c r="T19" s="8">
+        <v>1676189.0</v>
+      </c>
       <c r="U19" s="8">
         <v>825000.0</v>
       </c>
@@ -1770,24 +1900,24 @@
       </c>
       <c r="X19" s="9"/>
       <c r="Y19" s="8">
-        <v>-143765.60477631</v>
+        <v>-282185.0</v>
       </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB19" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC19" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE19"/>
-      <c r="AF19">
-        <v>-2.9806043304914</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD19" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7">
+        <v>0.07</v>
       </c>
       <c r="AG19"/>
     </row>
@@ -1799,35 +1929,47 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>105996</v>
+        <v>116595.6</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1">
+        <v>176189.0</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="1">
-        <v>144500.21819665</v>
+        <v>144500.0</v>
       </c>
       <c r="L20" s="1">
-        <v>31689.218962171</v>
+        <v>31689.0</v>
       </c>
       <c r="M20" s="1">
-        <v>1413312.9630043</v>
-      </c>
-      <c r="N20" s="1"/>
+        <v>1413313.0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" s="6">
-        <v>3630000</v>
+        <v>3630000.0</v>
       </c>
       <c r="Q20" s="2"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+      <c r="R20" s="1">
+        <v>2216687.0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1852378.0</v>
+      </c>
       <c r="U20" s="6">
         <v>907500.0</v>
       </c>
@@ -1837,24 +1979,24 @@
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="1">
-        <v>-144399.38915556</v>
+        <v>-292784.6</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD20">
+        <v>0.0</v>
       </c>
       <c r="AE20"/>
       <c r="AF20">
-        <v>-2.9461115249147</v>
+        <v>0.07</v>
       </c>
       <c r="AG20"/>
     </row>
@@ -1866,35 +2008,47 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>116595.6</v>
+        <v>128255.6</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1">
+        <v>176189.0</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="1">
-        <v>141331.29630043</v>
+        <v>141331.0</v>
       </c>
       <c r="L21" s="1">
-        <v>34858.140858388</v>
+        <v>34858.0</v>
       </c>
       <c r="M21" s="1">
-        <v>1378454.8221459</v>
-      </c>
-      <c r="N21" s="1"/>
+        <v>1378455.0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" s="6">
-        <v>3993000</v>
+        <v>3993000.0</v>
       </c>
       <c r="Q21" s="2"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
+      <c r="R21" s="1">
+        <v>2614545.0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>2028567.0</v>
+      </c>
       <c r="U21" s="6">
         <v>998250.0</v>
       </c>
@@ -1904,24 +2058,24 @@
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="1">
-        <v>-145096.55197272</v>
+        <v>-304444.6</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD21">
+        <v>0.0</v>
       </c>
       <c r="AE21"/>
       <c r="AF21">
-        <v>-2.9108872373042</v>
+        <v>0.06</v>
       </c>
       <c r="AG21"/>
     </row>
@@ -1933,35 +2087,47 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>128255.16</v>
+        <v>141081.6</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1">
+        <v>176189.0</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="1">
-        <v>137845.48221459</v>
+        <v>137845.0</v>
       </c>
       <c r="L22" s="1">
-        <v>38343.954944226</v>
+        <v>38344.0</v>
       </c>
       <c r="M22" s="1">
-        <v>1340110.8672017</v>
-      </c>
-      <c r="N22" s="1"/>
+        <v>1340111.0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" s="6">
-        <v>4392300</v>
+        <v>4392300.0</v>
       </c>
       <c r="Q22" s="2"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
+      <c r="R22" s="1">
+        <v>3052189.0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>2204756.0</v>
+      </c>
       <c r="U22" s="6">
         <v>1098075.0</v>
       </c>
@@ -1971,24 +2137,24 @@
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="1">
-        <v>-145863.43107161</v>
+        <v>-317270.6</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD22">
+        <v>0.0</v>
       </c>
       <c r="AE22"/>
       <c r="AF22">
-        <v>-2.8750708029326</v>
+        <v>0.06</v>
       </c>
       <c r="AG22"/>
     </row>
@@ -2000,35 +2166,47 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>141080.676</v>
+        <v>155190.2</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1">
+        <v>176189.0</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="1">
-        <v>134011.08672017</v>
+        <v>134011.0</v>
       </c>
       <c r="L23" s="1">
-        <v>42178.350438649</v>
+        <v>42178.0</v>
       </c>
       <c r="M23" s="1">
-        <v>1297932.516763</v>
-      </c>
-      <c r="N23" s="1"/>
+        <v>1297933.0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" s="6">
-        <v>4831530</v>
+        <v>4831530.0</v>
       </c>
       <c r="Q23" s="2"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
+      <c r="R23" s="1">
+        <v>3533597.0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>2380945.0</v>
+      </c>
       <c r="U23" s="6">
         <v>1207882.5</v>
       </c>
@@ -2038,24 +2216,24 @@
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="1">
-        <v>-146706.99808038</v>
+        <v>-331379.2</v>
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD23">
+        <v>0.0</v>
       </c>
       <c r="AE23"/>
       <c r="AF23">
-        <v>-2.8388048941534</v>
+        <v>0.05</v>
       </c>
       <c r="AG23"/>
     </row>
@@ -2067,35 +2245,47 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>155188.7436</v>
+        <v>170709.0</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="1">
+        <v>176189.0</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="1">
-        <v>129793.2516763</v>
+        <v>129793.0</v>
       </c>
       <c r="L24" s="1">
-        <v>46396.185482514</v>
+        <v>46396.0</v>
       </c>
       <c r="M24" s="1">
-        <v>1251536.3312805</v>
-      </c>
-      <c r="N24" s="1"/>
+        <v>1251536.0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
-        <v>5314683</v>
+        <v>5314683.0</v>
       </c>
       <c r="Q24" s="2"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
+      <c r="R24" s="1">
+        <v>4063147.0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>2557134.0</v>
+      </c>
       <c r="U24" s="6">
         <v>1328670.75</v>
       </c>
@@ -2105,24 +2295,24 @@
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="1">
-        <v>-147634.92179003</v>
+        <v>-346898.0</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD24">
+        <v>0.0</v>
       </c>
       <c r="AE24"/>
       <c r="AF24">
-        <v>-2.8022553173544</v>
+        <v>0.05</v>
       </c>
       <c r="AG24"/>
     </row>
@@ -2134,35 +2324,47 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>170707.61796</v>
+        <v>187779.9</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="1">
+        <v>176189.0</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="1">
-        <v>125153.63312805</v>
+        <v>125154.0</v>
       </c>
       <c r="L25" s="1">
-        <v>51035.804030765</v>
+        <v>51036.0</v>
       </c>
       <c r="M25" s="1">
-        <v>1200500.5272498</v>
-      </c>
-      <c r="N25" s="1"/>
+        <v>1200501.0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
-        <v>5846151</v>
+        <v>5846151.0</v>
       </c>
       <c r="Q25" s="2"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
+      <c r="R25" s="1">
+        <v>4645650.0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>2733323.0</v>
+      </c>
       <c r="U25" s="6">
         <v>1461537.75</v>
       </c>
@@ -2172,24 +2374,24 @@
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="1">
-        <v>-148655.63787065</v>
+        <v>-363968.9</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD25">
+        <v>0.0</v>
       </c>
       <c r="AE25"/>
       <c r="AF25">
-        <v>-2.7655987916593</v>
+        <v>0.05</v>
       </c>
       <c r="AG25"/>
     </row>
@@ -2201,35 +2403,47 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>187778.379756</v>
+        <v>206558.0</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="1">
+        <v>176189.0</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="1">
-        <v>120050.05272498</v>
+        <v>120050.0</v>
       </c>
       <c r="L26" s="1">
-        <v>56139.384433842</v>
+        <v>56139.0</v>
       </c>
       <c r="M26" s="1">
-        <v>1144361.1428159</v>
-      </c>
-      <c r="N26" s="1"/>
+        <v>1144361.0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
-        <v>6430766</v>
+        <v>6430766.0</v>
       </c>
       <c r="Q26" s="2"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
+      <c r="R26" s="1">
+        <v>5286405.0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>2909512.0</v>
+      </c>
       <c r="U26" s="6">
         <v>1607691.5</v>
       </c>
@@ -2239,24 +2453,24 @@
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="1">
-        <v>-149778.42555932</v>
+        <v>-382747.0</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD26">
+        <v>0.0</v>
       </c>
       <c r="AE26"/>
       <c r="AF26">
-        <v>-2.7289753995732</v>
+        <v>0.04</v>
       </c>
       <c r="AG26"/>
     </row>
@@ -2268,35 +2482,47 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>206556.2177316</v>
+        <v>227213.8</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H27" s="2"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="1">
+        <v>176189.0</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="1">
-        <v>114436.11428159</v>
+        <v>114436.0</v>
       </c>
       <c r="L27" s="1">
-        <v>61753.322877226</v>
+        <v>61753.0</v>
       </c>
       <c r="M27" s="1">
-        <v>1082607.8199387</v>
-      </c>
-      <c r="N27" s="1"/>
+        <v>1082608.0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
-        <v>7073843</v>
+        <v>7073843.0</v>
       </c>
       <c r="Q27" s="2"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
+      <c r="R27" s="1">
+        <v>5991235.0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>3085701.0</v>
+      </c>
       <c r="U27" s="6">
         <v>1768460.75</v>
       </c>
@@ -2306,24 +2532,24 @@
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="1">
-        <v>-151013.49201687</v>
+        <v>-404087.4075</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD27">
+        <v>0.0</v>
       </c>
       <c r="AE27"/>
       <c r="AF27">
-        <v>-2.6925683988086</v>
+        <v>0.04</v>
       </c>
       <c r="AG27"/>
     </row>
@@ -2335,35 +2561,47 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>227211.83950476</v>
+        <v>249935.4</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H28" s="2"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="1">
+        <v>176189.0</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="1">
-        <v>108260.78199387</v>
+        <v>108261.0</v>
       </c>
       <c r="L28" s="1">
-        <v>67928.655164949</v>
+        <v>67929.0</v>
       </c>
       <c r="M28" s="1">
-        <v>1014679.1647738</v>
-      </c>
-      <c r="N28" s="1"/>
+        <v>1014679.0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
-        <v>7781227</v>
+        <v>7781227.0</v>
       </c>
       <c r="Q28" s="2"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
+      <c r="R28" s="1">
+        <v>6766548.0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>3261890.0</v>
+      </c>
       <c r="U28" s="6">
         <v>1945306.75</v>
       </c>
@@ -2373,24 +2611,24 @@
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="1">
-        <v>-152372.06512017</v>
+        <v>-428577.4675</v>
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD28">
+        <v>0.0</v>
       </c>
       <c r="AE28"/>
       <c r="AF28">
-        <v>-2.6565400969257</v>
+        <v>0.04</v>
       </c>
       <c r="AG28"/>
     </row>
@@ -2402,35 +2640,47 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>249933.02345524</v>
+        <v>274928.5</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H29" s="2"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="1">
+        <v>176189.0</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="1">
-        <v>101467.91647738</v>
+        <v>101468.0</v>
       </c>
       <c r="L29" s="1">
-        <v>74721.520681444</v>
+        <v>74722.0</v>
       </c>
       <c r="M29" s="1">
-        <v>939957.64409231</v>
-      </c>
-      <c r="N29" s="1"/>
+        <v>939958.0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" s="6">
-        <v>8559350</v>
+        <v>8559350.0</v>
       </c>
       <c r="Q29" s="2"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
+      <c r="R29" s="1">
+        <v>7619392.0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>3438079.0</v>
+      </c>
       <c r="U29" s="6">
         <v>2139837.5</v>
       </c>
@@ -2440,24 +2690,24 @@
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="1">
-        <v>-153866.4955338</v>
+        <v>-455515.875</v>
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD29">
+        <v>0.0</v>
       </c>
       <c r="AE29"/>
       <c r="AF29">
-        <v>-2.6210253934608</v>
+        <v>0.04</v>
       </c>
       <c r="AG29"/>
     </row>
@@ -2469,35 +2719,47 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>274926.32580076</v>
+        <v>302421.9</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H30" s="2"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="1">
+        <v>176189.0</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="1">
-        <v>93995.764409231</v>
+        <v>93996.0</v>
       </c>
       <c r="L30" s="1">
-        <v>82193.672749588</v>
+        <v>82194.0</v>
       </c>
       <c r="M30" s="1">
-        <v>857763.97134272</v>
-      </c>
-      <c r="N30" s="1"/>
+        <v>857764.0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" s="6">
-        <v>9415285</v>
+        <v>9415285.0</v>
       </c>
       <c r="Q30" s="2"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
+      <c r="R30" s="1">
+        <v>8557521.0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>3614268.0</v>
+      </c>
       <c r="U30" s="6">
         <v>2353821.25</v>
       </c>
@@ -2507,24 +2769,24 @@
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="1">
-        <v>-155510.36898879</v>
+        <v>-485149.1125</v>
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD30">
+        <v>0.0</v>
       </c>
       <c r="AE30"/>
       <c r="AF30">
-        <v>-2.5861953090944</v>
+        <v>0.03</v>
       </c>
       <c r="AG30"/>
     </row>
@@ -2536,35 +2798,47 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>302418.95838084</v>
+        <v>332664.2</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H31" s="2"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="1">
+        <v>176189.0</v>
+      </c>
       <c r="J31" s="2"/>
       <c r="K31" s="1">
-        <v>85776.397134272</v>
+        <v>85776.0</v>
       </c>
       <c r="L31" s="1">
-        <v>90413.040024547</v>
+        <v>90413.0</v>
       </c>
       <c r="M31" s="1">
-        <v>767350.93131817</v>
-      </c>
-      <c r="N31" s="1"/>
+        <v>767351.0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" s="6">
-        <v>10356814</v>
+        <v>10356814.0</v>
       </c>
       <c r="Q31" s="2"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
+      <c r="R31" s="1">
+        <v>9589463.0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>3790457.0</v>
+      </c>
       <c r="U31" s="6">
         <v>2589203.5</v>
       </c>
@@ -2574,24 +2848,24 @@
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="1">
-        <v>-157318.62978928</v>
+        <v>-517745.235</v>
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD31">
+        <v>0.0</v>
       </c>
       <c r="AE31"/>
       <c r="AF31">
-        <v>-2.5521795457495</v>
+        <v>0.03</v>
       </c>
       <c r="AG31"/>
     </row>
@@ -2603,35 +2877,47 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>332660.85421892</v>
+        <v>365930.4</v>
       </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H32" s="2"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="1">
+        <v>176189.0</v>
+      </c>
       <c r="J32" s="2"/>
       <c r="K32" s="1">
-        <v>76735.093131817</v>
+        <v>76735.0</v>
       </c>
       <c r="L32" s="1">
-        <v>99454.344027001</v>
+        <v>99454.0</v>
       </c>
       <c r="M32" s="1">
-        <v>667896.58729117</v>
-      </c>
-      <c r="N32" s="1"/>
+        <v>667897.0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" s="6">
-        <v>11392495</v>
+        <v>11392495.0</v>
       </c>
       <c r="Q32" s="2"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
+      <c r="R32" s="1">
+        <v>10724598.0</v>
+      </c>
+      <c r="S32" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>3966646.0</v>
+      </c>
       <c r="U32" s="6">
         <v>2848123.75</v>
       </c>
@@ -2641,24 +2927,24 @@
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="1">
-        <v>-159307.71666982</v>
+        <v>-553600.6375</v>
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD32">
+        <v>0.0</v>
       </c>
       <c r="AE32"/>
       <c r="AF32">
-        <v>-2.519081260134</v>
+        <v>0.03</v>
       </c>
       <c r="AG32"/>
     </row>
@@ -2670,35 +2956,47 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>365926.93964081</v>
+        <v>402523.0</v>
       </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H33" s="2"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="1">
+        <v>176189.0</v>
+      </c>
       <c r="J33" s="2"/>
       <c r="K33" s="1">
-        <v>66789.658729117</v>
+        <v>66790.0</v>
       </c>
       <c r="L33" s="1">
-        <v>109399.7784297</v>
+        <v>109400.0</v>
       </c>
       <c r="M33" s="1">
-        <v>558496.80886147</v>
-      </c>
-      <c r="N33" s="1"/>
+        <v>558497.0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" s="6">
-        <v>12531745</v>
+        <v>12531745.0</v>
       </c>
       <c r="Q33" s="2"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
+      <c r="R33" s="1">
+        <v>11973248.0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>4142835.0</v>
+      </c>
       <c r="U33" s="6">
         <v>3132936.25</v>
       </c>
@@ -2708,24 +3006,24 @@
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="1">
-        <v>-161495.71223841</v>
+        <v>-593041.3625</v>
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD33">
+        <v>0.0</v>
       </c>
       <c r="AE33"/>
       <c r="AF33">
-        <v>-2.4870198009422</v>
+        <v>0.03</v>
       </c>
       <c r="AG33"/>
     </row>
@@ -2737,35 +3035,47 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>402519.63360489</v>
+        <v>442775.3</v>
       </c>
       <c r="F34" s="2"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H34" s="2"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="1">
+        <v>176189.0</v>
+      </c>
       <c r="J34" s="2"/>
       <c r="K34" s="1">
-        <v>55849.680886147</v>
+        <v>55850.0</v>
       </c>
       <c r="L34" s="1">
-        <v>120339.75627267</v>
+        <v>120340.0</v>
       </c>
       <c r="M34" s="1">
-        <v>438157.0525888</v>
-      </c>
-      <c r="N34" s="1"/>
+        <v>438157.0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" s="6">
-        <v>13784920</v>
+        <v>13784920.0</v>
       </c>
       <c r="Q34" s="2"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
+      <c r="R34" s="1">
+        <v>13346763.0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>4319024.0</v>
+      </c>
       <c r="U34" s="6">
         <v>3446230.0</v>
       </c>
@@ -2775,24 +3085,24 @@
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="1">
-        <v>-163902.50736387</v>
+        <v>-636426.6</v>
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD34">
+        <v>0.0</v>
       </c>
       <c r="AE34"/>
       <c r="AF34">
-        <v>-2.456089416529</v>
+        <v>0.03</v>
       </c>
       <c r="AG34"/>
     </row>
@@ -2804,35 +3114,47 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>442771.59696538</v>
+        <v>487052.5</v>
       </c>
       <c r="F35" s="2"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H35" s="2"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="1">
+        <v>176189.0</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="1">
-        <v>43815.70525888</v>
+        <v>43816.0</v>
       </c>
       <c r="L35" s="1">
-        <v>132373.73189994</v>
+        <v>132374.0</v>
       </c>
       <c r="M35" s="1">
-        <v>305783.32068886</v>
-      </c>
-      <c r="N35" s="1"/>
+        <v>305783.0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" s="6">
-        <v>15163412</v>
+        <v>15163412.0</v>
       </c>
       <c r="Q35" s="2"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
+      <c r="R35" s="1">
+        <v>14857629.0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>4495213.0</v>
+      </c>
       <c r="U35" s="6">
         <v>3790853.0</v>
       </c>
@@ -2842,24 +3164,24 @@
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="1">
-        <v>-166549.98200187</v>
+        <v>-684150.03</v>
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD35">
+        <v>0.0</v>
       </c>
       <c r="AE35"/>
       <c r="AF35">
-        <v>-2.4263521377206</v>
+        <v>0.03</v>
       </c>
       <c r="AG35"/>
     </row>
@@ -2871,35 +3193,47 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>487048.75666192</v>
+        <v>535758.3</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H36" s="2"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="1">
+        <v>176189.0</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="1">
-        <v>30578.332068886</v>
+        <v>30578.0</v>
       </c>
       <c r="L36" s="1">
-        <v>145611.10508993</v>
+        <v>145611.0</v>
       </c>
       <c r="M36" s="1">
-        <v>160172.21559893</v>
-      </c>
-      <c r="N36" s="1"/>
+        <v>160172.0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" s="6">
-        <v>16679753</v>
+        <v>16679753.0</v>
       </c>
       <c r="Q36" s="2"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
+      <c r="R36" s="1">
+        <v>16519581.0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>4671402.0</v>
+      </c>
       <c r="U36" s="6">
         <v>4169938.25</v>
       </c>
@@ -2909,24 +3243,24 @@
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="1">
-        <v>-169462.20410366</v>
+        <v>-736646.6825</v>
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD36">
+        <v>0.0</v>
       </c>
       <c r="AE36"/>
       <c r="AF36">
-        <v>-2.3978796437447</v>
+        <v>0.02</v>
       </c>
       <c r="AG36"/>
     </row>
@@ -2938,35 +3272,47 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>535753.63232811</v>
+        <v>589333.8</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H37" s="2"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="1">
+        <v>176189.0</v>
+      </c>
       <c r="J37" s="2"/>
       <c r="K37" s="1">
-        <v>16017.221559893</v>
+        <v>16017.0</v>
       </c>
       <c r="L37" s="1">
-        <v>160172.21559893</v>
+        <v>160172.0</v>
       </c>
       <c r="M37" s="1">
-        <v>2.9103830456734E-11</v>
-      </c>
-      <c r="N37" s="1"/>
+        <v>0.0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>18347728</v>
+        <v>18347728.0</v>
       </c>
       <c r="Q37" s="2"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
+      <c r="R37" s="1">
+        <v>18347728.0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>4847591.0</v>
+      </c>
       <c r="U37" s="6">
         <v>4586932.0</v>
       </c>
@@ -2976,24 +3322,24 @@
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="1">
-        <v>-172665.64841564</v>
+        <v>-794392.12</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD37">
+        <v>0.0</v>
       </c>
       <c r="AE37"/>
       <c r="AF37">
-        <v>-2.3707053911284</v>
+        <v>0.02</v>
       </c>
       <c r="AG37"/>
     </row>
@@ -3005,16 +3351,20 @@
         <v>48</v>
       </c>
       <c r="C38" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>589328.99556092</v>
+        <v>648267.4</v>
       </c>
       <c r="F38" s="2"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H38" s="2"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="1">
         <v>0</v>
@@ -3025,15 +3375,23 @@
       <c r="M38" s="1">
         <v>0</v>
       </c>
-      <c r="N38" s="1"/>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>20182501</v>
+        <v>20182501.0</v>
       </c>
       <c r="Q38" s="2"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
+      <c r="R38" s="1">
+        <v>20182501.0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>4847591.0</v>
+      </c>
       <c r="U38" s="6">
         <v>5045625.25</v>
       </c>
@@ -3043,20 +3401,20 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="1">
-        <v>0.0</v>
+        <v>-681723.6525</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD38">
+        <v>0.0</v>
       </c>
       <c r="AE38"/>
       <c r="AG38"/>
@@ -3069,16 +3427,20 @@
         <v>49</v>
       </c>
       <c r="C39" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <v>648261.89511701</v>
+        <v>713093.7</v>
       </c>
       <c r="F39" s="2"/>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H39" s="2"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
       <c r="J39" s="2"/>
       <c r="K39" s="1">
         <v>0</v>
@@ -3089,15 +3451,23 @@
       <c r="M39" s="1">
         <v>0</v>
       </c>
-      <c r="N39" s="1"/>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" s="6">
-        <v>22200751</v>
+        <v>22200751.0</v>
       </c>
       <c r="Q39" s="2"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
+      <c r="R39" s="1">
+        <v>22200751.0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>4847591.0</v>
+      </c>
       <c r="U39" s="6">
         <v>5550187.75</v>
       </c>
@@ -3107,20 +3477,20 @@
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" s="1">
-        <v>0.0</v>
+        <v>-751595.5775</v>
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB39" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD39">
+        <v>0.0</v>
       </c>
       <c r="AE39"/>
       <c r="AG39"/>
@@ -3133,16 +3503,20 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>713088.08462871</v>
+        <v>784403.4</v>
       </c>
       <c r="F40" s="12"/>
-      <c r="G40" s="11"/>
+      <c r="G40" s="11">
+        <v>0.0</v>
+      </c>
       <c r="H40" s="12"/>
-      <c r="I40" s="11"/>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
       <c r="J40" s="12"/>
       <c r="K40" s="11">
         <v>0</v>
@@ -3153,15 +3527,23 @@
       <c r="M40" s="11">
         <v>0</v>
       </c>
-      <c r="N40" s="11"/>
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>24420826</v>
+        <v>24420826.0</v>
       </c>
       <c r="Q40" s="12"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
+      <c r="R40" s="11">
+        <v>24420826.0</v>
+      </c>
+      <c r="S40" s="11">
+        <v>3000000.0</v>
+      </c>
+      <c r="T40" s="11">
+        <v>4847591.0</v>
+      </c>
       <c r="U40" s="11">
         <v>6105206.5</v>
       </c>
@@ -3171,22 +3553,23 @@
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
-        <v>0.0</v>
+        <v>-828455.465</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE40"/>
+        <v>0.0</v>
+      </c>
+      <c r="AD40" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
       <c r="AG40"/>
     </row>
     <row r="41" spans="1:33">
@@ -3197,16 +3580,20 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>784396.89309158</v>
+        <v>862843.3</v>
       </c>
       <c r="F41" s="2"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H41" s="2"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
       <c r="J41" s="2"/>
       <c r="K41" s="1">
         <v>0</v>
@@ -3217,15 +3604,23 @@
       <c r="M41" s="1">
         <v>0</v>
       </c>
-      <c r="N41" s="1"/>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>26862909</v>
+        <v>26862909.0</v>
       </c>
       <c r="Q41" s="2"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
+      <c r="R41" s="1">
+        <v>26862909.0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>4847591.0</v>
+      </c>
       <c r="U41" s="6">
         <v>6715727.25</v>
       </c>
@@ -3235,20 +3630,20 @@
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="1">
-        <v>0.0</v>
+        <v>-913000.5725</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD41">
+        <v>0.0</v>
       </c>
       <c r="AE41"/>
       <c r="AG41"/>
@@ -3261,16 +3656,20 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>862836.58240074</v>
+        <v>949127.3</v>
       </c>
       <c r="F42" s="2"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H42" s="2"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
       <c r="J42" s="2"/>
       <c r="K42" s="1">
         <v>0</v>
@@ -3281,15 +3680,23 @@
       <c r="M42" s="1">
         <v>0</v>
       </c>
-      <c r="N42" s="1"/>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>29549200</v>
+        <v>29549200.0</v>
       </c>
       <c r="Q42" s="2"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
+      <c r="R42" s="1">
+        <v>29549200.0</v>
+      </c>
+      <c r="S42" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>4847591.0</v>
+      </c>
       <c r="U42" s="6">
         <v>7387300.0</v>
       </c>
@@ -3299,20 +3706,20 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="1">
-        <v>0.0</v>
+        <v>-1006000.3</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD42">
+        <v>0.0</v>
       </c>
       <c r="AE42"/>
       <c r="AG42"/>
@@ -3325,16 +3732,20 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>949120.24064081</v>
+        <v>1044039.7</v>
       </c>
       <c r="F43" s="2"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H43" s="2"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
       <c r="J43" s="2"/>
       <c r="K43" s="1">
         <v>0</v>
@@ -3345,15 +3756,23 @@
       <c r="M43" s="1">
         <v>0</v>
       </c>
-      <c r="N43" s="1"/>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>32504120</v>
+        <v>32504120.0</v>
       </c>
       <c r="Q43" s="2"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
+      <c r="R43" s="1">
+        <v>32504120.0</v>
+      </c>
+      <c r="S43" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>4847591.0</v>
+      </c>
       <c r="U43" s="6">
         <v>8126030.0</v>
       </c>
@@ -3363,20 +3782,20 @@
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="1">
-        <v>0.0</v>
+        <v>-1108300.0</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD43">
+        <v>0.0</v>
       </c>
       <c r="AE43"/>
       <c r="AG43"/>
@@ -3389,16 +3808,20 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>1044032.2647049</v>
+        <v>1148444.0</v>
       </c>
       <c r="F44" s="2"/>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H44" s="2"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
       <c r="J44" s="2"/>
       <c r="K44" s="1">
         <v>0</v>
@@ -3409,15 +3832,23 @@
       <c r="M44" s="1">
         <v>0</v>
       </c>
-      <c r="N44" s="1"/>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>35754532</v>
+        <v>35754532.0</v>
       </c>
       <c r="Q44" s="2"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
+      <c r="R44" s="1">
+        <v>35754532.0</v>
+      </c>
+      <c r="S44" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T44" s="1">
+        <v>4847591.0</v>
+      </c>
       <c r="U44" s="6">
         <v>8938633.0</v>
       </c>
@@ -3427,20 +3858,20 @@
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="1">
-        <v>0.0</v>
+        <v>-1220830.33</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD44">
+        <v>0.0</v>
       </c>
       <c r="AE44"/>
       <c r="AG44"/>
@@ -3453,16 +3884,20 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>1148435.4911754</v>
+        <v>1263288.4</v>
       </c>
       <c r="F45" s="2"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H45" s="2"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
       <c r="J45" s="2"/>
       <c r="K45" s="1">
         <v>0</v>
@@ -3473,15 +3908,23 @@
       <c r="M45" s="1">
         <v>0</v>
       </c>
-      <c r="N45" s="1"/>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>39329985</v>
+        <v>39329985.0</v>
       </c>
       <c r="Q45" s="2"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
+      <c r="R45" s="1">
+        <v>39329985.0</v>
+      </c>
+      <c r="S45" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T45" s="1">
+        <v>4847591.0</v>
+      </c>
       <c r="U45" s="6">
         <v>9832496.25</v>
       </c>
@@ -3491,20 +3934,20 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="1">
-        <v>0.0</v>
+        <v>-1344613.3625</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD45">
+        <v>0.0</v>
       </c>
       <c r="AE45"/>
       <c r="AG45"/>
@@ -3517,16 +3960,20 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>1263279.0402929</v>
+        <v>1389616.8</v>
       </c>
       <c r="F46" s="2"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H46" s="2"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
       <c r="J46" s="2"/>
       <c r="K46" s="1">
         <v>0</v>
@@ -3537,15 +3984,23 @@
       <c r="M46" s="1">
         <v>0</v>
       </c>
-      <c r="N46" s="1"/>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>43262984</v>
+        <v>43262984.0</v>
       </c>
       <c r="Q46" s="2"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
+      <c r="R46" s="1">
+        <v>43262984.0</v>
+      </c>
+      <c r="S46" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>4847591.0</v>
+      </c>
       <c r="U46" s="6">
         <v>10815746.0</v>
       </c>
@@ -3555,20 +4010,20 @@
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="1">
-        <v>0.0</v>
+        <v>-1480774.26</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD46">
+        <v>0.0</v>
       </c>
       <c r="AE46"/>
       <c r="AG46"/>
@@ -3581,16 +4036,20 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>1389606.9443222</v>
+        <v>1528578.7</v>
       </c>
       <c r="F47" s="2"/>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H47" s="2"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
       <c r="J47" s="2"/>
       <c r="K47" s="1">
         <v>0</v>
@@ -3601,15 +4060,23 @@
       <c r="M47" s="1">
         <v>0</v>
       </c>
-      <c r="N47" s="1"/>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>47589282</v>
+        <v>47589282.0</v>
       </c>
       <c r="Q47" s="2"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
+      <c r="R47" s="1">
+        <v>47589282.0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T47" s="1">
+        <v>4847591.0</v>
+      </c>
       <c r="U47" s="6">
         <v>11897320.5</v>
       </c>
@@ -3619,20 +4086,20 @@
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="1">
-        <v>0.0</v>
+        <v>-1630551.905</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD47">
+        <v>0.0</v>
       </c>
       <c r="AE47"/>
       <c r="AG47"/>
@@ -3645,16 +4112,20 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>1528567.6387544</v>
+        <v>1681436.9</v>
       </c>
       <c r="F48" s="2"/>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H48" s="2"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
       <c r="J48" s="2"/>
       <c r="K48" s="1">
         <v>0</v>
@@ -3665,15 +4136,23 @@
       <c r="M48" s="1">
         <v>0</v>
       </c>
-      <c r="N48" s="1"/>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>52348210</v>
+        <v>52348210.0</v>
       </c>
       <c r="Q48" s="2"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
+      <c r="R48" s="1">
+        <v>52348210.0</v>
+      </c>
+      <c r="S48" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T48" s="1">
+        <v>4847591.0</v>
+      </c>
       <c r="U48" s="6">
         <v>13087052.5</v>
       </c>
@@ -3683,20 +4162,20 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="1">
-        <v>0.0</v>
+        <v>-1795307.425</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD48">
+        <v>0.0</v>
       </c>
       <c r="AE48"/>
       <c r="AG48"/>
@@ -3709,16 +4188,20 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>1681424.4026298</v>
+        <v>1849580.7</v>
       </c>
       <c r="F49" s="2"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H49" s="2"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
       <c r="J49" s="2"/>
       <c r="K49" s="1">
         <v>0</v>
@@ -3729,15 +4212,23 @@
       <c r="M49" s="1">
         <v>0</v>
       </c>
-      <c r="N49" s="1"/>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>57583031</v>
+        <v>57583031.0</v>
       </c>
       <c r="Q49" s="2"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
+      <c r="R49" s="1">
+        <v>57583031.0</v>
+      </c>
+      <c r="S49" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T49" s="1">
+        <v>4847591.0</v>
+      </c>
       <c r="U49" s="6">
         <v>14395757.75</v>
       </c>
@@ -3747,20 +4238,20 @@
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="1">
-        <v>0.0</v>
+        <v>-1976538.2775</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD49">
+        <v>0.0</v>
       </c>
       <c r="AE49"/>
       <c r="AG49"/>
@@ -3773,16 +4264,20 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>1849566.8428928</v>
+        <v>2034539.1</v>
       </c>
       <c r="F50" s="2"/>
-      <c r="G50" s="1"/>
+      <c r="G50" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H50" s="2"/>
-      <c r="I50" s="1"/>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
       <c r="J50" s="2"/>
       <c r="K50" s="1">
         <v>0</v>
@@ -3793,15 +4288,23 @@
       <c r="M50" s="1">
         <v>0</v>
       </c>
-      <c r="N50" s="1"/>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>63341334</v>
+        <v>63341334.0</v>
       </c>
       <c r="Q50" s="2"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
+      <c r="R50" s="1">
+        <v>63341334.0</v>
+      </c>
+      <c r="S50" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T50" s="1">
+        <v>4847591.0</v>
+      </c>
       <c r="U50" s="6">
         <v>15835333.5</v>
       </c>
@@ -3811,20 +4314,20 @@
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="1">
-        <v>0.0</v>
+        <v>-2175892.435</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD50">
+        <v>0.0</v>
       </c>
       <c r="AE50"/>
       <c r="AG50"/>
@@ -3837,16 +4340,20 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>2034523.5271821</v>
+        <v>2237992.9</v>
       </c>
       <c r="F51" s="2"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H51" s="2"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
       <c r="J51" s="2"/>
       <c r="K51" s="1">
         <v>0</v>
@@ -3857,15 +4364,23 @@
       <c r="M51" s="1">
         <v>0</v>
       </c>
-      <c r="N51" s="1"/>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>69675467</v>
+        <v>69675467.0</v>
       </c>
       <c r="Q51" s="2"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
+      <c r="R51" s="1">
+        <v>69675467.0</v>
+      </c>
+      <c r="S51" s="1">
+        <v>3000000.0</v>
+      </c>
+      <c r="T51" s="1">
+        <v>4847591.0</v>
+      </c>
       <c r="U51" s="6">
         <v>17418866.75</v>
       </c>
@@ -3875,20 +4390,20 @@
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="1">
-        <v>0.0</v>
+        <v>-2395181.5675</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD51">
+        <v>0.0</v>
       </c>
       <c r="AE51"/>
       <c r="AG51"/>
@@ -3901,16 +4416,20 @@
         <v>62</v>
       </c>
       <c r="C52" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="5">
-        <v>2237975.8799003</v>
+        <v>2461792.3</v>
       </c>
       <c r="F52" s="16"/>
-      <c r="G52" s="5"/>
+      <c r="G52" s="5">
+        <v>0.0</v>
+      </c>
       <c r="H52" s="16"/>
-      <c r="I52" s="5"/>
+      <c r="I52" s="5">
+        <v>0</v>
+      </c>
       <c r="J52" s="16"/>
       <c r="K52" s="5">
         <v>0</v>
@@ -3921,15 +4440,23 @@
       <c r="M52" s="5">
         <v>0</v>
       </c>
-      <c r="N52" s="5"/>
+      <c r="N52" s="5">
+        <v>0</v>
+      </c>
       <c r="O52" s="16"/>
       <c r="P52" s="5">
-        <v>76643014</v>
+        <v>76643014.0</v>
       </c>
       <c r="Q52" s="16"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
+      <c r="R52" s="5">
+        <v>76643014.0</v>
+      </c>
+      <c r="S52" s="5">
+        <v>3000000.0</v>
+      </c>
+      <c r="T52" s="5">
+        <v>4847591.0</v>
+      </c>
       <c r="U52" s="5">
         <v>19160753.5</v>
       </c>
@@ -3939,22 +4466,23 @@
       </c>
       <c r="X52" s="16"/>
       <c r="Y52" s="5">
-        <v>0.0</v>
+        <v>-2636399.835</v>
       </c>
       <c r="Z52" s="16"/>
       <c r="AA52" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB52" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE52"/>
+        <v>0.0</v>
+      </c>
+      <c r="AD52" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AE52" s="15"/>
+      <c r="AF52" s="15"/>
       <c r="AG52"/>
     </row>
     <row r="53" spans="1:33">
@@ -3987,7 +4515,9 @@
       <c r="AA53" s="13"/>
       <c r="AB53" s="13"/>
       <c r="AC53" s="13"/>
-      <c r="AD53" s="14"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
     </row>
     <row r="54" spans="1:33">
       <c r="B54" s="1"/>
@@ -4018,7 +4548,6 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
-      <c r="AD54" s="2"/>
     </row>
     <row r="55" spans="1:33">
       <c r="B55" s="1"/>
@@ -4049,7 +4578,6 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
-      <c r="AD55" s="2"/>
     </row>
     <row r="56" spans="1:33">
       <c r="B56" s="1"/>
@@ -4080,7 +4608,6 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
-      <c r="AD56" s="2"/>
     </row>
     <row r="57" spans="1:33">
       <c r="A57" s="3"/>
@@ -4112,7 +4639,9 @@
       <c r="AA57" s="13"/>
       <c r="AB57" s="13"/>
       <c r="AC57" s="13"/>
-      <c r="AD57" s="14"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
     </row>
     <row r="58" spans="1:33">
       <c r="B58" s="1"/>
@@ -4143,7 +4672,6 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
-      <c r="AD58" s="2"/>
     </row>
     <row r="59" spans="1:33">
       <c r="B59" s="1"/>
@@ -4174,7 +4702,6 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
-      <c r="AD59" s="2"/>
     </row>
     <row r="60" spans="1:33">
       <c r="B60" s="1"/>
@@ -4205,7 +4732,6 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
-      <c r="AD60" s="2"/>
     </row>
     <row r="61" spans="1:33">
       <c r="B61" s="1"/>
@@ -4236,7 +4762,6 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
-      <c r="AD61" s="2"/>
     </row>
     <row r="62" spans="1:33">
       <c r="B62" s="1"/>
@@ -4267,7 +4792,6 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
-      <c r="AD62" s="2"/>
     </row>
     <row r="63" spans="1:33">
       <c r="B63" s="1"/>
@@ -4298,7 +4822,6 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
-      <c r="AD63" s="2"/>
     </row>
     <row r="64" spans="1:33">
       <c r="B64" s="1"/>
@@ -4329,7 +4852,6 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
-      <c r="AD64" s="2"/>
     </row>
     <row r="65" spans="1:33">
       <c r="B65" s="1"/>
@@ -4360,7 +4882,6 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
-      <c r="AD65" s="2"/>
     </row>
     <row r="66" spans="1:33">
       <c r="B66" s="1"/>
@@ -4391,7 +4912,6 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
-      <c r="AD66" s="2"/>
     </row>
     <row r="67" spans="1:33">
       <c r="B67" s="1"/>
@@ -4422,7 +4942,6 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
-      <c r="AD67" s="2"/>
     </row>
     <row r="68" spans="1:33">
       <c r="B68" s="1"/>
@@ -4453,7 +4972,6 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
-      <c r="AD68" s="2"/>
     </row>
     <row r="69" spans="1:33">
       <c r="B69" s="1"/>
@@ -4484,7 +5002,6 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
-      <c r="AD69" s="2"/>
     </row>
     <row r="70" spans="1:33">
       <c r="B70" s="1"/>
@@ -4515,7 +5032,6 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
-      <c r="AD70" s="2"/>
     </row>
     <row r="71" spans="1:33">
       <c r="B71" s="1"/>
@@ -4546,7 +5062,6 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
-      <c r="AD71" s="2"/>
     </row>
     <row r="72" spans="1:33">
       <c r="B72" s="1"/>
@@ -4577,7 +5092,6 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
-      <c r="AD72" s="2"/>
     </row>
     <row r="73" spans="1:33">
       <c r="B73" s="1"/>
@@ -4608,7 +5122,6 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
-      <c r="AD73" s="2"/>
     </row>
     <row r="74" spans="1:33">
       <c r="B74" s="1"/>
@@ -4639,7 +5152,6 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
-      <c r="AD74" s="2"/>
     </row>
     <row r="75" spans="1:33">
       <c r="B75" s="1"/>
@@ -4670,7 +5182,6 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
-      <c r="AD75" s="2"/>
     </row>
     <row r="76" spans="1:33">
       <c r="B76" s="1"/>
@@ -4701,7 +5212,6 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
-      <c r="AD76" s="2"/>
     </row>
     <row r="77" spans="1:33">
       <c r="B77" s="1"/>
@@ -4732,7 +5242,6 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
-      <c r="AD77" s="2"/>
     </row>
     <row r="78" spans="1:33">
       <c r="B78" s="1"/>
@@ -4763,7 +5272,6 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
-      <c r="AD78" s="2"/>
     </row>
     <row r="79" spans="1:33">
       <c r="B79" s="1"/>
@@ -4794,7 +5302,6 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
-      <c r="AD79" s="2"/>
     </row>
     <row r="80" spans="1:33">
       <c r="B80" s="1"/>
@@ -4825,7 +5332,6 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
-      <c r="AD80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -4851,7 +5357,7 @@
   <dimension ref="A1:AG80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A52" sqref="A52:AD52"/>
+      <selection activeCell="A52" sqref="A52:AF52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4872,21 +5378,25 @@
     <col min="14" max="14" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="28" max="28" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -4894,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -4906,7 +5416,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -4918,7 +5428,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -4940,7 +5450,7 @@
       <c r="Z4" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4994,22 +5504,22 @@
         <v>28</v>
       </c>
       <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>19</v>
@@ -5021,28 +5531,28 @@
         <v>7</v>
       </c>
       <c r="Z5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" t="s">
         <v>39</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AG5" t="s">
         <v>40</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -5053,15 +5563,15 @@
         <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>
@@ -5072,11 +5582,11 @@
       <c r="N6" s="1"/>
       <c r="O6" s="2"/>
       <c r="P6" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
@@ -5089,7 +5599,7 @@
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="1">
@@ -5097,20 +5607,20 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD6">
+        <v>0.0</v>
       </c>
       <c r="AE6"/>
       <c r="AG6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -5121,15 +5631,15 @@
         <v>17</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="1"/>
@@ -5140,11 +5650,11 @@
       <c r="N7" s="1"/>
       <c r="O7" s="2"/>
       <c r="P7" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S7" s="1">
         <v>0</v>
@@ -5157,7 +5667,7 @@
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="1">
@@ -5165,20 +5675,20 @@
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD7">
+        <v>0.0</v>
       </c>
       <c r="AE7"/>
       <c r="AG7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -5189,15 +5699,15 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="1"/>
@@ -5208,11 +5718,11 @@
       <c r="N8" s="1"/>
       <c r="O8" s="2"/>
       <c r="P8" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
@@ -5225,7 +5735,7 @@
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="1">
@@ -5233,20 +5743,20 @@
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD8">
+        <v>0.0</v>
       </c>
       <c r="AE8"/>
       <c r="AG8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -5257,15 +5767,15 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="1"/>
@@ -5276,11 +5786,11 @@
       <c r="N9" s="1"/>
       <c r="O9" s="2"/>
       <c r="P9" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
@@ -5293,7 +5803,7 @@
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="1">
@@ -5301,20 +5811,20 @@
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD9">
+        <v>0.0</v>
       </c>
       <c r="AE9"/>
       <c r="AG9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -5325,15 +5835,15 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="1"/>
@@ -5344,11 +5854,11 @@
       <c r="N10" s="1"/>
       <c r="O10" s="2"/>
       <c r="P10" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
@@ -5361,7 +5871,7 @@
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="1">
@@ -5369,20 +5879,20 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD10">
+        <v>0.0</v>
       </c>
       <c r="AE10"/>
       <c r="AG10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -5393,15 +5903,15 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
@@ -5412,11 +5922,11 @@
       <c r="N11" s="1"/>
       <c r="O11" s="2"/>
       <c r="P11" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -5429,7 +5939,7 @@
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="1">
@@ -5437,20 +5947,20 @@
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD11">
+        <v>0.0</v>
       </c>
       <c r="AE11"/>
       <c r="AG11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -5461,15 +5971,15 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="1"/>
@@ -5480,11 +5990,11 @@
       <c r="N12" s="1"/>
       <c r="O12" s="2"/>
       <c r="P12" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S12" s="1">
         <v>0</v>
@@ -5497,7 +6007,7 @@
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="1">
@@ -5505,20 +6015,20 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD12">
+        <v>0.0</v>
       </c>
       <c r="AE12"/>
       <c r="AG12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -5529,15 +6039,15 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="1"/>
@@ -5548,11 +6058,11 @@
       <c r="N13" s="1"/>
       <c r="O13" s="2"/>
       <c r="P13" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
@@ -5565,7 +6075,7 @@
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="1">
@@ -5573,20 +6083,20 @@
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD13">
+        <v>0.0</v>
       </c>
       <c r="AE13"/>
       <c r="AG13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -5597,15 +6107,15 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="1"/>
@@ -5616,11 +6126,11 @@
       <c r="N14" s="1"/>
       <c r="O14" s="2"/>
       <c r="P14" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S14" s="1">
         <v>0</v>
@@ -5633,7 +6143,7 @@
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="1">
@@ -5641,20 +6151,20 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD14">
+        <v>0.0</v>
       </c>
       <c r="AE14"/>
       <c r="AG14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -5665,15 +6175,15 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="1"/>
@@ -5684,11 +6194,11 @@
       <c r="N15" s="1"/>
       <c r="O15" s="2"/>
       <c r="P15" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S15" s="1">
         <v>0</v>
@@ -5701,7 +6211,7 @@
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="1">
@@ -5709,20 +6219,20 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD15">
+        <v>0.0</v>
       </c>
       <c r="AE15"/>
       <c r="AG15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -5733,15 +6243,15 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="1"/>
@@ -5752,11 +6262,11 @@
       <c r="N16" s="1"/>
       <c r="O16" s="2"/>
       <c r="P16" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S16" s="1">
         <v>0</v>
@@ -5769,7 +6279,7 @@
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="1">
@@ -5777,20 +6287,20 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD16">
+        <v>0.0</v>
       </c>
       <c r="AE16"/>
       <c r="AG16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -5801,15 +6311,15 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="1"/>
@@ -5820,11 +6330,11 @@
       <c r="N17" s="1"/>
       <c r="O17" s="2"/>
       <c r="P17" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S17" s="1">
         <v>0</v>
@@ -5837,7 +6347,7 @@
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="1">
@@ -5845,20 +6355,20 @@
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD17">
+        <v>0.0</v>
       </c>
       <c r="AE17"/>
       <c r="AG17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -5869,21 +6379,21 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>87600</v>
+        <v>96360.0</v>
       </c>
       <c r="F18" s="2">
         <v>0.1</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="1">
-        <v>176189.43715882</v>
+        <v>176189.0</v>
       </c>
       <c r="J18" s="2">
         <v>0.1</v>
@@ -5892,27 +6402,27 @@
         <v>150000.0</v>
       </c>
       <c r="L18" s="1">
-        <v>26189.437158819</v>
+        <v>26189.0</v>
       </c>
       <c r="M18" s="1">
-        <v>1473810.5628412</v>
+        <v>1473811.0</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="2"/>
       <c r="P18" s="6">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="Q18" s="2">
         <v>0.1</v>
       </c>
       <c r="R18" s="1">
-        <v>1526189.4371588</v>
+        <v>1526189.0</v>
       </c>
       <c r="S18" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T18" s="1">
-        <v>1676189.4371588</v>
+        <v>1500000.0</v>
       </c>
       <c r="U18" s="6">
         <v>750000.0</v>
@@ -5921,30 +6431,30 @@
         <v>0.25</v>
       </c>
       <c r="W18" s="1">
-        <v>7500.0</v>
+        <v>0</v>
       </c>
       <c r="X18" s="2">
         <v>0.01</v>
       </c>
       <c r="Y18" s="1">
-        <v>-143189.43715882</v>
+        <v>-272549.0</v>
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD18">
+        <v>0.0</v>
       </c>
       <c r="AE18"/>
       <c r="AG18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -5955,50 +6465,50 @@
         <v>29</v>
       </c>
       <c r="C19" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="8">
-        <v>96360</v>
+        <v>105996.0</v>
       </c>
       <c r="F19" s="9">
         <v>0.1</v>
       </c>
       <c r="G19" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="8">
-        <v>176189.43715882</v>
+        <v>176189.0</v>
       </c>
       <c r="J19" s="9">
         <v>0.1</v>
       </c>
       <c r="K19" s="8">
-        <v>147381.05628412</v>
+        <v>147381.0</v>
       </c>
       <c r="L19" s="8">
-        <v>28808.3808747</v>
+        <v>28808.0</v>
       </c>
       <c r="M19" s="8">
-        <v>1445002.1819665</v>
+        <v>1445002.0</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="9"/>
       <c r="P19" s="8">
-        <v>3300000</v>
+        <v>3300000.0</v>
       </c>
       <c r="Q19" s="9">
         <v>0.1</v>
       </c>
       <c r="R19" s="8">
-        <v>1854997.8180335</v>
+        <v>1854998.0</v>
       </c>
       <c r="S19" s="8">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T19" s="8">
-        <v>1852379.0</v>
+        <v>1676189.0</v>
       </c>
       <c r="U19" s="8">
         <v>825000.0</v>
@@ -6007,30 +6517,31 @@
         <v>0.25</v>
       </c>
       <c r="W19" s="8">
-        <v>8250.0</v>
+        <v>0</v>
       </c>
       <c r="X19" s="9">
         <v>0.01</v>
       </c>
       <c r="Y19" s="8">
-        <v>-143765.60477631</v>
+        <v>-282185.0</v>
       </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB19" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC19" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE19"/>
+        <v>0.0</v>
+      </c>
+      <c r="AD19" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
       <c r="AG19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -6041,50 +6552,50 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>105996</v>
+        <v>116595.6</v>
       </c>
       <c r="F20" s="2">
         <v>0.1</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="1">
-        <v>176189.43715882</v>
+        <v>176189.0</v>
       </c>
       <c r="J20" s="2">
         <v>0.1</v>
       </c>
       <c r="K20" s="1">
-        <v>144500.21819665</v>
+        <v>144500.0</v>
       </c>
       <c r="L20" s="1">
-        <v>31689.218962171</v>
+        <v>31689.0</v>
       </c>
       <c r="M20" s="1">
-        <v>1413312.9630043</v>
+        <v>1413313.0</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="2"/>
       <c r="P20" s="6">
-        <v>3630000</v>
+        <v>3630000.0</v>
       </c>
       <c r="Q20" s="2">
         <v>0.1</v>
       </c>
       <c r="R20" s="1">
-        <v>2216687.0369957</v>
+        <v>2216687.0</v>
       </c>
       <c r="S20" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T20" s="1">
-        <v>2028568.0</v>
+        <v>1852378.0</v>
       </c>
       <c r="U20" s="6">
         <v>907500.0</v>
@@ -6093,30 +6604,30 @@
         <v>0.25</v>
       </c>
       <c r="W20" s="1">
-        <v>9075.0</v>
+        <v>0</v>
       </c>
       <c r="X20" s="2">
         <v>0.01</v>
       </c>
       <c r="Y20" s="1">
-        <v>-144399.38915556</v>
+        <v>-292784.6</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD20">
+        <v>0.0</v>
       </c>
       <c r="AE20"/>
       <c r="AG20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -6127,50 +6638,50 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>116595.6</v>
+        <v>128255.6</v>
       </c>
       <c r="F21" s="2">
         <v>0.1</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="1">
-        <v>176189.43715882</v>
+        <v>176189.0</v>
       </c>
       <c r="J21" s="2">
         <v>0.1</v>
       </c>
       <c r="K21" s="1">
-        <v>141331.29630043</v>
+        <v>141331.0</v>
       </c>
       <c r="L21" s="1">
-        <v>34858.140858388</v>
+        <v>34858.0</v>
       </c>
       <c r="M21" s="1">
-        <v>1378454.8221459</v>
+        <v>1378455.0</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="2"/>
       <c r="P21" s="6">
-        <v>3993000</v>
+        <v>3993000.0</v>
       </c>
       <c r="Q21" s="2">
         <v>0.1</v>
       </c>
       <c r="R21" s="1">
-        <v>2614545.1778541</v>
+        <v>2614545.0</v>
       </c>
       <c r="S21" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T21" s="1">
-        <v>2204757.0</v>
+        <v>2028567.0</v>
       </c>
       <c r="U21" s="6">
         <v>998250.0</v>
@@ -6179,30 +6690,30 @@
         <v>0.25</v>
       </c>
       <c r="W21" s="1">
-        <v>9982.5</v>
+        <v>0</v>
       </c>
       <c r="X21" s="2">
         <v>0.01</v>
       </c>
       <c r="Y21" s="1">
-        <v>-145096.55197272</v>
+        <v>-304444.6</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD21">
+        <v>0.0</v>
       </c>
       <c r="AE21"/>
       <c r="AG21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -6213,50 +6724,50 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>128255.16</v>
+        <v>141081.6</v>
       </c>
       <c r="F22" s="2">
         <v>0.1</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="1">
-        <v>176189.43715882</v>
+        <v>176189.0</v>
       </c>
       <c r="J22" s="2">
         <v>0.1</v>
       </c>
       <c r="K22" s="1">
-        <v>137845.48221459</v>
+        <v>137845.0</v>
       </c>
       <c r="L22" s="1">
-        <v>38343.954944226</v>
+        <v>38344.0</v>
       </c>
       <c r="M22" s="1">
-        <v>1340110.8672017</v>
+        <v>1340111.0</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="2"/>
       <c r="P22" s="6">
-        <v>4392300</v>
+        <v>4392300.0</v>
       </c>
       <c r="Q22" s="2">
         <v>0.1</v>
       </c>
       <c r="R22" s="1">
-        <v>3052189.1327983</v>
+        <v>3052189.0</v>
       </c>
       <c r="S22" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T22" s="1">
-        <v>2380946.0</v>
+        <v>2204756.0</v>
       </c>
       <c r="U22" s="6">
         <v>1098075.0</v>
@@ -6265,30 +6776,30 @@
         <v>0.25</v>
       </c>
       <c r="W22" s="1">
-        <v>10980.75</v>
+        <v>0</v>
       </c>
       <c r="X22" s="2">
         <v>0.01</v>
       </c>
       <c r="Y22" s="1">
-        <v>-145863.43107161</v>
+        <v>-317270.6</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD22">
+        <v>0.0</v>
       </c>
       <c r="AE22"/>
       <c r="AG22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -6299,50 +6810,50 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>141080.676</v>
+        <v>155190.2</v>
       </c>
       <c r="F23" s="2">
         <v>0.1</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="1">
-        <v>176189.43715882</v>
+        <v>176189.0</v>
       </c>
       <c r="J23" s="2">
         <v>0.1</v>
       </c>
       <c r="K23" s="1">
-        <v>134011.08672017</v>
+        <v>134011.0</v>
       </c>
       <c r="L23" s="1">
-        <v>42178.350438649</v>
+        <v>42178.0</v>
       </c>
       <c r="M23" s="1">
-        <v>1297932.516763</v>
+        <v>1297933.0</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="2"/>
       <c r="P23" s="6">
-        <v>4831530</v>
+        <v>4831530.0</v>
       </c>
       <c r="Q23" s="2">
         <v>0.1</v>
       </c>
       <c r="R23" s="1">
-        <v>3533597.483237</v>
+        <v>3533597.0</v>
       </c>
       <c r="S23" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T23" s="1">
-        <v>2557135.0</v>
+        <v>2380945.0</v>
       </c>
       <c r="U23" s="6">
         <v>1207882.5</v>
@@ -6351,30 +6862,30 @@
         <v>0.25</v>
       </c>
       <c r="W23" s="1">
-        <v>12078.825</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2">
         <v>0.01</v>
       </c>
       <c r="Y23" s="1">
-        <v>-146706.99808038</v>
+        <v>-331379.2</v>
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD23">
+        <v>0.0</v>
       </c>
       <c r="AE23"/>
       <c r="AG23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -6385,50 +6896,50 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>155188.7436</v>
+        <v>170709.0</v>
       </c>
       <c r="F24" s="2">
         <v>0.1</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="1">
-        <v>176189.43715882</v>
+        <v>176189.0</v>
       </c>
       <c r="J24" s="2">
         <v>0.1</v>
       </c>
       <c r="K24" s="1">
-        <v>129793.2516763</v>
+        <v>129793.0</v>
       </c>
       <c r="L24" s="1">
-        <v>46396.185482514</v>
+        <v>46396.0</v>
       </c>
       <c r="M24" s="1">
-        <v>1251536.3312805</v>
+        <v>1251536.0</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
-        <v>5314683</v>
+        <v>5314683.0</v>
       </c>
       <c r="Q24" s="2">
         <v>0.1</v>
       </c>
       <c r="R24" s="1">
-        <v>4063146.6687195</v>
+        <v>4063147.0</v>
       </c>
       <c r="S24" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T24" s="1">
-        <v>2733324.0</v>
+        <v>2557134.0</v>
       </c>
       <c r="U24" s="6">
         <v>1328670.75</v>
@@ -6437,30 +6948,30 @@
         <v>0.25</v>
       </c>
       <c r="W24" s="1">
-        <v>13286.7075</v>
+        <v>0</v>
       </c>
       <c r="X24" s="2">
         <v>0.01</v>
       </c>
       <c r="Y24" s="1">
-        <v>-147634.92179003</v>
+        <v>-346898.0</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD24">
+        <v>0.0</v>
       </c>
       <c r="AE24"/>
       <c r="AG24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -6471,50 +6982,50 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>170707.61796</v>
+        <v>187779.9</v>
       </c>
       <c r="F25" s="2">
         <v>0.1</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="1">
-        <v>176189.43715882</v>
+        <v>176189.0</v>
       </c>
       <c r="J25" s="2">
         <v>0.1</v>
       </c>
       <c r="K25" s="1">
-        <v>125153.63312805</v>
+        <v>125154.0</v>
       </c>
       <c r="L25" s="1">
-        <v>51035.804030765</v>
+        <v>51036.0</v>
       </c>
       <c r="M25" s="1">
-        <v>1200500.5272498</v>
+        <v>1200501.0</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
-        <v>5846151</v>
+        <v>5846151.0</v>
       </c>
       <c r="Q25" s="2">
         <v>0.1</v>
       </c>
       <c r="R25" s="1">
-        <v>4645650.4727502</v>
+        <v>4645650.0</v>
       </c>
       <c r="S25" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T25" s="1">
-        <v>2909513.0</v>
+        <v>2733323.0</v>
       </c>
       <c r="U25" s="6">
         <v>1461537.75</v>
@@ -6523,30 +7034,30 @@
         <v>0.25</v>
       </c>
       <c r="W25" s="1">
-        <v>14615.3775</v>
+        <v>0</v>
       </c>
       <c r="X25" s="2">
         <v>0.01</v>
       </c>
       <c r="Y25" s="1">
-        <v>-148655.63787065</v>
+        <v>-363968.9</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD25">
+        <v>0.0</v>
       </c>
       <c r="AE25"/>
       <c r="AG25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:33">
@@ -6557,50 +7068,50 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>187778.379756</v>
+        <v>206558.0</v>
       </c>
       <c r="F26" s="2">
         <v>0.1</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="1">
-        <v>176189.43715882</v>
+        <v>176189.0</v>
       </c>
       <c r="J26" s="2">
         <v>0.1</v>
       </c>
       <c r="K26" s="1">
-        <v>120050.05272498</v>
+        <v>120050.0</v>
       </c>
       <c r="L26" s="1">
-        <v>56139.384433842</v>
+        <v>56139.0</v>
       </c>
       <c r="M26" s="1">
-        <v>1144361.1428159</v>
+        <v>1144361.0</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
-        <v>6430766</v>
+        <v>6430766.0</v>
       </c>
       <c r="Q26" s="2">
         <v>0.1</v>
       </c>
       <c r="R26" s="1">
-        <v>5286404.8571841</v>
+        <v>5286405.0</v>
       </c>
       <c r="S26" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T26" s="1">
-        <v>3085702.0</v>
+        <v>2909512.0</v>
       </c>
       <c r="U26" s="6">
         <v>1607691.5</v>
@@ -6609,30 +7120,30 @@
         <v>0.25</v>
       </c>
       <c r="W26" s="1">
-        <v>16076.915</v>
+        <v>0</v>
       </c>
       <c r="X26" s="2">
         <v>0.01</v>
       </c>
       <c r="Y26" s="1">
-        <v>-149778.42555932</v>
+        <v>-382747.0</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD26">
+        <v>0.0</v>
       </c>
       <c r="AE26"/>
       <c r="AG26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -6643,50 +7154,50 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>206556.2177316</v>
+        <v>227213.8</v>
       </c>
       <c r="F27" s="2">
         <v>0.1</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="1">
-        <v>176189.43715882</v>
+        <v>176189.0</v>
       </c>
       <c r="J27" s="2">
         <v>0.1</v>
       </c>
       <c r="K27" s="1">
-        <v>114436.11428159</v>
+        <v>114436.0</v>
       </c>
       <c r="L27" s="1">
-        <v>61753.322877226</v>
+        <v>61753.0</v>
       </c>
       <c r="M27" s="1">
-        <v>1082607.8199387</v>
+        <v>1082608.0</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
-        <v>7073843</v>
+        <v>7073843.0</v>
       </c>
       <c r="Q27" s="2">
         <v>0.1</v>
       </c>
       <c r="R27" s="1">
-        <v>5991235.1800613</v>
+        <v>5991235.0</v>
       </c>
       <c r="S27" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T27" s="1">
-        <v>3261891.0</v>
+        <v>3085701.0</v>
       </c>
       <c r="U27" s="6">
         <v>1768460.75</v>
@@ -6695,30 +7206,30 @@
         <v>0.25</v>
       </c>
       <c r="W27" s="1">
-        <v>17684.6075</v>
+        <v>684.6075</v>
       </c>
       <c r="X27" s="2">
         <v>0.01</v>
       </c>
       <c r="Y27" s="1">
-        <v>-151013.49201687</v>
+        <v>-404087.4075</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD27">
+        <v>0.0</v>
       </c>
       <c r="AE27"/>
       <c r="AG27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -6729,50 +7240,50 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>227211.83950476</v>
+        <v>249935.4</v>
       </c>
       <c r="F28" s="2">
         <v>0.1</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="1">
-        <v>176189.43715882</v>
+        <v>176189.0</v>
       </c>
       <c r="J28" s="2">
         <v>0.1</v>
       </c>
       <c r="K28" s="1">
-        <v>108260.78199387</v>
+        <v>108261.0</v>
       </c>
       <c r="L28" s="1">
-        <v>67928.655164949</v>
+        <v>67929.0</v>
       </c>
       <c r="M28" s="1">
-        <v>1014679.1647738</v>
+        <v>1014679.0</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
-        <v>7781227</v>
+        <v>7781227.0</v>
       </c>
       <c r="Q28" s="2">
         <v>0.1</v>
       </c>
       <c r="R28" s="1">
-        <v>6766547.8352262</v>
+        <v>6766548.0</v>
       </c>
       <c r="S28" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T28" s="1">
-        <v>3438080.0</v>
+        <v>3261890.0</v>
       </c>
       <c r="U28" s="6">
         <v>1945306.75</v>
@@ -6781,30 +7292,30 @@
         <v>0.25</v>
       </c>
       <c r="W28" s="1">
-        <v>19453.0675</v>
+        <v>2453.0675</v>
       </c>
       <c r="X28" s="2">
         <v>0.01</v>
       </c>
       <c r="Y28" s="1">
-        <v>-152372.06512017</v>
+        <v>-428577.4675</v>
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD28">
+        <v>0.0</v>
       </c>
       <c r="AE28"/>
       <c r="AG28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -6815,50 +7326,50 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>249933.02345524</v>
+        <v>274928.5</v>
       </c>
       <c r="F29" s="2">
         <v>0.1</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="1">
-        <v>176189.43715882</v>
+        <v>176189.0</v>
       </c>
       <c r="J29" s="2">
         <v>0.1</v>
       </c>
       <c r="K29" s="1">
-        <v>101467.91647738</v>
+        <v>101468.0</v>
       </c>
       <c r="L29" s="1">
-        <v>74721.520681444</v>
+        <v>74722.0</v>
       </c>
       <c r="M29" s="1">
-        <v>939957.64409231</v>
+        <v>939958.0</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="2"/>
       <c r="P29" s="6">
-        <v>8559350</v>
+        <v>8559350.0</v>
       </c>
       <c r="Q29" s="2">
         <v>0.1</v>
       </c>
       <c r="R29" s="1">
-        <v>7619392.3559077</v>
+        <v>7619392.0</v>
       </c>
       <c r="S29" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T29" s="1">
-        <v>3614269.0</v>
+        <v>3438079.0</v>
       </c>
       <c r="U29" s="6">
         <v>2139837.5</v>
@@ -6867,30 +7378,30 @@
         <v>0.25</v>
       </c>
       <c r="W29" s="1">
-        <v>21398.375</v>
+        <v>4398.375</v>
       </c>
       <c r="X29" s="2">
         <v>0.01</v>
       </c>
       <c r="Y29" s="1">
-        <v>-153866.4955338</v>
+        <v>-455515.875</v>
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD29">
+        <v>0.0</v>
       </c>
       <c r="AE29"/>
       <c r="AG29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -6901,50 +7412,50 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>274926.32580076</v>
+        <v>302421.9</v>
       </c>
       <c r="F30" s="2">
         <v>0.1</v>
       </c>
       <c r="G30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="1">
-        <v>176189.43715882</v>
+        <v>176189.0</v>
       </c>
       <c r="J30" s="2">
         <v>0.1</v>
       </c>
       <c r="K30" s="1">
-        <v>93995.764409231</v>
+        <v>93996.0</v>
       </c>
       <c r="L30" s="1">
-        <v>82193.672749588</v>
+        <v>82194.0</v>
       </c>
       <c r="M30" s="1">
-        <v>857763.97134272</v>
+        <v>857764.0</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="2"/>
       <c r="P30" s="6">
-        <v>9415285</v>
+        <v>9415285.0</v>
       </c>
       <c r="Q30" s="2">
         <v>0.1</v>
       </c>
       <c r="R30" s="1">
-        <v>8557521.0286573</v>
+        <v>8557521.0</v>
       </c>
       <c r="S30" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T30" s="1">
-        <v>3790458.0</v>
+        <v>3614268.0</v>
       </c>
       <c r="U30" s="6">
         <v>2353821.25</v>
@@ -6953,30 +7464,30 @@
         <v>0.25</v>
       </c>
       <c r="W30" s="1">
-        <v>23538.2125</v>
+        <v>6538.2125</v>
       </c>
       <c r="X30" s="2">
         <v>0.01</v>
       </c>
       <c r="Y30" s="1">
-        <v>-155510.36898879</v>
+        <v>-485149.1125</v>
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD30">
+        <v>0.0</v>
       </c>
       <c r="AE30"/>
       <c r="AG30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:33">
@@ -6987,50 +7498,50 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>302418.95838084</v>
+        <v>332664.2</v>
       </c>
       <c r="F31" s="2">
         <v>0.1</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="1">
-        <v>176189.43715882</v>
+        <v>176189.0</v>
       </c>
       <c r="J31" s="2">
         <v>0.1</v>
       </c>
       <c r="K31" s="1">
-        <v>85776.397134272</v>
+        <v>85776.0</v>
       </c>
       <c r="L31" s="1">
-        <v>90413.040024547</v>
+        <v>90413.0</v>
       </c>
       <c r="M31" s="1">
-        <v>767350.93131817</v>
+        <v>767351.0</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="2"/>
       <c r="P31" s="6">
-        <v>10356814</v>
+        <v>10356814.0</v>
       </c>
       <c r="Q31" s="2">
         <v>0.1</v>
       </c>
       <c r="R31" s="1">
-        <v>9589463.0686818</v>
+        <v>9589463.0</v>
       </c>
       <c r="S31" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T31" s="1">
-        <v>3966647.0</v>
+        <v>3790457.0</v>
       </c>
       <c r="U31" s="6">
         <v>2589203.5</v>
@@ -7039,30 +7550,30 @@
         <v>0.25</v>
       </c>
       <c r="W31" s="1">
-        <v>25892.035</v>
+        <v>8892.035</v>
       </c>
       <c r="X31" s="2">
         <v>0.01</v>
       </c>
       <c r="Y31" s="1">
-        <v>-157318.62978928</v>
+        <v>-517745.235</v>
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD31">
+        <v>0.0</v>
       </c>
       <c r="AE31"/>
       <c r="AG31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:33">
@@ -7073,50 +7584,50 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>332660.85421892</v>
+        <v>365930.4</v>
       </c>
       <c r="F32" s="2">
         <v>0.1</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="1">
-        <v>176189.43715882</v>
+        <v>176189.0</v>
       </c>
       <c r="J32" s="2">
         <v>0.1</v>
       </c>
       <c r="K32" s="1">
-        <v>76735.093131817</v>
+        <v>76735.0</v>
       </c>
       <c r="L32" s="1">
-        <v>99454.344027001</v>
+        <v>99454.0</v>
       </c>
       <c r="M32" s="1">
-        <v>667896.58729117</v>
+        <v>667897.0</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="2"/>
       <c r="P32" s="6">
-        <v>11392495</v>
+        <v>11392495.0</v>
       </c>
       <c r="Q32" s="2">
         <v>0.1</v>
       </c>
       <c r="R32" s="1">
-        <v>10724598.412709</v>
+        <v>10724598.0</v>
       </c>
       <c r="S32" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T32" s="1">
-        <v>4142836.0</v>
+        <v>3966646.0</v>
       </c>
       <c r="U32" s="6">
         <v>2848123.75</v>
@@ -7125,30 +7636,30 @@
         <v>0.25</v>
       </c>
       <c r="W32" s="1">
-        <v>28481.2375</v>
+        <v>11481.2375</v>
       </c>
       <c r="X32" s="2">
         <v>0.01</v>
       </c>
       <c r="Y32" s="1">
-        <v>-159307.71666982</v>
+        <v>-553600.6375</v>
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD32">
+        <v>0.0</v>
       </c>
       <c r="AE32"/>
       <c r="AG32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:33">
@@ -7159,50 +7670,50 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>365926.93964081</v>
+        <v>402523.0</v>
       </c>
       <c r="F33" s="2">
         <v>0.1</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="1">
-        <v>176189.43715882</v>
+        <v>176189.0</v>
       </c>
       <c r="J33" s="2">
         <v>0.1</v>
       </c>
       <c r="K33" s="1">
-        <v>66789.658729117</v>
+        <v>66790.0</v>
       </c>
       <c r="L33" s="1">
-        <v>109399.7784297</v>
+        <v>109400.0</v>
       </c>
       <c r="M33" s="1">
-        <v>558496.80886147</v>
+        <v>558497.0</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="2"/>
       <c r="P33" s="6">
-        <v>12531745</v>
+        <v>12531745.0</v>
       </c>
       <c r="Q33" s="2">
         <v>0.1</v>
       </c>
       <c r="R33" s="1">
-        <v>11973248.191139</v>
+        <v>11973248.0</v>
       </c>
       <c r="S33" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T33" s="1">
-        <v>4319025.0</v>
+        <v>4142835.0</v>
       </c>
       <c r="U33" s="6">
         <v>3132936.25</v>
@@ -7211,30 +7722,30 @@
         <v>0.25</v>
       </c>
       <c r="W33" s="1">
-        <v>31329.3625</v>
+        <v>14329.3625</v>
       </c>
       <c r="X33" s="2">
         <v>0.01</v>
       </c>
       <c r="Y33" s="1">
-        <v>-161495.71223841</v>
+        <v>-593041.3625</v>
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD33">
+        <v>0.0</v>
       </c>
       <c r="AE33"/>
       <c r="AG33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:33">
@@ -7245,50 +7756,50 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>402519.63360489</v>
+        <v>442775.3</v>
       </c>
       <c r="F34" s="2">
         <v>0.1</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="1">
-        <v>176189.43715882</v>
+        <v>176189.0</v>
       </c>
       <c r="J34" s="2">
         <v>0.1</v>
       </c>
       <c r="K34" s="1">
-        <v>55849.680886147</v>
+        <v>55850.0</v>
       </c>
       <c r="L34" s="1">
-        <v>120339.75627267</v>
+        <v>120340.0</v>
       </c>
       <c r="M34" s="1">
-        <v>438157.0525888</v>
+        <v>438157.0</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="2"/>
       <c r="P34" s="6">
-        <v>13784920</v>
+        <v>13784920.0</v>
       </c>
       <c r="Q34" s="2">
         <v>0.1</v>
       </c>
       <c r="R34" s="1">
-        <v>13346762.947411</v>
+        <v>13346763.0</v>
       </c>
       <c r="S34" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T34" s="1">
-        <v>4495214.0</v>
+        <v>4319024.0</v>
       </c>
       <c r="U34" s="6">
         <v>3446230.0</v>
@@ -7297,30 +7808,30 @@
         <v>0.25</v>
       </c>
       <c r="W34" s="1">
-        <v>34462.3</v>
+        <v>17462.3</v>
       </c>
       <c r="X34" s="2">
         <v>0.01</v>
       </c>
       <c r="Y34" s="1">
-        <v>-163902.50736387</v>
+        <v>-636426.6</v>
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD34">
+        <v>0.0</v>
       </c>
       <c r="AE34"/>
       <c r="AG34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -7331,50 +7842,50 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>442771.59696538</v>
+        <v>487052.5</v>
       </c>
       <c r="F35" s="2">
         <v>0.1</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="1">
-        <v>176189.43715882</v>
+        <v>176189.0</v>
       </c>
       <c r="J35" s="2">
         <v>0.1</v>
       </c>
       <c r="K35" s="1">
-        <v>43815.70525888</v>
+        <v>43816.0</v>
       </c>
       <c r="L35" s="1">
-        <v>132373.73189994</v>
+        <v>132374.0</v>
       </c>
       <c r="M35" s="1">
-        <v>305783.32068886</v>
+        <v>305783.0</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="2"/>
       <c r="P35" s="6">
-        <v>15163412</v>
+        <v>15163412.0</v>
       </c>
       <c r="Q35" s="2">
         <v>0.1</v>
       </c>
       <c r="R35" s="1">
-        <v>14857628.679311</v>
+        <v>14857629.0</v>
       </c>
       <c r="S35" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T35" s="1">
-        <v>4671403.0</v>
+        <v>4495213.0</v>
       </c>
       <c r="U35" s="6">
         <v>3790853.0</v>
@@ -7383,30 +7894,30 @@
         <v>0.25</v>
       </c>
       <c r="W35" s="1">
-        <v>37908.53</v>
+        <v>20908.53</v>
       </c>
       <c r="X35" s="2">
         <v>0.01</v>
       </c>
       <c r="Y35" s="1">
-        <v>-166549.98200187</v>
+        <v>-684150.03</v>
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD35">
+        <v>0.0</v>
       </c>
       <c r="AE35"/>
       <c r="AG35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:33">
@@ -7417,50 +7928,50 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>487048.75666192</v>
+        <v>535758.3</v>
       </c>
       <c r="F36" s="2">
         <v>0.1</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="1">
-        <v>176189.43715882</v>
+        <v>176189.0</v>
       </c>
       <c r="J36" s="2">
         <v>0.1</v>
       </c>
       <c r="K36" s="1">
-        <v>30578.332068886</v>
+        <v>30578.0</v>
       </c>
       <c r="L36" s="1">
-        <v>145611.10508993</v>
+        <v>145611.0</v>
       </c>
       <c r="M36" s="1">
-        <v>160172.21559893</v>
+        <v>160172.0</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="2"/>
       <c r="P36" s="6">
-        <v>16679753</v>
+        <v>16679753.0</v>
       </c>
       <c r="Q36" s="2">
         <v>0.1</v>
       </c>
       <c r="R36" s="1">
-        <v>16519580.784401</v>
+        <v>16519581.0</v>
       </c>
       <c r="S36" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T36" s="1">
-        <v>4847592.0</v>
+        <v>4671402.0</v>
       </c>
       <c r="U36" s="6">
         <v>4169938.25</v>
@@ -7469,30 +7980,30 @@
         <v>0.25</v>
       </c>
       <c r="W36" s="1">
-        <v>41699.3825</v>
+        <v>24699.3825</v>
       </c>
       <c r="X36" s="2">
         <v>0.01</v>
       </c>
       <c r="Y36" s="1">
-        <v>-169462.20410366</v>
+        <v>-736646.6825</v>
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD36">
+        <v>0.0</v>
       </c>
       <c r="AE36"/>
       <c r="AG36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:33">
@@ -7503,38 +8014,38 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>535753.63232811</v>
+        <v>589333.8</v>
       </c>
       <c r="F37" s="2">
         <v>0.1</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="1">
-        <v>176189.43715882</v>
+        <v>176189.0</v>
       </c>
       <c r="J37" s="2">
         <v>0.1</v>
       </c>
       <c r="K37" s="1">
-        <v>16017.221559893</v>
+        <v>16017.0</v>
       </c>
       <c r="L37" s="1">
-        <v>160172.21559893</v>
+        <v>160172.0</v>
       </c>
       <c r="M37" s="1">
-        <v>2.9103830456734E-11</v>
+        <v>0.0</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>18347728</v>
+        <v>18347728.0</v>
       </c>
       <c r="Q37" s="2">
         <v>0.1</v>
@@ -7543,10 +8054,10 @@
         <v>18347728.0</v>
       </c>
       <c r="S37" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T37" s="1">
-        <v>5023781.0</v>
+        <v>4847591.0</v>
       </c>
       <c r="U37" s="6">
         <v>4586932.0</v>
@@ -7555,30 +8066,30 @@
         <v>0.25</v>
       </c>
       <c r="W37" s="1">
-        <v>45869.32</v>
+        <v>28869.32</v>
       </c>
       <c r="X37" s="2">
         <v>0.01</v>
       </c>
       <c r="Y37" s="1">
-        <v>-172665.64841564</v>
+        <v>-794392.12</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD37">
+        <v>0.0</v>
       </c>
       <c r="AE37"/>
       <c r="AG37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:33">
@@ -7589,17 +8100,17 @@
         <v>48</v>
       </c>
       <c r="C38" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>589328.99556092</v>
+        <v>648267.4</v>
       </c>
       <c r="F38" s="2">
         <v>0.1</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="1"/>
@@ -7610,19 +8121,19 @@
       <c r="N38" s="1"/>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>20182501</v>
+        <v>20182501.0</v>
       </c>
       <c r="Q38" s="2">
         <v>0.1</v>
       </c>
       <c r="R38" s="1">
-        <v>20182501</v>
+        <v>20182501.0</v>
       </c>
       <c r="S38" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>5023781.0</v>
+        <v>4847591.0</v>
       </c>
       <c r="U38" s="6">
         <v>5045625.25</v>
@@ -7631,30 +8142,30 @@
         <v>0.25</v>
       </c>
       <c r="W38" s="1">
-        <v>50456.2525</v>
+        <v>33456.2525</v>
       </c>
       <c r="X38" s="2">
         <v>0.01</v>
       </c>
       <c r="Y38" s="1">
-        <v>0.0</v>
+        <v>-681723.6525</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD38">
+        <v>0.0</v>
       </c>
       <c r="AE38"/>
       <c r="AG38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:33">
@@ -7665,17 +8176,17 @@
         <v>49</v>
       </c>
       <c r="C39" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <v>648261.89511701</v>
+        <v>713093.7</v>
       </c>
       <c r="F39" s="2">
         <v>0.1</v>
       </c>
       <c r="G39" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="1"/>
@@ -7686,19 +8197,19 @@
       <c r="N39" s="1"/>
       <c r="O39" s="2"/>
       <c r="P39" s="6">
-        <v>22200751</v>
+        <v>22200751.0</v>
       </c>
       <c r="Q39" s="2">
         <v>0.1</v>
       </c>
       <c r="R39" s="1">
-        <v>22200751</v>
+        <v>22200751.0</v>
       </c>
       <c r="S39" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T39" s="1">
-        <v>5023781.0</v>
+        <v>4847591.0</v>
       </c>
       <c r="U39" s="6">
         <v>5550187.75</v>
@@ -7707,30 +8218,30 @@
         <v>0.25</v>
       </c>
       <c r="W39" s="1">
-        <v>55501.8775</v>
+        <v>38501.8775</v>
       </c>
       <c r="X39" s="2">
         <v>0.01</v>
       </c>
       <c r="Y39" s="1">
-        <v>0.0</v>
+        <v>-751595.5775</v>
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB39" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD39">
+        <v>0.0</v>
       </c>
       <c r="AE39"/>
       <c r="AG39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:33">
@@ -7741,17 +8252,17 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>713088.08462871</v>
+        <v>784403.4</v>
       </c>
       <c r="F40" s="12">
         <v>0.1</v>
       </c>
       <c r="G40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="11"/>
@@ -7762,19 +8273,19 @@
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>24420826</v>
+        <v>24420826.0</v>
       </c>
       <c r="Q40" s="12">
         <v>0.1</v>
       </c>
       <c r="R40" s="11">
-        <v>24420826</v>
+        <v>24420826.0</v>
       </c>
       <c r="S40" s="11">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>5023781.0</v>
+        <v>4847591.0</v>
       </c>
       <c r="U40" s="11">
         <v>6105206.5</v>
@@ -7783,30 +8294,31 @@
         <v>0.25</v>
       </c>
       <c r="W40" s="11">
-        <v>61052.065</v>
+        <v>44052.065</v>
       </c>
       <c r="X40" s="12">
         <v>0.01</v>
       </c>
       <c r="Y40" s="11">
-        <v>0.0</v>
+        <v>-828455.465</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE40"/>
+        <v>0.0</v>
+      </c>
+      <c r="AD40" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
       <c r="AG40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:33">
@@ -7817,17 +8329,17 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>784396.89309158</v>
+        <v>862843.3</v>
       </c>
       <c r="F41" s="2">
         <v>0.1</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
@@ -7838,19 +8350,19 @@
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>26862909</v>
+        <v>26862909.0</v>
       </c>
       <c r="Q41" s="2">
         <v>0.1</v>
       </c>
       <c r="R41" s="1">
-        <v>26862909</v>
+        <v>26862909.0</v>
       </c>
       <c r="S41" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>5023781.0</v>
+        <v>4847591.0</v>
       </c>
       <c r="U41" s="6">
         <v>6715727.25</v>
@@ -7859,30 +8371,30 @@
         <v>0.25</v>
       </c>
       <c r="W41" s="1">
-        <v>67157.2725</v>
+        <v>50157.2725</v>
       </c>
       <c r="X41" s="2">
         <v>0.01</v>
       </c>
       <c r="Y41" s="1">
-        <v>0.0</v>
+        <v>-913000.5725</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD41">
+        <v>0.0</v>
       </c>
       <c r="AE41"/>
       <c r="AG41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:33">
@@ -7893,17 +8405,17 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>862836.58240074</v>
+        <v>949127.3</v>
       </c>
       <c r="F42" s="2">
         <v>0.1</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="1"/>
@@ -7914,19 +8426,19 @@
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>29549200</v>
+        <v>29549200.0</v>
       </c>
       <c r="Q42" s="2">
         <v>0.1</v>
       </c>
       <c r="R42" s="1">
-        <v>29549200</v>
+        <v>29549200.0</v>
       </c>
       <c r="S42" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>5023781.0</v>
+        <v>4847591.0</v>
       </c>
       <c r="U42" s="6">
         <v>7387300.0</v>
@@ -7935,30 +8447,30 @@
         <v>0.25</v>
       </c>
       <c r="W42" s="1">
-        <v>73873.0</v>
+        <v>56873.0</v>
       </c>
       <c r="X42" s="2">
         <v>0.01</v>
       </c>
       <c r="Y42" s="1">
-        <v>0.0</v>
+        <v>-1006000.3</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD42">
+        <v>0.0</v>
       </c>
       <c r="AE42"/>
       <c r="AG42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:33">
@@ -7969,17 +8481,17 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>949120.24064081</v>
+        <v>1044039.7</v>
       </c>
       <c r="F43" s="2">
         <v>0.1</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="1"/>
@@ -7990,19 +8502,19 @@
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>32504120</v>
+        <v>32504120.0</v>
       </c>
       <c r="Q43" s="2">
         <v>0.1</v>
       </c>
       <c r="R43" s="1">
-        <v>32504120</v>
+        <v>32504120.0</v>
       </c>
       <c r="S43" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>5023781.0</v>
+        <v>4847591.0</v>
       </c>
       <c r="U43" s="6">
         <v>8126030.0</v>
@@ -8011,30 +8523,30 @@
         <v>0.25</v>
       </c>
       <c r="W43" s="1">
-        <v>81260.3</v>
+        <v>64260.3</v>
       </c>
       <c r="X43" s="2">
         <v>0.01</v>
       </c>
       <c r="Y43" s="1">
-        <v>0.0</v>
+        <v>-1108300.0</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD43">
+        <v>0.0</v>
       </c>
       <c r="AE43"/>
       <c r="AG43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:33">
@@ -8045,17 +8557,17 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>1044032.2647049</v>
+        <v>1148444.0</v>
       </c>
       <c r="F44" s="2">
         <v>0.1</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="1"/>
@@ -8066,19 +8578,19 @@
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>35754532</v>
+        <v>35754532.0</v>
       </c>
       <c r="Q44" s="2">
         <v>0.1</v>
       </c>
       <c r="R44" s="1">
-        <v>35754532</v>
+        <v>35754532.0</v>
       </c>
       <c r="S44" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>5023781.0</v>
+        <v>4847591.0</v>
       </c>
       <c r="U44" s="6">
         <v>8938633.0</v>
@@ -8087,30 +8599,30 @@
         <v>0.25</v>
       </c>
       <c r="W44" s="1">
-        <v>89386.33</v>
+        <v>72386.33</v>
       </c>
       <c r="X44" s="2">
         <v>0.01</v>
       </c>
       <c r="Y44" s="1">
-        <v>0.0</v>
+        <v>-1220830.33</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD44">
+        <v>0.0</v>
       </c>
       <c r="AE44"/>
       <c r="AG44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:33">
@@ -8121,17 +8633,17 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>1148435.4911754</v>
+        <v>1263288.4</v>
       </c>
       <c r="F45" s="2">
         <v>0.1</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="1"/>
@@ -8142,19 +8654,19 @@
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>39329985</v>
+        <v>39329985.0</v>
       </c>
       <c r="Q45" s="2">
         <v>0.1</v>
       </c>
       <c r="R45" s="1">
-        <v>39329985</v>
+        <v>39329985.0</v>
       </c>
       <c r="S45" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>5023781.0</v>
+        <v>4847591.0</v>
       </c>
       <c r="U45" s="6">
         <v>9832496.25</v>
@@ -8163,30 +8675,30 @@
         <v>0.25</v>
       </c>
       <c r="W45" s="1">
-        <v>98324.9625</v>
+        <v>81324.9625</v>
       </c>
       <c r="X45" s="2">
         <v>0.01</v>
       </c>
       <c r="Y45" s="1">
-        <v>0.0</v>
+        <v>-1344613.3625</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD45">
+        <v>0.0</v>
       </c>
       <c r="AE45"/>
       <c r="AG45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:33">
@@ -8197,17 +8709,17 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>1263279.0402929</v>
+        <v>1389616.8</v>
       </c>
       <c r="F46" s="2">
         <v>0.1</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="1"/>
@@ -8218,19 +8730,19 @@
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>43262984</v>
+        <v>43262984.0</v>
       </c>
       <c r="Q46" s="2">
         <v>0.1</v>
       </c>
       <c r="R46" s="1">
-        <v>43262984</v>
+        <v>43262984.0</v>
       </c>
       <c r="S46" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>5023781.0</v>
+        <v>4847591.0</v>
       </c>
       <c r="U46" s="6">
         <v>10815746.0</v>
@@ -8239,30 +8751,30 @@
         <v>0.25</v>
       </c>
       <c r="W46" s="1">
-        <v>108157.46</v>
+        <v>91157.46</v>
       </c>
       <c r="X46" s="2">
         <v>0.01</v>
       </c>
       <c r="Y46" s="1">
-        <v>0.0</v>
+        <v>-1480774.26</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD46">
+        <v>0.0</v>
       </c>
       <c r="AE46"/>
       <c r="AG46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:33">
@@ -8273,17 +8785,17 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>1389606.9443222</v>
+        <v>1528578.7</v>
       </c>
       <c r="F47" s="2">
         <v>0.1</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="1"/>
@@ -8294,19 +8806,19 @@
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>47589282</v>
+        <v>47589282.0</v>
       </c>
       <c r="Q47" s="2">
         <v>0.1</v>
       </c>
       <c r="R47" s="1">
-        <v>47589282</v>
+        <v>47589282.0</v>
       </c>
       <c r="S47" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>5023781.0</v>
+        <v>4847591.0</v>
       </c>
       <c r="U47" s="6">
         <v>11897320.5</v>
@@ -8315,30 +8827,30 @@
         <v>0.25</v>
       </c>
       <c r="W47" s="1">
-        <v>118973.205</v>
+        <v>101973.205</v>
       </c>
       <c r="X47" s="2">
         <v>0.01</v>
       </c>
       <c r="Y47" s="1">
-        <v>0.0</v>
+        <v>-1630551.905</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD47">
+        <v>0.0</v>
       </c>
       <c r="AE47"/>
       <c r="AG47" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:33">
@@ -8349,17 +8861,17 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>1528567.6387544</v>
+        <v>1681436.9</v>
       </c>
       <c r="F48" s="2">
         <v>0.1</v>
       </c>
       <c r="G48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="1"/>
@@ -8370,19 +8882,19 @@
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>52348210</v>
+        <v>52348210.0</v>
       </c>
       <c r="Q48" s="2">
         <v>0.1</v>
       </c>
       <c r="R48" s="1">
-        <v>52348210</v>
+        <v>52348210.0</v>
       </c>
       <c r="S48" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>5023781.0</v>
+        <v>4847591.0</v>
       </c>
       <c r="U48" s="6">
         <v>13087052.5</v>
@@ -8391,30 +8903,30 @@
         <v>0.25</v>
       </c>
       <c r="W48" s="1">
-        <v>130870.525</v>
+        <v>113870.525</v>
       </c>
       <c r="X48" s="2">
         <v>0.01</v>
       </c>
       <c r="Y48" s="1">
-        <v>0.0</v>
+        <v>-1795307.425</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD48">
+        <v>0.0</v>
       </c>
       <c r="AE48"/>
       <c r="AG48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:33">
@@ -8425,17 +8937,17 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>1681424.4026298</v>
+        <v>1849580.7</v>
       </c>
       <c r="F49" s="2">
         <v>0.1</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="1"/>
@@ -8446,19 +8958,19 @@
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>57583031</v>
+        <v>57583031.0</v>
       </c>
       <c r="Q49" s="2">
         <v>0.1</v>
       </c>
       <c r="R49" s="1">
-        <v>57583031</v>
+        <v>57583031.0</v>
       </c>
       <c r="S49" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>5023781.0</v>
+        <v>4847591.0</v>
       </c>
       <c r="U49" s="6">
         <v>14395757.75</v>
@@ -8467,30 +8979,30 @@
         <v>0.25</v>
       </c>
       <c r="W49" s="1">
-        <v>143957.5775</v>
+        <v>126957.5775</v>
       </c>
       <c r="X49" s="2">
         <v>0.01</v>
       </c>
       <c r="Y49" s="1">
-        <v>0.0</v>
+        <v>-1976538.2775</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD49">
+        <v>0.0</v>
       </c>
       <c r="AE49"/>
       <c r="AG49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:33">
@@ -8501,17 +9013,17 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>1849566.8428928</v>
+        <v>2034539.1</v>
       </c>
       <c r="F50" s="2">
         <v>0.1</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="1"/>
@@ -8522,19 +9034,19 @@
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>63341334</v>
+        <v>63341334.0</v>
       </c>
       <c r="Q50" s="2">
         <v>0.1</v>
       </c>
       <c r="R50" s="1">
-        <v>63341334</v>
+        <v>63341334.0</v>
       </c>
       <c r="S50" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>5023781.0</v>
+        <v>4847591.0</v>
       </c>
       <c r="U50" s="6">
         <v>15835333.5</v>
@@ -8543,30 +9055,30 @@
         <v>0.25</v>
       </c>
       <c r="W50" s="1">
-        <v>158353.335</v>
+        <v>141353.335</v>
       </c>
       <c r="X50" s="2">
         <v>0.01</v>
       </c>
       <c r="Y50" s="1">
-        <v>0.0</v>
+        <v>-2175892.435</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD50">
+        <v>0.0</v>
       </c>
       <c r="AE50"/>
       <c r="AG50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:33">
@@ -8577,17 +9089,17 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>2034523.5271821</v>
+        <v>2237992.9</v>
       </c>
       <c r="F51" s="2">
         <v>0.1</v>
       </c>
       <c r="G51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="1"/>
@@ -8598,19 +9110,19 @@
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>69675467</v>
+        <v>69675467.0</v>
       </c>
       <c r="Q51" s="2">
         <v>0.1</v>
       </c>
       <c r="R51" s="1">
-        <v>69675467</v>
+        <v>69675467.0</v>
       </c>
       <c r="S51" s="1">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>5023781.0</v>
+        <v>4847591.0</v>
       </c>
       <c r="U51" s="6">
         <v>17418866.75</v>
@@ -8619,30 +9131,30 @@
         <v>0.25</v>
       </c>
       <c r="W51" s="1">
-        <v>174188.6675</v>
+        <v>157188.6675</v>
       </c>
       <c r="X51" s="2">
         <v>0.01</v>
       </c>
       <c r="Y51" s="1">
-        <v>0.0</v>
+        <v>-2395181.5675</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="2">
-        <v>0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AD51">
+        <v>0.0</v>
       </c>
       <c r="AE51"/>
       <c r="AG51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:33">
@@ -8653,17 +9165,17 @@
         <v>62</v>
       </c>
       <c r="C52" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="5">
-        <v>2237975.8799003</v>
+        <v>2461792.3</v>
       </c>
       <c r="F52" s="16">
         <v>0.1</v>
       </c>
       <c r="G52" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="5"/>
@@ -8674,19 +9186,19 @@
       <c r="N52" s="5"/>
       <c r="O52" s="16"/>
       <c r="P52" s="5">
-        <v>76643014</v>
+        <v>76643014.0</v>
       </c>
       <c r="Q52" s="16">
         <v>0.1</v>
       </c>
       <c r="R52" s="5">
-        <v>76643014</v>
+        <v>76643014.0</v>
       </c>
       <c r="S52" s="5">
-        <v>3000000</v>
+        <v>3000000.0</v>
       </c>
       <c r="T52" s="5">
-        <v>5023781.0</v>
+        <v>4847591.0</v>
       </c>
       <c r="U52" s="5">
         <v>19160753.5</v>
@@ -8695,30 +9207,31 @@
         <v>0.25</v>
       </c>
       <c r="W52" s="5">
-        <v>191607.535</v>
+        <v>174607.535</v>
       </c>
       <c r="X52" s="16">
         <v>0.01</v>
       </c>
       <c r="Y52" s="5">
-        <v>0.0</v>
+        <v>-2636399.835</v>
       </c>
       <c r="Z52" s="16"/>
       <c r="AA52" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB52" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE52"/>
+        <v>0.0</v>
+      </c>
+      <c r="AD52" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AE52" s="15"/>
+      <c r="AF52" s="15"/>
       <c r="AG52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:33">
@@ -8751,7 +9264,9 @@
       <c r="AA53" s="13"/>
       <c r="AB53" s="13"/>
       <c r="AC53" s="13"/>
-      <c r="AD53" s="14"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
     </row>
     <row r="54" spans="1:33">
       <c r="B54" s="1"/>
@@ -8782,7 +9297,6 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
-      <c r="AD54" s="2"/>
     </row>
     <row r="55" spans="1:33">
       <c r="B55" s="1"/>
@@ -8813,7 +9327,6 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
-      <c r="AD55" s="2"/>
     </row>
     <row r="56" spans="1:33">
       <c r="B56" s="1"/>
@@ -8844,7 +9357,6 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
-      <c r="AD56" s="2"/>
     </row>
     <row r="57" spans="1:33">
       <c r="A57" s="3"/>
@@ -8876,7 +9388,9 @@
       <c r="AA57" s="13"/>
       <c r="AB57" s="13"/>
       <c r="AC57" s="13"/>
-      <c r="AD57" s="14"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
     </row>
     <row r="58" spans="1:33">
       <c r="B58" s="1"/>
@@ -8907,7 +9421,6 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
-      <c r="AD58" s="2"/>
     </row>
     <row r="59" spans="1:33">
       <c r="B59" s="1"/>
@@ -8938,7 +9451,6 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
-      <c r="AD59" s="2"/>
     </row>
     <row r="60" spans="1:33">
       <c r="B60" s="1"/>
@@ -8969,7 +9481,6 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
-      <c r="AD60" s="2"/>
     </row>
     <row r="61" spans="1:33">
       <c r="B61" s="1"/>
@@ -9000,7 +9511,6 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
-      <c r="AD61" s="2"/>
     </row>
     <row r="62" spans="1:33">
       <c r="B62" s="1"/>
@@ -9031,7 +9541,6 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
-      <c r="AD62" s="2"/>
     </row>
     <row r="63" spans="1:33">
       <c r="B63" s="1"/>
@@ -9062,7 +9571,6 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
-      <c r="AD63" s="2"/>
     </row>
     <row r="64" spans="1:33">
       <c r="B64" s="1"/>
@@ -9093,7 +9601,6 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
-      <c r="AD64" s="2"/>
     </row>
     <row r="65" spans="1:33">
       <c r="B65" s="1"/>
@@ -9124,7 +9631,6 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
-      <c r="AD65" s="2"/>
     </row>
     <row r="66" spans="1:33">
       <c r="B66" s="1"/>
@@ -9155,7 +9661,6 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
-      <c r="AD66" s="2"/>
     </row>
     <row r="67" spans="1:33">
       <c r="B67" s="1"/>
@@ -9186,7 +9691,6 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
-      <c r="AD67" s="2"/>
     </row>
     <row r="68" spans="1:33">
       <c r="B68" s="1"/>
@@ -9217,7 +9721,6 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
-      <c r="AD68" s="2"/>
     </row>
     <row r="69" spans="1:33">
       <c r="B69" s="1"/>
@@ -9248,7 +9751,6 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
-      <c r="AD69" s="2"/>
     </row>
     <row r="70" spans="1:33">
       <c r="B70" s="1"/>
@@ -9279,7 +9781,6 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
-      <c r="AD70" s="2"/>
     </row>
     <row r="71" spans="1:33">
       <c r="B71" s="1"/>
@@ -9310,7 +9811,6 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
-      <c r="AD71" s="2"/>
     </row>
     <row r="72" spans="1:33">
       <c r="B72" s="1"/>
@@ -9341,7 +9841,6 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
-      <c r="AD72" s="2"/>
     </row>
     <row r="73" spans="1:33">
       <c r="B73" s="1"/>
@@ -9372,7 +9871,6 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
-      <c r="AD73" s="2"/>
     </row>
     <row r="74" spans="1:33">
       <c r="B74" s="1"/>
@@ -9403,7 +9901,6 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
-      <c r="AD74" s="2"/>
     </row>
     <row r="75" spans="1:33">
       <c r="B75" s="1"/>
@@ -9434,7 +9931,6 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
-      <c r="AD75" s="2"/>
     </row>
     <row r="76" spans="1:33">
       <c r="B76" s="1"/>
@@ -9465,7 +9961,6 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
-      <c r="AD76" s="2"/>
     </row>
     <row r="77" spans="1:33">
       <c r="B77" s="1"/>
@@ -9496,7 +9991,6 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
-      <c r="AD77" s="2"/>
     </row>
     <row r="78" spans="1:33">
       <c r="B78" s="1"/>
@@ -9527,7 +10021,6 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
-      <c r="AD78" s="2"/>
     </row>
     <row r="79" spans="1:33">
       <c r="B79" s="1"/>
@@ -9558,7 +10051,6 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
-      <c r="AD79" s="2"/>
     </row>
     <row r="80" spans="1:33">
       <c r="B80" s="1"/>
@@ -9589,7 +10081,6 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
-      <c r="AD80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -9622,10 +10113,10 @@
   <sheetData>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3">
